--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6618F-7FFC-4BDE-AF9E-56F05625256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9CC3A-C62E-48FC-95A7-FE6272C12B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="1005" windowWidth="24090" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD TTL" sheetId="7" r:id="rId2"/>
-    <sheet name="BObIC" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD Chem Pharma Split" sheetId="8" r:id="rId3"/>
+    <sheet name="BObIC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,8 +35,616 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{97B08251-D7E4-4691-941B-0F6DEC3771FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{CECA5E42-4563-45E3-9233-C4520317B80A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{4D36F113-69EC-49DF-A88F-BE9215BDB31E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{A03029A4-FD2B-48F4-BE42-210AB2E7E552}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{9BB85469-E3A7-4120-96F7-8D588469E182}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{07A3D12A-F1C0-408C-A31D-402B8C8D569E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{EED4279A-884B-4CFE-AB99-0F996A2EB200}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{22327863-1DE5-4105-ADB1-428A5AC4466A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{88A1AB84-3B00-473C-AFA4-96A0C322A6B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{8FBC1321-82AA-49DD-A199-CEB2132FAA45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{5EAA4A3D-46F8-4566-9C0F-1EAEE62097D5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{32E5D4BE-FF0A-4EB8-9B56-A462E9F0966B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{078D6FA4-E2FA-4599-9725-6A6CFF27C731}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{FEDD4BAC-2E03-4997-9177-5E769238A105}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{CC36FF04-9804-485F-8667-9A74EF0E8A1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{76785A31-7407-4F37-BBB7-1373FD4CBEC6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{CDB8679B-7EA5-46A7-B69A-17A9575CF866}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{6C36266E-21BB-4281-9236-A593A0B84192}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{48F6F58F-7E7F-461E-847A-86BBCFA5FB26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{AE796F6E-0D9E-420C-9662-0EDC14440C88}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{4235655C-9706-4C65-A517-53DD7708151D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{0E3B8990-D2F8-4530-9D13-EE755ABA3113}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{FAE65089-D1D5-4E52-B095-EAC37D5B39F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{F6DB629C-2896-41D2-B467-F816BDC40C39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{0F2BC9F3-CA3D-44DF-8E55-5446E141808B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{6CF87C12-AFBC-4A2B-8AA5-869255D5D7A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{DE25140B-9A40-44CE-900D-C107EB119725}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{9808091B-32CB-4DF1-ADE3-747AE1456910}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{841A899E-6150-4CFD-A882-E4FBBD0E49EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{BB051FA4-460D-4DDC-A32B-FA8DDE0CA691}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{2E9494C8-EC8F-4471-A838-FF4C68D6E8C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{763248F9-1F23-45F6-94F2-F77C847658AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D1E9CE20-DCF6-4410-84E0-EE5EE4E4BC16}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{5E05783B-63AA-43B6-A819-8AC3A6211701}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{C153043A-3B04-4193-BC2E-B5F5400339A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{1AA41A39-41DC-4312-A697-A61405124825}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{0289BB40-30E8-43A2-83DF-B0BBBDBA9918}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{BE0F3AD6-5B53-4DF8-ABA2-C930EE9D2469}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{B9BC5887-BD1C-4BA3-8D63-9DA7034DB4A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{A3994ECE-E1EF-4FD7-8BF3-9CB7259D61AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{329EA39F-034F-4A31-8A78-A6E2E703E526}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A1423052-8DA7-4298-BB27-D40A8DE1A979}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{72353D54-F2A1-4969-8551-E36C5DD1E413}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{9F98C14E-0DA5-476A-A910-B1649389263E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{0F966AC1-9321-49C9-BB4C-CEC408241C41}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{5744EFDC-3383-4BF3-BBCC-63AC12F0E83D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
   <si>
     <t>Source:</t>
   </si>
@@ -94,9 +703,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -175,9 +781,6 @@
     <t>ISIC 97T98</t>
   </si>
   <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-  </si>
-  <si>
     <t>Dataset: Input-Output Tables 2018 edition</t>
   </si>
   <si>
@@ -485,6 +1088,165 @@
   </si>
   <si>
     <t>BObIC BAU Output by ISIC Code</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+  </si>
+  <si>
+    <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+  </si>
+  <si>
+    <t>PROD: Production (gross output), current prices</t>
+  </si>
+  <si>
+    <t>VALU: Value added, current prices</t>
+  </si>
+  <si>
+    <t>LABR: Labour costs (compensation of employees)</t>
+  </si>
+  <si>
+    <t>GOPS: Gross operating surplus and mixed income</t>
+  </si>
+  <si>
+    <t>OTXS: Other taxes less subsidies on production</t>
+  </si>
+  <si>
+    <t>EMPN: Number of persons engaged (total employment)</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>D20: Chemicals and chemical products [CE]</t>
+  </si>
+  <si>
+    <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>c:</t>
+  </si>
+  <si>
+    <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>Chemicals and Pharmaceuticals Industries</t>
+  </si>
+  <si>
+    <t>STAN Database for Structural Analysis</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+  </si>
+  <si>
+    <t>Variable: PROD</t>
+  </si>
+  <si>
+    <t>Most Industries</t>
+  </si>
+  <si>
+    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+  </si>
+  <si>
+    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
   </si>
 </sst>
 </file>
@@ -495,7 +1257,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,8 +1351,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +1392,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +1474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -764,6 +1544,72 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1046,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,76 +1903,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B15" t="s">
-        <v>148</v>
+      <c r="B26" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{C06A9336-BC35-4B54-A51B-A07B7CB01714}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{9DC357C1-9C26-417B-90ED-D6935825FE58}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{C914AE0B-59C0-465D-B416-7732EA12FF11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1167,16 +2059,16 @@
     </row>
     <row r="2" spans="1:47" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -1335,7 +2227,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1384,148 +2276,148 @@
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" s="8" t="s">
+      <c r="AO7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AP7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AO7" s="8" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AP7" s="8" t="s">
+      <c r="AR7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AQ7" s="8" t="s">
+      <c r="AS7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AR7" s="8" t="s">
+      <c r="AT7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AS7" s="8" t="s">
+      <c r="AU7" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -1668,7 +2560,7 @@
     </row>
     <row r="9" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1811,7 +2703,7 @@
     </row>
     <row r="10" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -1954,7 +2846,7 @@
     </row>
     <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -2097,7 +2989,7 @@
     </row>
     <row r="12" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -2240,7 +3132,7 @@
     </row>
     <row r="13" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -2383,7 +3275,7 @@
     </row>
     <row r="14" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -2526,7 +3418,7 @@
     </row>
     <row r="15" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -2669,7 +3561,7 @@
     </row>
     <row r="16" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2812,7 +3704,7 @@
     </row>
     <row r="17" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -2955,7 +3847,7 @@
     </row>
     <row r="18" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
@@ -3098,7 +3990,7 @@
     </row>
     <row r="19" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
@@ -3241,7 +4133,7 @@
     </row>
     <row r="20" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -3384,7 +4276,7 @@
     </row>
     <row r="21" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -3527,7 +4419,7 @@
     </row>
     <row r="22" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>9</v>
@@ -3670,7 +4562,7 @@
     </row>
     <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -3813,7 +4705,7 @@
     </row>
     <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
@@ -3956,7 +4848,7 @@
     </row>
     <row r="25" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>9</v>
@@ -4099,7 +4991,7 @@
     </row>
     <row r="26" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -4242,7 +5134,7 @@
     </row>
     <row r="27" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>9</v>
@@ -4385,7 +5277,7 @@
     </row>
     <row r="28" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -4528,7 +5420,7 @@
     </row>
     <row r="29" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>
@@ -4671,7 +5563,7 @@
     </row>
     <row r="30" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>9</v>
@@ -4814,7 +5706,7 @@
     </row>
     <row r="31" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -4957,7 +5849,7 @@
     </row>
     <row r="32" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>9</v>
@@ -5100,7 +5992,7 @@
     </row>
     <row r="33" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>9</v>
@@ -5243,7 +6135,7 @@
     </row>
     <row r="34" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>9</v>
@@ -5386,7 +6278,7 @@
     </row>
     <row r="35" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>9</v>
@@ -5529,7 +6421,7 @@
     </row>
     <row r="36" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>9</v>
@@ -5672,7 +6564,7 @@
     </row>
     <row r="37" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>9</v>
@@ -5815,7 +6707,7 @@
     </row>
     <row r="38" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -5958,7 +6850,7 @@
     </row>
     <row r="39" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -6101,7 +6993,7 @@
     </row>
     <row r="40" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>9</v>
@@ -6244,7 +7136,7 @@
     </row>
     <row r="41" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -6387,7 +7279,7 @@
     </row>
     <row r="42" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -6530,7 +7422,7 @@
     </row>
     <row r="43" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>9</v>
@@ -6673,7 +7565,7 @@
     </row>
     <row r="44" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -6816,7 +7708,7 @@
     </row>
     <row r="45" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>9</v>
@@ -6959,7 +7851,7 @@
     </row>
     <row r="46" spans="1:47" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -7102,7 +7994,7 @@
     </row>
     <row r="47" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>9</v>
@@ -7245,7 +8137,7 @@
     </row>
     <row r="48" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>9</v>
@@ -7388,7 +8280,7 @@
     </row>
     <row r="49" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>9</v>
@@ -7531,7 +8423,7 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7557,23 +8449,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF81D32-258F-4637-8711-FA96B1CFE72F}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="e">
+        <f ca="1">DotStatQuery(B1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="42">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="42">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="42">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="42">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="42">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="42">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="42">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="42">
+        <v>151</v>
+      </c>
+      <c r="L7" s="42">
+        <v>48</v>
+      </c>
+      <c r="M7" s="42">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="42">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="43">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="43">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="43">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="43">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="43">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="43">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="43">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="43">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="42">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="42">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="42">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="42">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="42">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="42">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="42">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="42">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="42">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="42">
+        <v>44</v>
+      </c>
+      <c r="N9" s="42">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="43">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="43">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="43">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="43">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="43">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="43">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="43">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="43">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="42">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="42">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="42">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="42">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="42">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="42">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="42">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="42">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="42">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="42">
+        <v>10</v>
+      </c>
+      <c r="M11" s="42">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="42">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="43">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="43">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="43">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="43">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="43">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="43">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="43">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="43">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="43">
+        <v>85</v>
+      </c>
+      <c r="L12" s="43">
+        <v>98</v>
+      </c>
+      <c r="M12" s="43">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="43">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="42">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="42">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="42">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="42">
+        <v>11</v>
+      </c>
+      <c r="G13" s="42">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="42">
+        <v>56</v>
+      </c>
+      <c r="J13" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="43">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="43">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="43">
+        <v>775</v>
+      </c>
+      <c r="H14" s="43">
+        <v>264</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="43">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="43">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="43">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="43">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="43">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="42">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="42">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="42">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="42">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="42">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="42">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="42">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="42">
+        <v>772</v>
+      </c>
+      <c r="L15" s="42">
+        <v>341</v>
+      </c>
+      <c r="M15" s="42">
+        <v>111</v>
+      </c>
+      <c r="N15" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="43">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="43">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="43">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="43">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="43">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="43">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="43">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="43">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="43">
+        <v>178</v>
+      </c>
+      <c r="L16" s="43">
+        <v>66</v>
+      </c>
+      <c r="M16" s="43">
+        <v>348</v>
+      </c>
+      <c r="N16" s="43">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="42">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="42">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="42">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="42">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="42">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="42">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="42">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="42">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="42">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="42">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="42">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="43">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="43">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="43">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="43">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="43">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="43">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="43">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="43">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="43">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="43">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="43">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="42">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="42">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="42">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="42">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="42">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="42">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="42">
+        <v>328</v>
+      </c>
+      <c r="N19" s="42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="43">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="43">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="43">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="43">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="43">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="43">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="43">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="43">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="43">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="43">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="43">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="42">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="42">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="42">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="42">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="42">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="42">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="42">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="42">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="42">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="43">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="43">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="43">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="43">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="43">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="43">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="43">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="43">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="42">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="42">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="42">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="42">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="42">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="42">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="42">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="42">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="42">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="42">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="42">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="42">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="43">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="43">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="43">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="43">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="43">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="43">
+        <v>902</v>
+      </c>
+      <c r="I24" s="43">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="43">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="43">
+        <v>15</v>
+      </c>
+      <c r="L24" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="43">
+        <v>43</v>
+      </c>
+      <c r="N24" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="42">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="42">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="42">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="42">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="42">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="42">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="42">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="42">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="42">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="42">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="43">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="43">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="43">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="43">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="43">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="43">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="43">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="43">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="43">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="43">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="43">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="42">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="42">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="42">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="42">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="42">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="42">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="42">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="42">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="42">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="42">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="42">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="42">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="43">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="43">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="43">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="43">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="43">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="43">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="43">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="43">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="43">
+        <v>50</v>
+      </c>
+      <c r="L28" s="43">
+        <v>7</v>
+      </c>
+      <c r="M28" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="43">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="42">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="42">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="42">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="42">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="42">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="42">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="43">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="43">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="43">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="43">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="43">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="43">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="43">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="43">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="43">
+        <v>59</v>
+      </c>
+      <c r="L30" s="43">
+        <v>13</v>
+      </c>
+      <c r="M30" s="43">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="43">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="42">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="42">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="42">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="42">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="42">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="42">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="42">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="42">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="42">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="42">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="42">
+        <v>534</v>
+      </c>
+      <c r="N31" s="42">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B65820B1-8541-414F-B96D-380451863A80}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AA8D7325-4FB3-4CB3-8B95-6430D43C2D21}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F22EB5AD-F0DF-492A-840C-4DC92C0917FB}"/>
+    <hyperlink ref="G4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{63C5DFB3-6B1C-4FCC-B116-F1BC0734A169}"/>
+    <hyperlink ref="I4" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AD0251EE-ED34-4C7F-9BCE-37BB38215DF2}"/>
+    <hyperlink ref="K4" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{31E768F7-ED61-4077-AA4E-A580033D8CAC}"/>
+    <hyperlink ref="M4" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9BD5884A-171D-48D9-8117-9F6549281955}"/>
+    <hyperlink ref="A7" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F4519553-894A-4071-B32A-FA43BD179F3C}"/>
+    <hyperlink ref="A8" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BDBAE3B8-C801-435B-A485-5C5F2BE0C649}"/>
+    <hyperlink ref="A9" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{06985AD8-8EE0-4371-BC4D-F82DBCE35802}"/>
+    <hyperlink ref="A10" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{828E0469-5973-4EFD-BEF9-CEF06EDF42F8}"/>
+    <hyperlink ref="A11" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{34B08B5B-9A59-4D91-A22A-74EA7BEFEDA7}"/>
+    <hyperlink ref="A12" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8B9EBE99-CB90-4C1A-9A44-7D2CA33CCB9D}"/>
+    <hyperlink ref="A13" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4046A72D-3FE9-492E-A202-C201B172AB39}"/>
+    <hyperlink ref="A14" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{392F945A-FC37-46A9-AC17-AE41EE38E738}"/>
+    <hyperlink ref="A15" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DDCECE44-76B4-4C65-BAFF-8F63B1E4735E}"/>
+    <hyperlink ref="A16" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A9D0759A-A6F1-4788-BA97-FAB13A15DB4E}"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{771A79D0-AA55-428C-B2BC-3EA5CE587BEA}"/>
+    <hyperlink ref="A18" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{72D6A5F6-E7E1-4774-A656-9FF783E7B10B}"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F012A896-E2B8-42BE-A71B-46E1C84F7C30}"/>
+    <hyperlink ref="A20" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FCC0A9DC-B093-4189-895E-F5FBDD372C1C}"/>
+    <hyperlink ref="A21" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{84C9AF7B-729D-4C6C-973E-ED40093BDA73}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{76F7724A-C314-4F92-A46F-E10B768CB525}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D82DC82D-FD68-4DED-9D42-150FBE39F473}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F64F415F-FF38-4F9C-BD7A-84E0D9EE93AF}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F3F6721E-C146-40C3-B4DD-83C2BF195B34}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{81C12692-E147-43C0-BFCD-F77152813369}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B5A23A53-23F2-495F-90B6-169B9F2E285B}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{58912207-CB28-452E-B4EA-E4CDD6AD2A1C}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EB56D7C9-EDD6-440F-AF62-83F3AF343518}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DD4E36C7-6A76-4B23-9959-7940DCDBB147}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" xr:uid="{E570E831-5F09-4060-AF01-ED707E172232}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="2" max="38" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -7602,239 +9837,249 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2">
-        <f>'OECD TTL'!C49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!C49*10^6*About!$A$26</f>
         <v>441483794392.80725</v>
       </c>
       <c r="C2">
-        <f>'OECD TTL'!D49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!D49*10^6*About!$A$26</f>
         <v>284473782612.21771</v>
       </c>
       <c r="D2">
-        <f>'OECD TTL'!E49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!E49*10^6*About!$A$26</f>
         <v>62857069088.715157</v>
       </c>
       <c r="E2">
-        <f>'OECD TTL'!F49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!F49*10^6*About!$A$26</f>
         <v>85036777291.92421</v>
       </c>
       <c r="F2">
-        <f>'OECD TTL'!G49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!G49*10^6*About!$A$26</f>
         <v>906500351407.70496</v>
       </c>
       <c r="G2">
-        <f>'OECD TTL'!H49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!H49*10^6*About!$A$26</f>
         <v>84293507922.216553</v>
       </c>
       <c r="H2">
-        <f>'OECD TTL'!I49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!I49*10^6*About!$A$26</f>
         <v>95524595796.925964</v>
       </c>
       <c r="I2">
-        <f>'OECD TTL'!J49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!J49*10^6*About!$A$26</f>
         <v>260772275660.39566</v>
       </c>
       <c r="J2">
-        <f>'OECD TTL'!K49*10^6*About!$A$15</f>
+        <f>'OECD TTL'!K49*10^6*About!$A$26</f>
         <v>474768371261.97699</v>
       </c>
-      <c r="K2">
-        <f>'OECD TTL'!L49*10^6*About!$A$15</f>
-        <v>760731792394.63843</v>
-      </c>
-      <c r="L2">
-        <f>'OECD TTL'!M49*10^6*About!$A$15</f>
+      <c r="K2" s="49">
+        <f>'OECD TTL'!L49*10^6*About!$A$26*('OECD Chem Pharma Split'!C$31/SUM('OECD Chem Pharma Split'!$C$31:$D$31))</f>
+        <v>501575956307.31726</v>
+      </c>
+      <c r="L2" s="49">
+        <f>'OECD TTL'!L49*10^6*About!$A$26*('OECD Chem Pharma Split'!D31/SUM('OECD Chem Pharma Split'!C31:D31))</f>
+        <v>259155836087.32117</v>
+      </c>
+      <c r="M2">
+        <f>'OECD TTL'!M49*10^6*About!$A$26</f>
         <v>223748975398.38916</v>
       </c>
-      <c r="M2">
-        <f>'OECD TTL'!N49*10^6*About!$A$15</f>
+      <c r="N2">
+        <f>'OECD TTL'!N49*10^6*About!$A$26</f>
         <v>115749117116.49376</v>
       </c>
-      <c r="N2">
-        <f>'OECD TTL'!O49*10^6*About!$A$15</f>
+      <c r="O2">
+        <f>'OECD TTL'!O49*10^6*About!$A$26</f>
         <v>218189421255.85928</v>
       </c>
-      <c r="O2">
-        <f>'OECD TTL'!P49*10^6*About!$A$15</f>
+      <c r="P2">
+        <f>'OECD TTL'!P49*10^6*About!$A$26</f>
         <v>356069037551.73682</v>
       </c>
-      <c r="P2">
-        <f>'OECD TTL'!Q49*10^6*About!$A$15</f>
+      <c r="Q2">
+        <f>'OECD TTL'!Q49*10^6*About!$A$26</f>
         <v>368946399756.97949</v>
       </c>
-      <c r="Q2">
-        <f>'OECD TTL'!R49*10^6*About!$A$15</f>
+      <c r="R2">
+        <f>'OECD TTL'!R49*10^6*About!$A$26</f>
         <v>121331338407.79353</v>
       </c>
-      <c r="R2">
-        <f>'OECD TTL'!S49*10^6*About!$A$15</f>
+      <c r="S2">
+        <f>'OECD TTL'!S49*10^6*About!$A$26</f>
         <v>368950080746.95062</v>
       </c>
-      <c r="S2">
-        <f>'OECD TTL'!T49*10^6*About!$A$15</f>
+      <c r="T2">
+        <f>'OECD TTL'!T49*10^6*About!$A$26</f>
         <v>645529399157.02246</v>
       </c>
-      <c r="T2">
-        <f>'OECD TTL'!U49*10^6*About!$A$15</f>
+      <c r="U2">
+        <f>'OECD TTL'!U49*10^6*About!$A$26</f>
         <v>324491858820.25342</v>
       </c>
-      <c r="U2">
-        <f>'OECD TTL'!V49*10^6*About!$A$15</f>
+      <c r="V2">
+        <f>'OECD TTL'!V49*10^6*About!$A$26</f>
         <v>238992632946.15997</v>
       </c>
-      <c r="V2">
-        <f>'OECD TTL'!W49*10^6*About!$A$15</f>
+      <c r="W2">
+        <f>'OECD TTL'!W49*10^6*About!$A$26</f>
         <v>460724425840.34058</v>
       </c>
-      <c r="W2">
-        <f>'OECD TTL'!X49*10^6*About!$A$15</f>
+      <c r="X2">
+        <f>'OECD TTL'!X49*10^6*About!$A$26</f>
         <v>1309373273311.197</v>
       </c>
-      <c r="X2">
-        <f>'OECD TTL'!Y49*10^6*About!$A$15</f>
+      <c r="Y2">
+        <f>'OECD TTL'!Y49*10^6*About!$A$26</f>
         <v>2877559082595.7632</v>
       </c>
-      <c r="Y2">
-        <f>'OECD TTL'!Z49*10^6*About!$A$15</f>
+      <c r="Z2">
+        <f>'OECD TTL'!Z49*10^6*About!$A$26</f>
         <v>1086786328325.8163</v>
       </c>
-      <c r="Z2">
-        <f>'OECD TTL'!AA49*10^6*About!$A$15</f>
+      <c r="AA2">
+        <f>'OECD TTL'!AA49*10^6*About!$A$26</f>
         <v>889011289977.51221</v>
       </c>
-      <c r="AA2">
-        <f>'OECD TTL'!AB49*10^6*About!$A$15</f>
+      <c r="AB2">
+        <f>'OECD TTL'!AB49*10^6*About!$A$26</f>
         <v>636997251876.44775</v>
       </c>
-      <c r="AB2">
-        <f>'OECD TTL'!AC49*10^6*About!$A$15</f>
+      <c r="AC2">
+        <f>'OECD TTL'!AC49*10^6*About!$A$26</f>
         <v>616059587184.04163</v>
       </c>
-      <c r="AC2">
-        <f>'OECD TTL'!AD49*10^6*About!$A$15</f>
+      <c r="AD2">
+        <f>'OECD TTL'!AD49*10^6*About!$A$26</f>
         <v>559992685306.11731</v>
       </c>
-      <c r="AD2">
-        <f>'OECD TTL'!AE49*10^6*About!$A$15</f>
+      <c r="AE2">
+        <f>'OECD TTL'!AE49*10^6*About!$A$26</f>
         <v>2222818006035.854</v>
       </c>
-      <c r="AE2">
-        <f>'OECD TTL'!AF49*10^6*About!$A$15</f>
+      <c r="AF2">
+        <f>'OECD TTL'!AF49*10^6*About!$A$26</f>
         <v>2908355407112.5698</v>
       </c>
-      <c r="AF2">
-        <f>'OECD TTL'!AG49*10^6*About!$A$15</f>
+      <c r="AG2">
+        <f>'OECD TTL'!AG49*10^6*About!$A$26</f>
         <v>3240677990887.5737</v>
       </c>
-      <c r="AG2">
-        <f>'OECD TTL'!AH49*10^6*About!$A$15</f>
+      <c r="AH2">
+        <f>'OECD TTL'!AH49*10^6*About!$A$26</f>
         <v>2430225710797.9595</v>
       </c>
-      <c r="AH2">
-        <f>'OECD TTL'!AI49*10^6*About!$A$15</f>
+      <c r="AI2">
+        <f>'OECD TTL'!AI49*10^6*About!$A$26</f>
         <v>1263216371380.9558</v>
       </c>
-      <c r="AI2">
-        <f>'OECD TTL'!AJ49*10^6*About!$A$15</f>
+      <c r="AJ2">
+        <f>'OECD TTL'!AJ49*10^6*About!$A$26</f>
         <v>2118931460310.4419</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD TTL'!AK49*10^6*About!$A$15</f>
+      <c r="AK2">
+        <f>'OECD TTL'!AK49*10^6*About!$A$26</f>
         <v>775735798121.65369</v>
       </c>
-      <c r="AK2">
-        <f>'OECD TTL'!AL49*10^6*About!$A$15</f>
+      <c r="AL2">
+        <f>'OECD TTL'!AL49*10^6*About!$A$26</f>
         <v>20682998307.294415</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86B2584-A1E5-44B6-B9B4-156BC6A82001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52941C-9580-45FB-BF8C-6104968A07C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="1380" windowWidth="31395" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1164">
   <si>
     <t>Source:</t>
   </si>
@@ -3522,6 +3522,12 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -3927,36 +3933,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4030,6 +4006,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4411,17 +4417,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="58" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="58" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="58" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4535,222 +4541,222 @@
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="68"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="27"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="63"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="27"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="63"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="27"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="63"/>
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -10957,81 +10963,81 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="19" t="s">
         <v>163</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>212</v>
       </c>
       <c r="G4" s="19" t="s">
@@ -11040,7 +11046,7 @@
       <c r="H4" s="19">
         <v>3254</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="30">
         <v>325</v>
       </c>
       <c r="J4" s="4">
@@ -11049,22 +11055,22 @@
       <c r="K4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="O4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="L4" s="31"/>
+      <c r="O4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="30" t="s">
         <v>199</v>
       </c>
       <c r="G5" s="19">
@@ -11073,7 +11079,7 @@
       <c r="H5" s="19">
         <v>21</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="30" t="s">
         <v>200</v>
       </c>
       <c r="J5" s="4">
@@ -11082,7 +11088,7 @@
       <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="31">
         <v>23</v>
       </c>
       <c r="M5">
@@ -11091,7 +11097,7 @@
       <c r="N5">
         <v>242</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="29">
         <v>24</v>
       </c>
       <c r="P5" s="4">
@@ -11103,18 +11109,18 @@
       <c r="R5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="29" t="s">
         <v>204</v>
       </c>
       <c r="D6">
@@ -11123,7 +11129,7 @@
       <c r="E6">
         <v>185400</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="29"/>
       <c r="G6">
         <f>815300-284200</f>
         <v>531100</v>
@@ -11131,7 +11137,7 @@
       <c r="H6">
         <v>284200</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="29"/>
       <c r="J6">
         <v>93600</v>
       </c>
@@ -11139,7 +11145,7 @@
         <f>404500-93600</f>
         <v>310900</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="29"/>
       <c r="M6">
         <f>83700+59200+66600</f>
         <v>209500</v>
@@ -11148,7 +11154,7 @@
         <f>62100+62700+57600</f>
         <v>182400</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="29"/>
       <c r="P6">
         <v>397500</v>
       </c>
@@ -11158,16 +11164,16 @@
       <c r="R6">
         <v>50300</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="32" t="s">
         <v>205</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="29" t="s">
         <v>206</v>
       </c>
       <c r="D7" s="20">
@@ -11178,7 +11184,7 @@
         <f>D40*10^6</f>
         <v>268953000000</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="29"/>
       <c r="G7">
         <f>SUM(D278:D284,D289:D296)*10^6</f>
         <v>515925000000</v>
@@ -11187,17 +11193,17 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>269601000000</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="43">
+      <c r="I7" s="29"/>
+      <c r="J7" s="33">
         <f>D77*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="33">
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>93232000000</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="43">
+      <c r="L7" s="29"/>
+      <c r="M7" s="33">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>127020000000</v>
       </c>
@@ -11205,61 +11211,61 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>100094000000</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="43">
+      <c r="O7" s="29"/>
+      <c r="P7" s="33">
         <f>SUM(D48:D57)*10^6</f>
         <v>413205000000</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="33">
         <f>D58*10^6</f>
         <v>86048000000</v>
       </c>
-      <c r="R7" s="43">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
-      </c>
-      <c r="S7" s="39"/>
+      <c r="R7" s="33">
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
+      </c>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="32" t="s">
         <v>170</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="34">
         <v>106189000000</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <v>785526000000</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="35">
         <v>119118000000</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="35">
         <v>227114000000</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="35">
         <v>513760000000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="32" t="s">
         <v>173</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="39" t="str">
+      <c r="C9" s="29" t="str">
         <f>A9</f>
         <v>Value Added</v>
       </c>
@@ -11271,68 +11277,68 @@
         <f>I33*10^6</f>
         <v>158231000000</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="34">
         <f>I34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="36">
         <f>$I9*(G$7/$I$8)</f>
         <v>218698327521.9407</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <f>$I9*(H$7/$I$8)</f>
         <v>114282672478.05928</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="34">
         <f>I58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="36">
         <f>$L9*(J$7/$L$8)</f>
         <v>11878596400.208197</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="36">
         <f>$L9*(K$7/$L$8)</f>
         <v>42782403599.791801</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="35">
         <f>I41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="36">
         <f>$O9*(M$7/$O$8)</f>
         <v>33593628398.073215</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="36">
         <f>$O9*(N$7/$O$8)</f>
         <v>26472371601.926785</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="35">
         <f>I42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="36">
         <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
         <v>240665210526.3158</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="36">
         <f t="shared" si="0"/>
         <v>50117399439.426971</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="36">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
-      </c>
-      <c r="S9" s="45">
+        <v>60759076237.932114</v>
+      </c>
+      <c r="S9" s="35">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="39" t="str">
+      <c r="C10" s="29" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
@@ -11344,68 +11350,68 @@
         <f>J33*10^6</f>
         <v>38814000000</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="34">
         <f>J34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="36">
         <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>65995493274.57016</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="36">
         <f t="shared" si="3"/>
         <v>34486506725.42984</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="34">
         <f>J58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="36">
         <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>5884861062.1400633</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="36">
         <f t="shared" si="4"/>
         <v>21195138937.859936</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="35">
         <f>J41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="36">
         <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>17693337795.116112</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="36">
         <f t="shared" si="5"/>
         <v>13942662204.883892</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="35">
         <f>J42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="36">
         <f t="shared" si="0"/>
         <v>62434361842.105263</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="36">
         <f t="shared" si="0"/>
         <v>13001662535.035814</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="36">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
-      </c>
-      <c r="S10" s="45">
+        <v>15762370235.129244</v>
+      </c>
+      <c r="S10" s="35">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="39" t="str">
+      <c r="C11" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Taxes on production and imports, less subsidies</v>
       </c>
@@ -11417,68 +11423,68 @@
         <f>K33*10^6</f>
         <v>32690000000</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="34">
         <f>K34*10^6</f>
         <v>4968000000</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="36">
         <f t="shared" si="3"/>
         <v>10700409789.109463</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="36">
         <f t="shared" si="3"/>
         <v>5591590210.8905363</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="34">
         <f>K58*10^6</f>
         <v>16292000000</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="36">
         <f t="shared" si="4"/>
         <v>314235934.11575079</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="36">
         <f t="shared" si="4"/>
         <v>1131764065.8842492</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="35">
         <f>K41*10^6</f>
         <v>1446000000</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="36">
         <f t="shared" si="5"/>
         <v>1388688764.2329404</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="36">
         <f t="shared" si="5"/>
         <v>1094311235.7670598</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="35">
         <f>K42*10^6</f>
         <v>2483000000</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="36">
         <f t="shared" si="0"/>
         <v>47461149671.052628</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="36">
         <f t="shared" si="0"/>
         <v>9883561445.0326996</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="36">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
-      </c>
-      <c r="S11" s="45">
+        <v>11982187225.552788</v>
+      </c>
+      <c r="S11" s="35">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="39" t="str">
+      <c r="C12" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Gross operating surplus</v>
       </c>
@@ -11490,59 +11496,59 @@
         <f>L33*10^6</f>
         <v>86727000000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="34">
         <f>L34*10^6</f>
         <v>26971000000</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="36">
         <f t="shared" si="3"/>
         <v>142001767669.05234</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="36">
         <f t="shared" si="3"/>
         <v>74204232330.947662</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="34">
         <f>L58*10^6</f>
         <v>216206000000</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="36">
         <f t="shared" si="4"/>
         <v>5679499403.952384</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="36">
         <f t="shared" si="4"/>
         <v>20455500596.047615</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="35">
         <f>L41*10^6</f>
         <v>26135000000</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="36">
         <f t="shared" si="5"/>
         <v>14511601838.724167</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="36">
         <f t="shared" si="5"/>
         <v>11435398161.275835</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="35">
         <f>L42*10^6</f>
         <v>25947000000</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="36">
         <f t="shared" si="0"/>
         <v>130769699013.1579</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="36">
         <f t="shared" si="0"/>
         <v>27232175459.358456</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
-      </c>
-      <c r="S12" s="45">
+        <v>33014518777.25008</v>
+      </c>
+      <c r="S12" s="35">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
@@ -11589,27 +11595,27 @@
       <c r="B26" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="38"/>
+      <c r="I26" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11620,7 +11626,7 @@
       <c r="C27" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <v>34314</v>
       </c>
       <c r="G27" t="s">
@@ -11629,16 +11635,16 @@
       <c r="H27" t="s">
         <v>219</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="42">
         <v>18238301</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="42">
         <v>9709535</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="42">
         <v>1217959</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="42">
         <v>7310806</v>
       </c>
     </row>
@@ -11649,7 +11655,7 @@
       <c r="C28" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <v>61876</v>
       </c>
       <c r="G28" t="s">
@@ -11658,16 +11664,16 @@
       <c r="H28" t="s">
         <v>222</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="42">
         <v>15898859</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="42">
         <v>7863213</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="42">
         <v>1242490</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="42">
         <v>6793156</v>
       </c>
       <c r="N28" s="20"/>
@@ -11679,7 +11685,7 @@
       <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <v>19404</v>
       </c>
       <c r="G29" t="s">
@@ -11688,16 +11694,16 @@
       <c r="H29" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="42">
         <v>182283</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="42">
         <v>50616</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="42">
         <v>2314</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="42">
         <v>129354</v>
       </c>
       <c r="N29" s="20"/>
@@ -11709,7 +11715,7 @@
       <c r="C30" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <v>28308</v>
       </c>
       <c r="G30" t="s">
@@ -11718,16 +11724,16 @@
       <c r="H30" t="s">
         <v>228</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="42">
         <v>147384</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="42">
         <v>27205</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="42">
         <v>789</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="42">
         <v>119390</v>
       </c>
       <c r="N30" s="20"/>
@@ -11739,7 +11745,7 @@
       <c r="C31" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="42">
         <v>22098</v>
       </c>
       <c r="G31" t="s">
@@ -11748,16 +11754,16 @@
       <c r="H31" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="42">
         <v>34899</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="42">
         <v>23410</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="42">
         <v>1525</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="42">
         <v>9964</v>
       </c>
     </row>
@@ -11768,7 +11774,7 @@
       <c r="C32" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="42">
         <v>22767</v>
       </c>
       <c r="G32" t="s">
@@ -11777,16 +11783,16 @@
       <c r="H32" t="s">
         <v>234</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="42">
         <v>261774</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="42">
         <v>91867</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="42">
         <v>40072</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="42">
         <v>129835</v>
       </c>
     </row>
@@ -11797,25 +11803,25 @@
       <c r="C33" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="42">
         <v>36867</v>
       </c>
       <c r="G33" t="s">
         <v>235</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="42">
         <v>158231</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="42">
         <v>38814</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="42">
         <v>32690</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="42">
         <v>86727</v>
       </c>
     </row>
@@ -11826,25 +11832,25 @@
       <c r="C34" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="42">
         <v>93695</v>
       </c>
       <c r="G34" t="s">
         <v>238</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="42">
         <v>49994</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="42">
         <v>18055</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="42">
         <v>4968</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="42">
         <v>26971</v>
       </c>
     </row>
@@ -11855,7 +11861,7 @@
       <c r="C35" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="42">
         <v>50423</v>
       </c>
       <c r="G35" t="s">
@@ -11864,16 +11870,16 @@
       <c r="H35" t="s">
         <v>243</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="42">
         <v>53550</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="42">
         <v>34998</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="42">
         <v>2415</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="42">
         <v>16137</v>
       </c>
     </row>
@@ -11884,25 +11890,25 @@
       <c r="C36" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="42">
         <v>36649</v>
       </c>
       <c r="G36" t="s">
         <v>244</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="42">
         <v>299232</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="42">
         <v>77628</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="42">
         <v>59011</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="42">
         <v>162593</v>
       </c>
     </row>
@@ -11913,7 +11919,7 @@
       <c r="C37" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="42">
         <v>21437</v>
       </c>
       <c r="G37" t="s">
@@ -11922,16 +11928,16 @@
       <c r="H37" t="s">
         <v>249</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="42">
         <v>694943</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="42">
         <v>458477</v>
       </c>
-      <c r="K37" s="52">
+      <c r="K37" s="42">
         <v>8976</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="42">
         <v>227490</v>
       </c>
     </row>
@@ -11942,7 +11948,7 @@
       <c r="C38" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="42">
         <v>8667</v>
       </c>
       <c r="G38" t="s">
@@ -11951,16 +11957,16 @@
       <c r="H38" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="42">
         <v>2129592</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="42">
         <v>1006425</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K38" s="42">
         <v>85526</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="42">
         <v>1037641</v>
       </c>
     </row>
@@ -11971,7 +11977,7 @@
       <c r="C39" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="42">
         <v>23422</v>
       </c>
       <c r="G39" t="s">
@@ -11980,16 +11986,16 @@
       <c r="H39" t="s">
         <v>255</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="42">
         <v>1183755</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="42">
         <v>662696</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="42">
         <v>30260</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="42">
         <v>490800</v>
       </c>
     </row>
@@ -11997,10 +12003,10 @@
       <c r="B40" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="42">
         <v>268953</v>
       </c>
       <c r="E40" t="s">
@@ -12012,16 +12018,16 @@
       <c r="H40" t="s">
         <v>258</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="42">
         <v>32485</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="42">
         <v>20428</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="42">
         <v>704</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="42">
         <v>11353</v>
       </c>
     </row>
@@ -12029,10 +12035,10 @@
       <c r="B41" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="42">
         <v>40135</v>
       </c>
       <c r="E41" t="s">
@@ -12041,19 +12047,19 @@
       <c r="G41" t="s">
         <v>259</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="I41" s="52">
+      <c r="I41" s="42">
         <v>54661</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="42">
         <v>27080</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="42">
         <v>1446</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="42">
         <v>26135</v>
       </c>
     </row>
@@ -12064,25 +12070,25 @@
       <c r="C42" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="42">
         <v>11643</v>
       </c>
       <c r="G42" t="s">
         <v>263</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="42">
         <v>60066</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="42">
         <v>31636</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="42">
         <v>2483</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="42">
         <v>25947</v>
       </c>
     </row>
@@ -12093,7 +12099,7 @@
       <c r="C43" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="42">
         <v>14089</v>
       </c>
       <c r="G43" t="s">
@@ -12102,16 +12108,16 @@
       <c r="H43" t="s">
         <v>268</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="42">
         <v>147361</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="42">
         <v>97092</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="42">
         <v>3374</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="42">
         <v>46896</v>
       </c>
     </row>
@@ -12122,7 +12128,7 @@
       <c r="C44" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="42">
         <v>19415</v>
       </c>
       <c r="G44" t="s">
@@ -12131,16 +12137,16 @@
       <c r="H44" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="42">
         <v>152472</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="42">
         <v>94664</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="42">
         <v>3548</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="42">
         <v>54260</v>
       </c>
     </row>
@@ -12151,7 +12157,7 @@
       <c r="C45" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="42">
         <v>20908</v>
       </c>
       <c r="G45" t="s">
@@ -12160,16 +12166,16 @@
       <c r="H45" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="42">
         <v>267323</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="42">
         <v>137529</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="42">
         <v>8570</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="42">
         <v>121224</v>
       </c>
     </row>
@@ -12180,7 +12186,7 @@
       <c r="C46" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="42">
         <v>32318</v>
       </c>
       <c r="G46" t="s">
@@ -12189,16 +12195,16 @@
       <c r="H46" t="s">
         <v>277</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="42">
         <v>63631</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="42">
         <v>34671</v>
       </c>
-      <c r="K46" s="52">
+      <c r="K46" s="42">
         <v>879</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="42">
         <v>28080</v>
       </c>
     </row>
@@ -12209,7 +12215,7 @@
       <c r="C47" t="s">
         <v>279</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="42">
         <v>88512</v>
       </c>
       <c r="G47" t="s">
@@ -12218,16 +12224,16 @@
       <c r="H47" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="42">
         <v>146240</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="42">
         <v>69905</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="42">
         <v>3414</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="42">
         <v>72921</v>
       </c>
     </row>
@@ -12235,10 +12241,10 @@
       <c r="B48" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="42">
         <v>3124</v>
       </c>
       <c r="E48" t="s">
@@ -12250,16 +12256,16 @@
       <c r="H48" t="s">
         <v>284</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="42">
         <v>149076</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="42">
         <v>77790</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="42">
         <v>2485</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="42">
         <v>68800</v>
       </c>
     </row>
@@ -12267,10 +12273,10 @@
       <c r="B49" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="42">
         <v>103566</v>
       </c>
       <c r="E49" t="s">
@@ -12282,16 +12288,16 @@
       <c r="H49" t="s">
         <v>287</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="42">
         <v>29141</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J49" s="42">
         <v>20277</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="42">
         <v>387</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="42">
         <v>8477</v>
       </c>
     </row>
@@ -12299,10 +12305,10 @@
       <c r="B50" t="s">
         <v>288</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="42">
         <v>36820</v>
       </c>
       <c r="E50" t="s">
@@ -12314,16 +12320,16 @@
       <c r="H50" t="s">
         <v>290</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="42">
         <v>81299</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="42">
         <v>51622</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="42">
         <v>2969</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="42">
         <v>26708</v>
       </c>
     </row>
@@ -12331,10 +12337,10 @@
       <c r="B51" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="42">
         <v>749</v>
       </c>
       <c r="E51" t="s">
@@ -12346,16 +12352,16 @@
       <c r="H51" t="s">
         <v>293</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="42">
         <v>945837</v>
       </c>
-      <c r="J51" s="52">
+      <c r="J51" s="42">
         <v>343730</v>
       </c>
-      <c r="K51" s="52">
+      <c r="K51" s="42">
         <v>55266</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="42">
         <v>546841</v>
       </c>
     </row>
@@ -12363,10 +12369,10 @@
       <c r="B52" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="42">
         <v>6621</v>
       </c>
       <c r="E52" t="s">
@@ -12378,16 +12384,16 @@
       <c r="H52" t="s">
         <v>296</v>
       </c>
-      <c r="I52" s="52">
+      <c r="I52" s="42">
         <v>261724</v>
       </c>
-      <c r="J52" s="52">
+      <c r="J52" s="42">
         <v>103480</v>
       </c>
-      <c r="K52" s="52">
+      <c r="K52" s="42">
         <v>30122</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="42">
         <v>128122</v>
       </c>
     </row>
@@ -12395,10 +12401,10 @@
       <c r="B53" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="42">
         <v>1416</v>
       </c>
       <c r="E53" t="s">
@@ -12410,16 +12416,16 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="42">
         <v>17936</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="42">
         <v>12017</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="42">
         <v>571</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="42">
         <v>5348</v>
       </c>
     </row>
@@ -12427,10 +12433,10 @@
       <c r="B54" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="42">
         <v>1101</v>
       </c>
       <c r="E54" t="s">
@@ -12442,16 +12448,16 @@
       <c r="H54" t="s">
         <v>302</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="42">
         <v>9694</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J54" s="42">
         <v>8174</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="42">
         <v>290</v>
       </c>
-      <c r="L54" s="52">
+      <c r="L54" s="42">
         <v>1230</v>
       </c>
     </row>
@@ -12459,10 +12465,10 @@
       <c r="B55" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="42">
         <v>228</v>
       </c>
       <c r="E55" t="s">
@@ -12474,16 +12480,16 @@
       <c r="H55" t="s">
         <v>305</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="42">
         <v>59668</v>
       </c>
-      <c r="J55" s="52">
+      <c r="J55" s="42">
         <v>30172</v>
       </c>
-      <c r="K55" s="52">
+      <c r="K55" s="42">
         <v>1736</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="42">
         <v>27760</v>
       </c>
     </row>
@@ -12491,10 +12497,10 @@
       <c r="B56" t="s">
         <v>306</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="42">
         <v>12770</v>
       </c>
       <c r="E56" t="s">
@@ -12506,16 +12512,16 @@
       <c r="H56" t="s">
         <v>308</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="42">
         <v>40211</v>
       </c>
-      <c r="J56" s="52">
+      <c r="J56" s="42">
         <v>26028</v>
       </c>
-      <c r="K56" s="52">
+      <c r="K56" s="42">
         <v>762</v>
       </c>
-      <c r="L56" s="52">
+      <c r="L56" s="42">
         <v>13421</v>
       </c>
     </row>
@@ -12523,10 +12529,10 @@
       <c r="B57" t="s">
         <v>309</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="42">
         <v>246810</v>
       </c>
       <c r="E57" t="s">
@@ -12538,16 +12544,16 @@
       <c r="H57" t="s">
         <v>311</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="42">
         <v>145371</v>
       </c>
-      <c r="J57" s="52">
+      <c r="J57" s="42">
         <v>19815</v>
       </c>
-      <c r="K57" s="52">
+      <c r="K57" s="42">
         <v>3677</v>
       </c>
-      <c r="L57" s="52">
+      <c r="L57" s="42">
         <v>121879</v>
       </c>
     </row>
@@ -12555,10 +12561,10 @@
       <c r="B58" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="42">
         <v>86048</v>
       </c>
       <c r="E58" t="s">
@@ -12567,19 +12573,19 @@
       <c r="G58" t="s">
         <v>312</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="I58" s="52">
+      <c r="I58" s="42">
         <v>332981</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="42">
         <v>100482</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="42">
         <v>16292</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="42">
         <v>216206</v>
       </c>
     </row>
@@ -12590,7 +12596,7 @@
       <c r="C59" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="42">
         <v>14508</v>
       </c>
       <c r="E59" t="s">
@@ -12602,16 +12608,16 @@
       <c r="H59" t="s">
         <v>319</v>
       </c>
-      <c r="I59" s="52">
+      <c r="I59" s="42">
         <v>78252</v>
       </c>
-      <c r="J59" s="52">
+      <c r="J59" s="42">
         <v>43560</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="42">
         <v>1817</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="42">
         <v>32875</v>
       </c>
     </row>
@@ -12622,7 +12628,7 @@
       <c r="C60" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="42">
         <v>40117</v>
       </c>
       <c r="G60" t="s">
@@ -12631,16 +12637,16 @@
       <c r="H60" t="s">
         <v>322</v>
       </c>
-      <c r="I60" s="52">
+      <c r="I60" s="42">
         <v>1142867</v>
       </c>
-      <c r="J60" s="52">
+      <c r="J60" s="42">
         <v>509809</v>
       </c>
-      <c r="K60" s="52">
+      <c r="K60" s="42">
         <v>210383</v>
       </c>
-      <c r="L60" s="52">
+      <c r="L60" s="42">
         <v>422674</v>
       </c>
     </row>
@@ -12651,7 +12657,7 @@
       <c r="C61" t="s">
         <v>324</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="42">
         <v>88209</v>
       </c>
       <c r="G61" t="s">
@@ -12660,16 +12666,16 @@
       <c r="H61" t="s">
         <v>325</v>
       </c>
-      <c r="I61" s="52">
+      <c r="I61" s="42">
         <v>1020079</v>
       </c>
-      <c r="J61" s="52">
+      <c r="J61" s="42">
         <v>573627</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="42">
         <v>216863</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="42">
         <v>229589</v>
       </c>
     </row>
@@ -12680,7 +12686,7 @@
       <c r="C62" t="s">
         <v>327</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="42">
         <v>191101</v>
       </c>
       <c r="G62" t="s">
@@ -12689,16 +12695,16 @@
       <c r="H62" t="s">
         <v>328</v>
       </c>
-      <c r="I62" s="52">
+      <c r="I62" s="42">
         <v>565836</v>
       </c>
-      <c r="J62" s="52">
+      <c r="J62" s="42">
         <v>320031</v>
       </c>
-      <c r="K62" s="52">
+      <c r="K62" s="42">
         <v>34977</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="42">
         <v>210828</v>
       </c>
     </row>
@@ -12709,7 +12715,7 @@
       <c r="C63" t="s">
         <v>330</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="42">
         <v>76959</v>
       </c>
       <c r="G63" t="s">
@@ -12718,16 +12724,16 @@
       <c r="H63" t="s">
         <v>331</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="42">
         <v>117693</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="42">
         <v>48445</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="42">
         <v>22055</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="42">
         <v>47193</v>
       </c>
     </row>
@@ -12738,7 +12744,7 @@
       <c r="C64" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="42">
         <v>112928</v>
       </c>
       <c r="G64" t="s">
@@ -12747,16 +12753,16 @@
       <c r="H64" t="s">
         <v>334</v>
       </c>
-      <c r="I64" s="52">
+      <c r="I64" s="42">
         <v>44301</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="42">
         <v>24226</v>
       </c>
-      <c r="K64" s="52">
+      <c r="K64" s="42">
         <v>208</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="42">
         <v>19867</v>
       </c>
     </row>
@@ -12767,7 +12773,7 @@
       <c r="C65" t="s">
         <v>336</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="42">
         <v>55962</v>
       </c>
       <c r="G65" t="s">
@@ -12776,16 +12782,16 @@
       <c r="H65" t="s">
         <v>337</v>
       </c>
-      <c r="I65" s="52">
+      <c r="I65" s="42">
         <v>15792</v>
       </c>
-      <c r="J65" s="52">
+      <c r="J65" s="42">
         <v>7322</v>
       </c>
-      <c r="K65" s="52">
+      <c r="K65" s="42">
         <v>867</v>
       </c>
-      <c r="L65" s="52">
+      <c r="L65" s="42">
         <v>7603</v>
       </c>
     </row>
@@ -12796,7 +12802,7 @@
       <c r="C66" t="s">
         <v>339</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="42">
         <v>212844</v>
       </c>
       <c r="G66" t="s">
@@ -12805,16 +12811,16 @@
       <c r="H66" t="s">
         <v>340</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="42">
         <v>149029</v>
       </c>
-      <c r="J66" s="52">
+      <c r="J66" s="42">
         <v>92014</v>
       </c>
-      <c r="K66" s="52">
+      <c r="K66" s="42">
         <v>4144</v>
       </c>
-      <c r="L66" s="52">
+      <c r="L66" s="42">
         <v>52871</v>
       </c>
     </row>
@@ -12825,7 +12831,7 @@
       <c r="C67" t="s">
         <v>342</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="42">
         <v>69028</v>
       </c>
       <c r="G67" t="s">
@@ -12834,16 +12840,16 @@
       <c r="H67" t="s">
         <v>343</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="42">
         <v>42197</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="42">
         <v>19815</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="42">
         <v>1708</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="42">
         <v>20673</v>
       </c>
     </row>
@@ -12854,7 +12860,7 @@
       <c r="C68" t="s">
         <v>345</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="42">
         <v>105415</v>
       </c>
       <c r="G68" t="s">
@@ -12863,16 +12869,16 @@
       <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="I68" s="52">
+      <c r="I68" s="42">
         <v>36810</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="42">
         <v>7146</v>
       </c>
-      <c r="K68" s="52">
+      <c r="K68" s="42">
         <v>2951</v>
       </c>
-      <c r="L68" s="52">
+      <c r="L68" s="42">
         <v>26712</v>
       </c>
     </row>
@@ -12883,7 +12889,7 @@
       <c r="C69" t="s">
         <v>348</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="42">
         <v>111108</v>
       </c>
       <c r="G69" t="s">
@@ -12892,16 +12898,16 @@
       <c r="H69" t="s">
         <v>349</v>
       </c>
-      <c r="I69" s="52">
+      <c r="I69" s="42">
         <v>108074</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="42">
         <v>77801</v>
       </c>
-      <c r="K69" s="52">
+      <c r="K69" s="42">
         <v>2263</v>
       </c>
-      <c r="L69" s="52">
+      <c r="L69" s="42">
         <v>28010</v>
       </c>
     </row>
@@ -12912,7 +12918,7 @@
       <c r="C70" t="s">
         <v>351</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="42">
         <v>209093</v>
       </c>
       <c r="G70" t="s">
@@ -12921,16 +12927,16 @@
       <c r="H70" t="s">
         <v>352</v>
       </c>
-      <c r="I70" s="52">
+      <c r="I70" s="42">
         <v>51940</v>
       </c>
-      <c r="J70" s="52">
+      <c r="J70" s="42">
         <v>43261</v>
       </c>
-      <c r="K70" s="52">
+      <c r="K70" s="42">
         <v>781</v>
       </c>
-      <c r="L70" s="52">
+      <c r="L70" s="42">
         <v>7898</v>
       </c>
     </row>
@@ -12941,7 +12947,7 @@
       <c r="C71" t="s">
         <v>354</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="42">
         <v>113347</v>
       </c>
       <c r="G71" t="s">
@@ -12950,16 +12956,16 @@
       <c r="H71" t="s">
         <v>355</v>
       </c>
-      <c r="I71" s="52">
+      <c r="I71" s="42">
         <v>906938</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="42">
         <v>318675</v>
       </c>
-      <c r="K71" s="52">
+      <c r="K71" s="42">
         <v>55293</v>
       </c>
-      <c r="L71" s="52">
+      <c r="L71" s="42">
         <v>532970</v>
       </c>
     </row>
@@ -12970,7 +12976,7 @@
       <c r="C72" t="s">
         <v>357</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="42">
         <v>29072</v>
       </c>
       <c r="G72" t="s">
@@ -12979,16 +12985,16 @@
       <c r="H72" t="s">
         <v>358</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="42">
         <v>223597</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J72" s="42">
         <v>114787</v>
       </c>
-      <c r="K72" s="52">
+      <c r="K72" s="42">
         <v>5467</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L72" s="42">
         <v>103343</v>
       </c>
     </row>
@@ -12999,7 +13005,7 @@
       <c r="C73" t="s">
         <v>360</v>
       </c>
-      <c r="D73" s="52">
+      <c r="D73" s="42">
         <v>20986</v>
       </c>
       <c r="G73" t="s">
@@ -13008,16 +13014,16 @@
       <c r="H73" t="s">
         <v>361</v>
       </c>
-      <c r="I73" s="52">
+      <c r="I73" s="42">
         <v>87592</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="42">
         <v>34244</v>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="42">
         <v>6467</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="42">
         <v>46882</v>
       </c>
     </row>
@@ -13028,7 +13034,7 @@
       <c r="C74" t="s">
         <v>363</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="42">
         <v>25586</v>
       </c>
       <c r="G74" t="s">
@@ -13037,16 +13043,16 @@
       <c r="H74" t="s">
         <v>364</v>
       </c>
-      <c r="I74" s="52">
+      <c r="I74" s="42">
         <v>426113</v>
       </c>
-      <c r="J74" s="52">
+      <c r="J74" s="42">
         <v>112649</v>
       </c>
-      <c r="K74" s="52">
+      <c r="K74" s="42">
         <v>39472</v>
       </c>
-      <c r="L74" s="52">
+      <c r="L74" s="42">
         <v>273993</v>
       </c>
     </row>
@@ -13057,7 +13063,7 @@
       <c r="C75" t="s">
         <v>366</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D75" s="42">
         <v>25364</v>
       </c>
       <c r="G75" t="s">
@@ -13066,16 +13072,16 @@
       <c r="H75" t="s">
         <v>367</v>
       </c>
-      <c r="I75" s="52">
+      <c r="I75" s="42">
         <v>169636</v>
       </c>
-      <c r="J75" s="52">
+      <c r="J75" s="42">
         <v>56995</v>
       </c>
-      <c r="K75" s="52">
+      <c r="K75" s="42">
         <v>3888</v>
       </c>
-      <c r="L75" s="52">
+      <c r="L75" s="42">
         <v>108752</v>
       </c>
     </row>
@@ -13083,10 +13089,10 @@
       <c r="B76" t="s">
         <v>368</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="42">
         <v>8343</v>
       </c>
       <c r="E76" t="s">
@@ -13098,16 +13104,16 @@
       <c r="H76" t="s">
         <v>371</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="42">
         <v>3749038</v>
       </c>
-      <c r="J76" s="52">
+      <c r="J76" s="42">
         <v>852412</v>
       </c>
-      <c r="K76" s="52">
+      <c r="K76" s="42">
         <v>319509</v>
       </c>
-      <c r="L76" s="52">
+      <c r="L76" s="42">
         <v>2577118</v>
       </c>
     </row>
@@ -13115,10 +13121,10 @@
       <c r="B77" t="s">
         <v>372</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="42">
         <v>25886</v>
       </c>
       <c r="E77" t="s">
@@ -13130,16 +13136,16 @@
       <c r="H77" t="s">
         <v>375</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I77" s="42">
         <v>1363092</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="42">
         <v>715705</v>
       </c>
-      <c r="K77" s="52">
+      <c r="K77" s="42">
         <v>63497</v>
       </c>
-      <c r="L77" s="52">
+      <c r="L77" s="42">
         <v>583890</v>
       </c>
     </row>
@@ -13147,10 +13153,10 @@
       <c r="B78" t="s">
         <v>376</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="42">
         <v>8215</v>
       </c>
       <c r="E78" t="s">
@@ -13162,16 +13168,16 @@
       <c r="H78" t="s">
         <v>378</v>
       </c>
-      <c r="I78" s="52">
+      <c r="I78" s="42">
         <v>560763</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="42">
         <v>236473</v>
       </c>
-      <c r="K78" s="52">
+      <c r="K78" s="42">
         <v>17390</v>
       </c>
-      <c r="L78" s="52">
+      <c r="L78" s="42">
         <v>306900</v>
       </c>
     </row>
@@ -13179,10 +13185,10 @@
       <c r="B79" t="s">
         <v>379</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="42">
         <v>27726</v>
       </c>
       <c r="E79" t="s">
@@ -13194,16 +13200,16 @@
       <c r="H79" t="s">
         <v>381</v>
       </c>
-      <c r="I79" s="52">
+      <c r="I79" s="42">
         <v>230878</v>
       </c>
-      <c r="J79" s="52">
+      <c r="J79" s="42">
         <v>227418</v>
       </c>
-      <c r="K79" s="52">
+      <c r="K79" s="42">
         <v>5065</v>
       </c>
-      <c r="L79" s="52">
+      <c r="L79" s="42">
         <v>-1604</v>
       </c>
     </row>
@@ -13211,10 +13217,10 @@
       <c r="B80" t="s">
         <v>382</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="42">
         <v>6454</v>
       </c>
       <c r="E80" t="s">
@@ -13226,16 +13232,16 @@
       <c r="H80" t="s">
         <v>384</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="42">
         <v>554081</v>
       </c>
-      <c r="J80" s="52">
+      <c r="J80" s="42">
         <v>250693</v>
       </c>
-      <c r="K80" s="52">
+      <c r="K80" s="42">
         <v>40312</v>
       </c>
-      <c r="L80" s="52">
+      <c r="L80" s="42">
         <v>263076</v>
       </c>
     </row>
@@ -13243,10 +13249,10 @@
       <c r="B81" t="s">
         <v>385</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="42">
         <v>11048</v>
       </c>
       <c r="E81" t="s">
@@ -13258,16 +13264,16 @@
       <c r="H81" t="s">
         <v>387</v>
       </c>
-      <c r="I81" s="52">
+      <c r="I81" s="42">
         <v>17371</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="42">
         <v>1121</v>
       </c>
-      <c r="K81" s="52">
+      <c r="K81" s="42">
         <v>731</v>
       </c>
-      <c r="L81" s="52">
+      <c r="L81" s="42">
         <v>15519</v>
       </c>
     </row>
@@ -13275,10 +13281,10 @@
       <c r="B82" t="s">
         <v>388</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="42">
         <v>7478</v>
       </c>
       <c r="E82" t="s">
@@ -13290,16 +13296,16 @@
       <c r="H82" t="s">
         <v>390</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="42">
         <v>2385946</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="42">
         <v>136707</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="42">
         <v>256012</v>
       </c>
-      <c r="L82" s="52">
+      <c r="L82" s="42">
         <v>1993228</v>
       </c>
     </row>
@@ -13307,10 +13313,10 @@
       <c r="B83" t="s">
         <v>391</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="42">
         <v>5424</v>
       </c>
       <c r="E83" t="s">
@@ -13322,16 +13328,16 @@
       <c r="H83" t="s">
         <v>393</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="42">
         <v>2180002</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="42">
         <v>102208</v>
       </c>
-      <c r="K83" s="52">
+      <c r="K83" s="42">
         <v>237200</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="42">
         <v>1840595</v>
       </c>
     </row>
@@ -13339,10 +13345,10 @@
       <c r="B84" t="s">
         <v>394</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="42">
         <v>4452</v>
       </c>
       <c r="E84" t="s">
@@ -13354,16 +13360,16 @@
       <c r="H84" t="s">
         <v>396</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="42">
         <v>205944</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="42">
         <v>34499</v>
       </c>
-      <c r="K84" s="52">
+      <c r="K84" s="42">
         <v>18812</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="42">
         <v>152633</v>
       </c>
     </row>
@@ -13371,10 +13377,10 @@
       <c r="B85" t="s">
         <v>397</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="D85" s="52">
+      <c r="D85" s="42">
         <v>3903</v>
       </c>
       <c r="E85" t="s">
@@ -13386,16 +13392,16 @@
       <c r="H85" t="s">
         <v>399</v>
       </c>
-      <c r="I85" s="52">
+      <c r="I85" s="42">
         <v>2236932</v>
       </c>
-      <c r="J85" s="52">
+      <c r="J85" s="42">
         <v>1609923</v>
       </c>
-      <c r="K85" s="52">
+      <c r="K85" s="42">
         <v>55918</v>
       </c>
-      <c r="L85" s="52">
+      <c r="L85" s="42">
         <v>571091</v>
       </c>
     </row>
@@ -13403,10 +13409,10 @@
       <c r="B86" t="s">
         <v>400</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="42">
         <v>5966</v>
       </c>
       <c r="E86" t="s">
@@ -13418,16 +13424,16 @@
       <c r="H86" t="s">
         <v>402</v>
       </c>
-      <c r="I86" s="52">
+      <c r="I86" s="42">
         <v>1348595</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J86" s="42">
         <v>909431</v>
       </c>
-      <c r="K86" s="52">
+      <c r="K86" s="42">
         <v>35128</v>
       </c>
-      <c r="L86" s="52">
+      <c r="L86" s="42">
         <v>404035</v>
       </c>
     </row>
@@ -13435,10 +13441,10 @@
       <c r="B87" t="s">
         <v>403</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="42">
         <v>4223</v>
       </c>
       <c r="E87" t="s">
@@ -13450,16 +13456,16 @@
       <c r="H87" t="s">
         <v>405</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="42">
         <v>238595</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="42">
         <v>122863</v>
       </c>
-      <c r="K87" s="52">
+      <c r="K87" s="42">
         <v>15945</v>
       </c>
-      <c r="L87" s="52">
+      <c r="L87" s="42">
         <v>99788</v>
       </c>
     </row>
@@ -13467,10 +13473,10 @@
       <c r="B88" t="s">
         <v>406</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="42">
         <v>88262</v>
       </c>
       <c r="E88" t="s">
@@ -13482,16 +13488,16 @@
       <c r="H88" t="s">
         <v>409</v>
       </c>
-      <c r="I88" s="52">
+      <c r="I88" s="42">
         <v>284785</v>
       </c>
-      <c r="J88" s="52">
+      <c r="J88" s="42">
         <v>234630</v>
       </c>
-      <c r="K88" s="52">
+      <c r="K88" s="42">
         <v>5942</v>
       </c>
-      <c r="L88" s="52">
+      <c r="L88" s="42">
         <v>44213</v>
       </c>
     </row>
@@ -13499,10 +13505,10 @@
       <c r="B89" t="s">
         <v>410</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="D89" s="52">
+      <c r="D89" s="42">
         <v>20810</v>
       </c>
       <c r="E89" t="s">
@@ -13514,16 +13520,16 @@
       <c r="H89" t="s">
         <v>412</v>
       </c>
-      <c r="I89" s="52">
+      <c r="I89" s="42">
         <v>825215</v>
       </c>
-      <c r="J89" s="52">
+      <c r="J89" s="42">
         <v>551939</v>
       </c>
-      <c r="K89" s="52">
+      <c r="K89" s="42">
         <v>13242</v>
       </c>
-      <c r="L89" s="52">
+      <c r="L89" s="42">
         <v>260034</v>
       </c>
     </row>
@@ -13534,7 +13540,7 @@
       <c r="C90" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="42">
         <v>6183</v>
       </c>
       <c r="E90" t="s">
@@ -13546,16 +13552,16 @@
       <c r="H90" t="s">
         <v>416</v>
       </c>
-      <c r="I90" s="52">
+      <c r="I90" s="42">
         <v>347961</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="42">
         <v>302345</v>
       </c>
-      <c r="K90" s="52">
+      <c r="K90" s="42">
         <v>8494</v>
       </c>
-      <c r="L90" s="52">
+      <c r="L90" s="42">
         <v>37122</v>
       </c>
     </row>
@@ -13566,7 +13572,7 @@
       <c r="C91" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="42">
         <v>5743</v>
       </c>
       <c r="E91" t="s">
@@ -13578,16 +13584,16 @@
       <c r="H91" t="s">
         <v>419</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="42">
         <v>540376</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="42">
         <v>398148</v>
       </c>
-      <c r="K91" s="52">
+      <c r="K91" s="42">
         <v>12295</v>
       </c>
-      <c r="L91" s="52">
+      <c r="L91" s="42">
         <v>129933</v>
       </c>
     </row>
@@ -13598,7 +13604,7 @@
       <c r="C92" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="42">
         <v>25691</v>
       </c>
       <c r="E92" t="s">
@@ -13610,16 +13616,16 @@
       <c r="H92" t="s">
         <v>422</v>
       </c>
-      <c r="I92" s="52">
+      <c r="I92" s="42">
         <v>492465</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="42">
         <v>371539</v>
       </c>
-      <c r="K92" s="52">
+      <c r="K92" s="42">
         <v>8972</v>
       </c>
-      <c r="L92" s="52">
+      <c r="L92" s="42">
         <v>111954</v>
       </c>
     </row>
@@ -13630,7 +13636,7 @@
       <c r="C93" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="42">
         <v>10560</v>
       </c>
       <c r="E93" t="s">
@@ -13642,16 +13648,16 @@
       <c r="H93" t="s">
         <v>425</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="42">
         <v>47911</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="42">
         <v>26608</v>
       </c>
-      <c r="K93" s="52">
+      <c r="K93" s="42">
         <v>3323</v>
       </c>
-      <c r="L93" s="52">
+      <c r="L93" s="42">
         <v>17979</v>
       </c>
     </row>
@@ -13662,7 +13668,7 @@
       <c r="C94" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="42">
         <v>19585</v>
       </c>
       <c r="E94" t="s">
@@ -13674,16 +13680,16 @@
       <c r="H94" t="s">
         <v>428</v>
       </c>
-      <c r="I94" s="52">
+      <c r="I94" s="42">
         <v>1571003</v>
       </c>
-      <c r="J94" s="52">
+      <c r="J94" s="42">
         <v>1265582</v>
       </c>
-      <c r="K94" s="52">
+      <c r="K94" s="42">
         <v>35545</v>
       </c>
-      <c r="L94" s="52">
+      <c r="L94" s="42">
         <v>269876</v>
       </c>
     </row>
@@ -13694,7 +13700,7 @@
       <c r="C95" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="42">
         <v>18298</v>
       </c>
       <c r="E95" t="s">
@@ -13706,16 +13712,16 @@
       <c r="H95" t="s">
         <v>431</v>
       </c>
-      <c r="I95" s="52">
+      <c r="I95" s="42">
         <v>233438</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="42">
         <v>180447</v>
       </c>
-      <c r="K95" s="52">
+      <c r="K95" s="42">
         <v>8387</v>
       </c>
-      <c r="L95" s="52">
+      <c r="L95" s="42">
         <v>44604</v>
       </c>
     </row>
@@ -13723,10 +13729,10 @@
       <c r="B96" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="42">
         <v>17948</v>
       </c>
       <c r="E96" t="s">
@@ -13738,16 +13744,16 @@
       <c r="H96" t="s">
         <v>434</v>
       </c>
-      <c r="I96" s="52">
+      <c r="I96" s="42">
         <v>1337565</v>
       </c>
-      <c r="J96" s="52">
+      <c r="J96" s="42">
         <v>1085134</v>
       </c>
-      <c r="K96" s="52">
+      <c r="K96" s="42">
         <v>27158</v>
       </c>
-      <c r="L96" s="52">
+      <c r="L96" s="42">
         <v>225272</v>
       </c>
     </row>
@@ -13758,7 +13764,7 @@
       <c r="C97" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="42">
         <v>14034</v>
       </c>
       <c r="E97" t="s">
@@ -13770,16 +13776,16 @@
       <c r="H97" t="s">
         <v>437</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="42">
         <v>644175</v>
       </c>
-      <c r="J97" s="52">
+      <c r="J97" s="42">
         <v>494895</v>
       </c>
-      <c r="K97" s="52">
+      <c r="K97" s="42">
         <v>8566</v>
       </c>
-      <c r="L97" s="52">
+      <c r="L97" s="42">
         <v>140714</v>
       </c>
     </row>
@@ -13790,7 +13796,7 @@
       <c r="C98" t="s">
         <v>439</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="42">
         <v>7884</v>
       </c>
       <c r="G98" t="s">
@@ -13799,16 +13805,16 @@
       <c r="H98" t="s">
         <v>440</v>
       </c>
-      <c r="I98" s="52">
+      <c r="I98" s="42">
         <v>581331</v>
       </c>
-      <c r="J98" s="52">
+      <c r="J98" s="42">
         <v>489855</v>
       </c>
-      <c r="K98" s="52">
+      <c r="K98" s="42">
         <v>16768</v>
       </c>
-      <c r="L98" s="52">
+      <c r="L98" s="42">
         <v>74709</v>
       </c>
     </row>
@@ -13819,7 +13825,7 @@
       <c r="C99" t="s">
         <v>442</v>
       </c>
-      <c r="D99" s="52">
+      <c r="D99" s="42">
         <v>13425</v>
       </c>
       <c r="G99" t="s">
@@ -13828,16 +13834,16 @@
       <c r="H99" t="s">
         <v>443</v>
       </c>
-      <c r="I99" s="52">
+      <c r="I99" s="42">
         <v>112058</v>
       </c>
-      <c r="J99" s="52">
+      <c r="J99" s="42">
         <v>100385</v>
       </c>
-      <c r="K99" s="52">
+      <c r="K99" s="42">
         <v>1824</v>
       </c>
-      <c r="L99" s="52">
+      <c r="L99" s="42">
         <v>9849</v>
       </c>
     </row>
@@ -13848,7 +13854,7 @@
       <c r="C100" t="s">
         <v>445</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="42">
         <v>11837</v>
       </c>
       <c r="G100" t="s">
@@ -13857,16 +13863,16 @@
       <c r="H100" t="s">
         <v>446</v>
       </c>
-      <c r="I100" s="52">
+      <c r="I100" s="42">
         <v>746773</v>
       </c>
-      <c r="J100" s="52">
+      <c r="J100" s="42">
         <v>441746</v>
       </c>
-      <c r="K100" s="52">
+      <c r="K100" s="42">
         <v>96713</v>
       </c>
-      <c r="L100" s="52">
+      <c r="L100" s="42">
         <v>208314</v>
       </c>
     </row>
@@ -13877,7 +13883,7 @@
       <c r="C101" t="s">
         <v>448</v>
       </c>
-      <c r="D101" s="52">
+      <c r="D101" s="42">
         <v>10007</v>
       </c>
       <c r="G101" t="s">
@@ -13886,16 +13892,16 @@
       <c r="H101" t="s">
         <v>449</v>
       </c>
-      <c r="I101" s="52">
+      <c r="I101" s="42">
         <v>193468</v>
       </c>
-      <c r="J101" s="52">
+      <c r="J101" s="42">
         <v>100888</v>
       </c>
-      <c r="K101" s="52">
+      <c r="K101" s="42">
         <v>19506</v>
       </c>
-      <c r="L101" s="52">
+      <c r="L101" s="42">
         <v>73075</v>
       </c>
     </row>
@@ -13906,7 +13912,7 @@
       <c r="C102" t="s">
         <v>451</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="42">
         <v>45291</v>
       </c>
       <c r="G102" t="s">
@@ -13915,16 +13921,16 @@
       <c r="H102" t="s">
         <v>452</v>
       </c>
-      <c r="I102" s="52">
+      <c r="I102" s="42">
         <v>112849</v>
       </c>
-      <c r="J102" s="52">
+      <c r="J102" s="42">
         <v>52218</v>
       </c>
-      <c r="K102" s="52">
+      <c r="K102" s="42">
         <v>8029</v>
       </c>
-      <c r="L102" s="52">
+      <c r="L102" s="42">
         <v>52602</v>
       </c>
     </row>
@@ -13935,7 +13941,7 @@
       <c r="C103" t="s">
         <v>454</v>
       </c>
-      <c r="D103" s="52">
+      <c r="D103" s="42">
         <v>40189</v>
       </c>
       <c r="G103" t="s">
@@ -13944,16 +13950,16 @@
       <c r="H103" t="s">
         <v>455</v>
       </c>
-      <c r="I103" s="52">
+      <c r="I103" s="42">
         <v>80619</v>
       </c>
-      <c r="J103" s="52">
+      <c r="J103" s="42">
         <v>48669</v>
       </c>
-      <c r="K103" s="52">
+      <c r="K103" s="42">
         <v>11476</v>
       </c>
-      <c r="L103" s="52">
+      <c r="L103" s="42">
         <v>20473</v>
       </c>
     </row>
@@ -13964,7 +13970,7 @@
       <c r="C104" t="s">
         <v>457</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="42">
         <v>7536</v>
       </c>
       <c r="G104" t="s">
@@ -13973,16 +13979,16 @@
       <c r="H104" t="s">
         <v>458</v>
       </c>
-      <c r="I104" s="52">
+      <c r="I104" s="42">
         <v>553304</v>
       </c>
-      <c r="J104" s="52">
+      <c r="J104" s="42">
         <v>340858</v>
       </c>
-      <c r="K104" s="52">
+      <c r="K104" s="42">
         <v>77207</v>
       </c>
-      <c r="L104" s="52">
+      <c r="L104" s="42">
         <v>135239</v>
       </c>
     </row>
@@ -13993,7 +13999,7 @@
       <c r="C105" t="s">
         <v>460</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="42">
         <v>9269</v>
       </c>
       <c r="G105" t="s">
@@ -14002,16 +14008,16 @@
       <c r="H105" t="s">
         <v>461</v>
       </c>
-      <c r="I105" s="52">
+      <c r="I105" s="42">
         <v>157517</v>
       </c>
-      <c r="J105" s="52">
+      <c r="J105" s="42">
         <v>77673</v>
       </c>
-      <c r="K105" s="52">
+      <c r="K105" s="42">
         <v>26513</v>
       </c>
-      <c r="L105" s="52">
+      <c r="L105" s="42">
         <v>53331</v>
       </c>
     </row>
@@ -14022,7 +14028,7 @@
       <c r="C106" t="s">
         <v>463</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="42">
         <v>18380</v>
       </c>
       <c r="G106" t="s">
@@ -14031,16 +14037,16 @@
       <c r="H106" t="s">
         <v>464</v>
       </c>
-      <c r="I106" s="52">
+      <c r="I106" s="42">
         <v>395787</v>
       </c>
-      <c r="J106" s="52">
+      <c r="J106" s="42">
         <v>263185</v>
       </c>
-      <c r="K106" s="52">
+      <c r="K106" s="42">
         <v>50694</v>
       </c>
-      <c r="L106" s="52">
+      <c r="L106" s="42">
         <v>81908</v>
       </c>
     </row>
@@ -14051,7 +14057,7 @@
       <c r="C107" t="s">
         <v>466</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="42">
         <v>8253</v>
       </c>
       <c r="G107" t="s">
@@ -14060,16 +14066,16 @@
       <c r="H107" t="s">
         <v>467</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="42">
         <v>391569</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="42">
         <v>286397</v>
       </c>
-      <c r="K107" s="52">
+      <c r="K107" s="42">
         <v>21390</v>
       </c>
-      <c r="L107" s="52">
+      <c r="L107" s="42">
         <v>83782</v>
       </c>
     </row>
@@ -14080,7 +14086,7 @@
       <c r="C108" t="s">
         <v>469</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="42">
         <v>8828</v>
       </c>
       <c r="G108" t="s">
@@ -14089,16 +14095,16 @@
       <c r="H108" t="s">
         <v>470</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="42">
         <v>2339442</v>
       </c>
-      <c r="J108" s="52">
+      <c r="J108" s="42">
         <v>1846322</v>
       </c>
-      <c r="K108" s="52">
+      <c r="K108" s="42">
         <v>-24531</v>
       </c>
-      <c r="L108" s="52">
+      <c r="L108" s="42">
         <v>517651</v>
       </c>
     </row>
@@ -14109,7 +14115,7 @@
       <c r="C109" t="s">
         <v>472</v>
       </c>
-      <c r="D109" s="52">
+      <c r="D109" s="42">
         <v>39168</v>
       </c>
       <c r="G109" t="s">
@@ -14118,16 +14124,16 @@
       <c r="H109" t="s">
         <v>473</v>
       </c>
-      <c r="I109" s="52">
+      <c r="I109" s="42">
         <v>731280</v>
       </c>
-      <c r="J109" s="52">
+      <c r="J109" s="42">
         <v>469030</v>
       </c>
-      <c r="K109" s="52">
+      <c r="K109" s="42">
         <v>-6001</v>
       </c>
-      <c r="L109" s="52">
+      <c r="L109" s="42">
         <v>268250</v>
       </c>
     </row>
@@ -14138,7 +14144,7 @@
       <c r="C110" t="s">
         <v>475</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="42">
         <v>28288</v>
       </c>
       <c r="G110" t="s">
@@ -14147,16 +14153,16 @@
       <c r="H110" t="s">
         <v>476</v>
       </c>
-      <c r="I110" s="52">
+      <c r="I110" s="42">
         <v>673658</v>
       </c>
-      <c r="J110" s="52">
+      <c r="J110" s="42">
         <v>409923</v>
       </c>
-      <c r="K110" s="52" t="s">
+      <c r="K110" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="L110" s="52">
+      <c r="L110" s="42">
         <v>263735</v>
       </c>
     </row>
@@ -14167,7 +14173,7 @@
       <c r="C111" t="s">
         <v>479</v>
       </c>
-      <c r="D111" s="52">
+      <c r="D111" s="42">
         <v>27221</v>
       </c>
       <c r="G111" t="s">
@@ -14176,16 +14182,16 @@
       <c r="H111" t="s">
         <v>480</v>
       </c>
-      <c r="I111" s="52">
+      <c r="I111" s="42">
         <v>57621</v>
       </c>
-      <c r="J111" s="52">
+      <c r="J111" s="42">
         <v>59107</v>
       </c>
-      <c r="K111" s="52">
+      <c r="K111" s="42">
         <v>-6001</v>
       </c>
-      <c r="L111" s="52">
+      <c r="L111" s="42">
         <v>4515</v>
       </c>
     </row>
@@ -14196,7 +14202,7 @@
       <c r="C112" t="s">
         <v>482</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="42">
         <v>4004</v>
       </c>
       <c r="G112" t="s">
@@ -14205,16 +14211,16 @@
       <c r="H112" t="s">
         <v>483</v>
       </c>
-      <c r="I112" s="52">
+      <c r="I112" s="42">
         <v>1608162</v>
       </c>
-      <c r="J112" s="52">
+      <c r="J112" s="42">
         <v>1377292</v>
       </c>
-      <c r="K112" s="52">
+      <c r="K112" s="42">
         <v>-18530</v>
       </c>
-      <c r="L112" s="52">
+      <c r="L112" s="42">
         <v>249400</v>
       </c>
     </row>
@@ -14225,7 +14231,7 @@
       <c r="C113" t="s">
         <v>485</v>
       </c>
-      <c r="D113" s="52">
+      <c r="D113" s="42">
         <v>28050</v>
       </c>
       <c r="G113" t="s">
@@ -14234,16 +14240,16 @@
       <c r="H113" t="s">
         <v>486</v>
       </c>
-      <c r="I113" s="52">
+      <c r="I113" s="42">
         <v>1467317</v>
       </c>
-      <c r="J113" s="52">
+      <c r="J113" s="42">
         <v>1275273</v>
       </c>
-      <c r="K113" s="52" t="s">
+      <c r="K113" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="L113" s="52">
+      <c r="L113" s="42">
         <v>192044</v>
       </c>
     </row>
@@ -14254,7 +14260,7 @@
       <c r="C114" t="s">
         <v>488</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="42">
         <v>6997</v>
       </c>
       <c r="G114" t="s">
@@ -14263,16 +14269,16 @@
       <c r="H114" t="s">
         <v>489</v>
       </c>
-      <c r="I114" s="52">
+      <c r="I114" s="42">
         <v>140845</v>
       </c>
-      <c r="J114" s="52">
+      <c r="J114" s="42">
         <v>102019</v>
       </c>
-      <c r="K114" s="52">
+      <c r="K114" s="42">
         <v>-18530</v>
       </c>
-      <c r="L114" s="52">
+      <c r="L114" s="42">
         <v>57356</v>
       </c>
     </row>
@@ -14283,13 +14289,13 @@
       <c r="C115" t="s">
         <v>491</v>
       </c>
-      <c r="D115" s="52">
+      <c r="D115" s="42">
         <v>7632</v>
       </c>
       <c r="H115" t="s">
         <v>492</v>
       </c>
-      <c r="I115" s="52"/>
+      <c r="I115" s="42"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
@@ -14298,7 +14304,7 @@
       <c r="C116" t="s">
         <v>494</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="42">
         <v>13831</v>
       </c>
       <c r="G116" t="s">
@@ -14307,7 +14313,7 @@
       <c r="H116" t="s">
         <v>495</v>
       </c>
-      <c r="I116" s="52">
+      <c r="I116" s="42">
         <v>3268592</v>
       </c>
     </row>
@@ -14318,7 +14324,7 @@
       <c r="C117" t="s">
         <v>497</v>
       </c>
-      <c r="D117" s="52">
+      <c r="D117" s="42">
         <v>15876</v>
       </c>
       <c r="G117" t="s">
@@ -14327,7 +14333,7 @@
       <c r="H117" t="s">
         <v>498</v>
       </c>
-      <c r="I117" s="52">
+      <c r="I117" s="42">
         <v>12630266</v>
       </c>
     </row>
@@ -14338,7 +14344,7 @@
       <c r="C118" t="s">
         <v>500</v>
       </c>
-      <c r="D118" s="52">
+      <c r="D118" s="42">
         <v>30700</v>
       </c>
     </row>
@@ -14349,7 +14355,7 @@
       <c r="C119" t="s">
         <v>502</v>
       </c>
-      <c r="D119" s="52">
+      <c r="D119" s="42">
         <v>9198</v>
       </c>
     </row>
@@ -14360,7 +14366,7 @@
       <c r="C120" t="s">
         <v>504</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="42">
         <v>28981</v>
       </c>
     </row>
@@ -14371,7 +14377,7 @@
       <c r="C121" t="s">
         <v>506</v>
       </c>
-      <c r="D121" s="52">
+      <c r="D121" s="42">
         <v>21607</v>
       </c>
     </row>
@@ -14382,7 +14388,7 @@
       <c r="C122" t="s">
         <v>508</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="42">
         <v>6176</v>
       </c>
     </row>
@@ -14393,7 +14399,7 @@
       <c r="C123" t="s">
         <v>510</v>
       </c>
-      <c r="D123" s="52">
+      <c r="D123" s="42">
         <v>26748</v>
       </c>
     </row>
@@ -14404,7 +14410,7 @@
       <c r="C124" t="s">
         <v>512</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="42">
         <v>4893</v>
       </c>
     </row>
@@ -14415,7 +14421,7 @@
       <c r="C125" t="s">
         <v>514</v>
       </c>
-      <c r="D125" s="52">
+      <c r="D125" s="42">
         <v>2064</v>
       </c>
     </row>
@@ -14426,7 +14432,7 @@
       <c r="C126" t="s">
         <v>516</v>
       </c>
-      <c r="D126" s="52">
+      <c r="D126" s="42">
         <v>21334</v>
       </c>
     </row>
@@ -14437,7 +14443,7 @@
       <c r="C127" t="s">
         <v>518</v>
       </c>
-      <c r="D127" s="52">
+      <c r="D127" s="42">
         <v>4558</v>
       </c>
     </row>
@@ -14448,7 +14454,7 @@
       <c r="C128" t="s">
         <v>520</v>
       </c>
-      <c r="D128" s="52">
+      <c r="D128" s="42">
         <v>32747</v>
       </c>
     </row>
@@ -14459,7 +14465,7 @@
       <c r="C129" t="s">
         <v>522</v>
       </c>
-      <c r="D129" s="52">
+      <c r="D129" s="42">
         <v>6678</v>
       </c>
     </row>
@@ -14470,7 +14476,7 @@
       <c r="C130" t="s">
         <v>524</v>
       </c>
-      <c r="D130" s="52">
+      <c r="D130" s="42">
         <v>6497</v>
       </c>
     </row>
@@ -14481,7 +14487,7 @@
       <c r="C131" t="s">
         <v>526</v>
       </c>
-      <c r="D131" s="52">
+      <c r="D131" s="42">
         <v>8423</v>
       </c>
     </row>
@@ -14492,7 +14498,7 @@
       <c r="C132" t="s">
         <v>528</v>
       </c>
-      <c r="D132" s="52">
+      <c r="D132" s="42">
         <v>8202</v>
       </c>
     </row>
@@ -14503,7 +14509,7 @@
       <c r="C133" t="s">
         <v>530</v>
       </c>
-      <c r="D133" s="52">
+      <c r="D133" s="42">
         <v>9125</v>
       </c>
     </row>
@@ -14514,7 +14520,7 @@
       <c r="C134" t="s">
         <v>532</v>
       </c>
-      <c r="D134" s="52">
+      <c r="D134" s="42">
         <v>15140</v>
       </c>
     </row>
@@ -14525,7 +14531,7 @@
       <c r="C135" t="s">
         <v>534</v>
       </c>
-      <c r="D135" s="52">
+      <c r="D135" s="42">
         <v>3683</v>
       </c>
     </row>
@@ -14536,7 +14542,7 @@
       <c r="C136" t="s">
         <v>536</v>
       </c>
-      <c r="D136" s="52">
+      <c r="D136" s="42">
         <v>4321</v>
       </c>
     </row>
@@ -14547,7 +14553,7 @@
       <c r="C137" t="s">
         <v>538</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D137" s="42">
         <v>27555</v>
       </c>
     </row>
@@ -14558,7 +14564,7 @@
       <c r="C138" t="s">
         <v>540</v>
       </c>
-      <c r="D138" s="52">
+      <c r="D138" s="42">
         <v>10106</v>
       </c>
     </row>
@@ -14569,7 +14575,7 @@
       <c r="C139" t="s">
         <v>542</v>
       </c>
-      <c r="D139" s="52">
+      <c r="D139" s="42">
         <v>16822</v>
       </c>
     </row>
@@ -14580,7 +14586,7 @@
       <c r="C140" t="s">
         <v>544</v>
       </c>
-      <c r="D140" s="52">
+      <c r="D140" s="42">
         <v>27754</v>
       </c>
     </row>
@@ -14591,7 +14597,7 @@
       <c r="C141" t="s">
         <v>546</v>
       </c>
-      <c r="D141" s="52">
+      <c r="D141" s="42">
         <v>3250</v>
       </c>
     </row>
@@ -14602,7 +14608,7 @@
       <c r="C142" t="s">
         <v>548</v>
       </c>
-      <c r="D142" s="52">
+      <c r="D142" s="42">
         <v>5866</v>
       </c>
     </row>
@@ -14613,7 +14619,7 @@
       <c r="C143" t="s">
         <v>550</v>
       </c>
-      <c r="D143" s="52">
+      <c r="D143" s="42">
         <v>2845</v>
       </c>
     </row>
@@ -14624,7 +14630,7 @@
       <c r="C144" t="s">
         <v>552</v>
       </c>
-      <c r="D144" s="52">
+      <c r="D144" s="42">
         <v>22220</v>
       </c>
     </row>
@@ -14635,7 +14641,7 @@
       <c r="C145" t="s">
         <v>554</v>
       </c>
-      <c r="D145" s="52">
+      <c r="D145" s="42">
         <v>11611</v>
       </c>
     </row>
@@ -14646,7 +14652,7 @@
       <c r="C146" t="s">
         <v>556</v>
       </c>
-      <c r="D146" s="52">
+      <c r="D146" s="42">
         <v>12846</v>
       </c>
     </row>
@@ -14657,7 +14663,7 @@
       <c r="C147" t="s">
         <v>558</v>
       </c>
-      <c r="D147" s="52">
+      <c r="D147" s="42">
         <v>8291</v>
       </c>
     </row>
@@ -14668,7 +14674,7 @@
       <c r="C148" t="s">
         <v>560</v>
       </c>
-      <c r="D148" s="52">
+      <c r="D148" s="42">
         <v>10778</v>
       </c>
     </row>
@@ -14679,7 +14685,7 @@
       <c r="C149" t="s">
         <v>562</v>
       </c>
-      <c r="D149" s="52">
+      <c r="D149" s="42">
         <v>11850</v>
       </c>
     </row>
@@ -14690,7 +14696,7 @@
       <c r="C150" t="s">
         <v>564</v>
       </c>
-      <c r="D150" s="52">
+      <c r="D150" s="42">
         <v>33887</v>
       </c>
     </row>
@@ -14701,7 +14707,7 @@
       <c r="C151" t="s">
         <v>566</v>
       </c>
-      <c r="D151" s="52">
+      <c r="D151" s="42">
         <v>6694</v>
       </c>
     </row>
@@ -14712,7 +14718,7 @@
       <c r="C152" t="s">
         <v>568</v>
       </c>
-      <c r="D152" s="52">
+      <c r="D152" s="42">
         <v>57088</v>
       </c>
     </row>
@@ -14723,7 +14729,7 @@
       <c r="C153" t="s">
         <v>570</v>
       </c>
-      <c r="D153" s="52">
+      <c r="D153" s="42">
         <v>20663</v>
       </c>
     </row>
@@ -14734,7 +14740,7 @@
       <c r="C154" t="s">
         <v>572</v>
       </c>
-      <c r="D154" s="52">
+      <c r="D154" s="42">
         <v>32586</v>
       </c>
     </row>
@@ -14745,7 +14751,7 @@
       <c r="C155" t="s">
         <v>574</v>
       </c>
-      <c r="D155" s="52">
+      <c r="D155" s="42">
         <v>28912</v>
       </c>
     </row>
@@ -14756,7 +14762,7 @@
       <c r="C156" t="s">
         <v>576</v>
       </c>
-      <c r="D156" s="52">
+      <c r="D156" s="42">
         <v>47917</v>
       </c>
     </row>
@@ -14767,7 +14773,7 @@
       <c r="C157" t="s">
         <v>578</v>
       </c>
-      <c r="D157" s="52">
+      <c r="D157" s="42">
         <v>2618</v>
       </c>
     </row>
@@ -14778,7 +14784,7 @@
       <c r="C158" t="s">
         <v>580</v>
       </c>
-      <c r="D158" s="52">
+      <c r="D158" s="42">
         <v>11888</v>
       </c>
     </row>
@@ -14789,7 +14795,7 @@
       <c r="C159" t="s">
         <v>582</v>
       </c>
-      <c r="D159" s="52">
+      <c r="D159" s="42">
         <v>5417</v>
       </c>
     </row>
@@ -14800,7 +14806,7 @@
       <c r="C160" t="s">
         <v>584</v>
       </c>
-      <c r="D160" s="52">
+      <c r="D160" s="42">
         <v>11523</v>
       </c>
     </row>
@@ -14811,7 +14817,7 @@
       <c r="C161" t="s">
         <v>586</v>
       </c>
-      <c r="D161" s="52">
+      <c r="D161" s="42">
         <v>17491</v>
       </c>
     </row>
@@ -14822,7 +14828,7 @@
       <c r="C162" t="s">
         <v>588</v>
       </c>
-      <c r="D162" s="52">
+      <c r="D162" s="42">
         <v>10002</v>
       </c>
     </row>
@@ -14833,7 +14839,7 @@
       <c r="C163" t="s">
         <v>590</v>
       </c>
-      <c r="D163" s="52">
+      <c r="D163" s="42">
         <v>12072</v>
       </c>
     </row>
@@ -14844,7 +14850,7 @@
       <c r="C164" t="s">
         <v>592</v>
       </c>
-      <c r="D164" s="52">
+      <c r="D164" s="42">
         <v>2914</v>
       </c>
     </row>
@@ -14855,7 +14861,7 @@
       <c r="C165" t="s">
         <v>594</v>
       </c>
-      <c r="D165" s="52">
+      <c r="D165" s="42">
         <v>2916</v>
       </c>
     </row>
@@ -14866,7 +14872,7 @@
       <c r="C166" t="s">
         <v>596</v>
       </c>
-      <c r="D166" s="52">
+      <c r="D166" s="42">
         <v>1052</v>
       </c>
     </row>
@@ -14877,7 +14883,7 @@
       <c r="C167" t="s">
         <v>598</v>
       </c>
-      <c r="D167" s="52">
+      <c r="D167" s="42">
         <v>11324</v>
       </c>
     </row>
@@ -14888,7 +14894,7 @@
       <c r="C168" t="s">
         <v>600</v>
       </c>
-      <c r="D168" s="52">
+      <c r="D168" s="42">
         <v>3539</v>
       </c>
     </row>
@@ -14899,7 +14905,7 @@
       <c r="C169" t="s">
         <v>602</v>
       </c>
-      <c r="D169" s="52">
+      <c r="D169" s="42">
         <v>4775</v>
       </c>
     </row>
@@ -14910,7 +14916,7 @@
       <c r="C170" t="s">
         <v>604</v>
       </c>
-      <c r="D170" s="52">
+      <c r="D170" s="42">
         <v>3881</v>
       </c>
     </row>
@@ -14921,7 +14927,7 @@
       <c r="C171" t="s">
         <v>606</v>
       </c>
-      <c r="D171" s="52">
+      <c r="D171" s="42">
         <v>3862</v>
       </c>
     </row>
@@ -14932,7 +14938,7 @@
       <c r="C172" t="s">
         <v>608</v>
       </c>
-      <c r="D172" s="52">
+      <c r="D172" s="42">
         <v>5125</v>
       </c>
     </row>
@@ -14943,7 +14949,7 @@
       <c r="C173" t="s">
         <v>610</v>
       </c>
-      <c r="D173" s="52">
+      <c r="D173" s="42">
         <v>5491</v>
       </c>
     </row>
@@ -14954,7 +14960,7 @@
       <c r="C174" t="s">
         <v>612</v>
       </c>
-      <c r="D174" s="52">
+      <c r="D174" s="42">
         <v>10506</v>
       </c>
     </row>
@@ -14965,7 +14971,7 @@
       <c r="C175" t="s">
         <v>614</v>
       </c>
-      <c r="D175" s="52">
+      <c r="D175" s="42">
         <v>11675</v>
       </c>
     </row>
@@ -14976,7 +14982,7 @@
       <c r="C176" t="s">
         <v>616</v>
       </c>
-      <c r="D176" s="52">
+      <c r="D176" s="42">
         <v>10352</v>
       </c>
     </row>
@@ -14987,7 +14993,7 @@
       <c r="C177" t="s">
         <v>618</v>
       </c>
-      <c r="D177" s="52">
+      <c r="D177" s="42">
         <v>8071</v>
       </c>
     </row>
@@ -14998,7 +15004,7 @@
       <c r="C178" t="s">
         <v>620</v>
       </c>
-      <c r="D178" s="52">
+      <c r="D178" s="42">
         <v>3739</v>
       </c>
     </row>
@@ -15009,7 +15015,7 @@
       <c r="C179" t="s">
         <v>622</v>
       </c>
-      <c r="D179" s="52">
+      <c r="D179" s="42">
         <v>14491</v>
       </c>
     </row>
@@ -15020,7 +15026,7 @@
       <c r="C180" t="s">
         <v>624</v>
       </c>
-      <c r="D180" s="52">
+      <c r="D180" s="42">
         <v>13999</v>
       </c>
     </row>
@@ -15031,7 +15037,7 @@
       <c r="C181" t="s">
         <v>626</v>
       </c>
-      <c r="D181" s="52">
+      <c r="D181" s="42">
         <v>3310</v>
       </c>
     </row>
@@ -15042,7 +15048,7 @@
       <c r="C182" t="s">
         <v>628</v>
       </c>
-      <c r="D182" s="52">
+      <c r="D182" s="42">
         <v>10808</v>
       </c>
     </row>
@@ -15053,7 +15059,7 @@
       <c r="C183" t="s">
         <v>630</v>
       </c>
-      <c r="D183" s="52">
+      <c r="D183" s="42">
         <v>67427</v>
       </c>
     </row>
@@ -15064,7 +15070,7 @@
       <c r="C184" t="s">
         <v>632</v>
       </c>
-      <c r="D184" s="52">
+      <c r="D184" s="42">
         <v>267597</v>
       </c>
     </row>
@@ -15075,7 +15081,7 @@
       <c r="C185" t="s">
         <v>634</v>
       </c>
-      <c r="D185" s="52">
+      <c r="D185" s="42">
         <v>35528</v>
       </c>
     </row>
@@ -15086,7 +15092,7 @@
       <c r="C186" t="s">
         <v>636</v>
       </c>
-      <c r="D186" s="52">
+      <c r="D186" s="42">
         <v>14072</v>
       </c>
     </row>
@@ -15097,7 +15103,7 @@
       <c r="C187" t="s">
         <v>638</v>
       </c>
-      <c r="D187" s="52">
+      <c r="D187" s="42">
         <v>10276</v>
       </c>
     </row>
@@ -15108,7 +15114,7 @@
       <c r="C188" t="s">
         <v>640</v>
       </c>
-      <c r="D188" s="52">
+      <c r="D188" s="42">
         <v>4256</v>
       </c>
     </row>
@@ -15119,7 +15125,7 @@
       <c r="C189" t="s">
         <v>642</v>
       </c>
-      <c r="D189" s="52">
+      <c r="D189" s="42">
         <v>14299</v>
       </c>
     </row>
@@ -15130,7 +15136,7 @@
       <c r="C190" t="s">
         <v>644</v>
       </c>
-      <c r="D190" s="52">
+      <c r="D190" s="42">
         <v>34899</v>
       </c>
     </row>
@@ -15141,7 +15147,7 @@
       <c r="C191" t="s">
         <v>646</v>
       </c>
-      <c r="D191" s="52">
+      <c r="D191" s="42">
         <v>25253</v>
       </c>
     </row>
@@ -15152,7 +15158,7 @@
       <c r="C192" t="s">
         <v>648</v>
       </c>
-      <c r="D192" s="52">
+      <c r="D192" s="42">
         <v>38361</v>
       </c>
     </row>
@@ -15163,7 +15169,7 @@
       <c r="C193" t="s">
         <v>650</v>
       </c>
-      <c r="D193" s="52">
+      <c r="D193" s="42">
         <v>32361</v>
       </c>
     </row>
@@ -15174,7 +15180,7 @@
       <c r="C194" t="s">
         <v>652</v>
       </c>
-      <c r="D194" s="52">
+      <c r="D194" s="42">
         <v>37764</v>
       </c>
     </row>
@@ -15185,7 +15191,7 @@
       <c r="C195" t="s">
         <v>654</v>
       </c>
-      <c r="D195" s="52">
+      <c r="D195" s="42">
         <v>68959</v>
       </c>
     </row>
@@ -15196,7 +15202,7 @@
       <c r="C196" t="s">
         <v>656</v>
       </c>
-      <c r="D196" s="52">
+      <c r="D196" s="42">
         <v>26026</v>
       </c>
     </row>
@@ -15207,7 +15213,7 @@
       <c r="C197" t="s">
         <v>658</v>
       </c>
-      <c r="D197" s="52">
+      <c r="D197" s="42">
         <v>137534</v>
       </c>
     </row>
@@ -15218,7 +15224,7 @@
       <c r="C198" t="s">
         <v>660</v>
       </c>
-      <c r="D198" s="52">
+      <c r="D198" s="42">
         <v>50032</v>
       </c>
     </row>
@@ -15229,7 +15235,7 @@
       <c r="C199" t="s">
         <v>662</v>
       </c>
-      <c r="D199" s="52">
+      <c r="D199" s="42">
         <v>40127</v>
       </c>
     </row>
@@ -15240,7 +15246,7 @@
       <c r="C200" t="s">
         <v>664</v>
       </c>
-      <c r="D200" s="52">
+      <c r="D200" s="42">
         <v>21738</v>
       </c>
     </row>
@@ -15251,7 +15257,7 @@
       <c r="C201" t="s">
         <v>666</v>
       </c>
-      <c r="D201" s="52">
+      <c r="D201" s="42">
         <v>5902</v>
       </c>
     </row>
@@ -15262,7 +15268,7 @@
       <c r="C202" t="s">
         <v>668</v>
       </c>
-      <c r="D202" s="52">
+      <c r="D202" s="42">
         <v>21968</v>
       </c>
     </row>
@@ -15273,7 +15279,7 @@
       <c r="C203" t="s">
         <v>670</v>
       </c>
-      <c r="D203" s="52">
+      <c r="D203" s="42">
         <v>26079</v>
       </c>
     </row>
@@ -15284,7 +15290,7 @@
       <c r="C204" t="s">
         <v>672</v>
       </c>
-      <c r="D204" s="52">
+      <c r="D204" s="42">
         <v>9645</v>
       </c>
     </row>
@@ -15295,7 +15301,7 @@
       <c r="C205" t="s">
         <v>674</v>
       </c>
-      <c r="D205" s="52">
+      <c r="D205" s="42">
         <v>6712</v>
       </c>
     </row>
@@ -15306,7 +15312,7 @@
       <c r="C206" t="s">
         <v>676</v>
       </c>
-      <c r="D206" s="52">
+      <c r="D206" s="42">
         <v>4176</v>
       </c>
     </row>
@@ -15317,7 +15323,7 @@
       <c r="C207" t="s">
         <v>678</v>
       </c>
-      <c r="D207" s="52">
+      <c r="D207" s="42">
         <v>9213</v>
       </c>
     </row>
@@ -15328,7 +15334,7 @@
       <c r="C208" t="s">
         <v>680</v>
       </c>
-      <c r="D208" s="52">
+      <c r="D208" s="42">
         <v>15041</v>
       </c>
     </row>
@@ -15339,7 +15345,7 @@
       <c r="C209" t="s">
         <v>682</v>
       </c>
-      <c r="D209" s="52">
+      <c r="D209" s="42">
         <v>11419</v>
       </c>
     </row>
@@ -15350,7 +15356,7 @@
       <c r="C210" t="s">
         <v>684</v>
       </c>
-      <c r="D210" s="52">
+      <c r="D210" s="42">
         <v>4252</v>
       </c>
     </row>
@@ -15361,7 +15367,7 @@
       <c r="C211" t="s">
         <v>686</v>
       </c>
-      <c r="D211" s="52">
+      <c r="D211" s="42">
         <v>4806</v>
       </c>
     </row>
@@ -15372,7 +15378,7 @@
       <c r="C212" t="s">
         <v>688</v>
       </c>
-      <c r="D212" s="52">
+      <c r="D212" s="42">
         <v>3237</v>
       </c>
     </row>
@@ -15383,7 +15389,7 @@
       <c r="C213" t="s">
         <v>690</v>
       </c>
-      <c r="D213" s="52">
+      <c r="D213" s="42">
         <v>7431</v>
       </c>
     </row>
@@ -15394,7 +15400,7 @@
       <c r="C214" t="s">
         <v>692</v>
       </c>
-      <c r="D214" s="52">
+      <c r="D214" s="42">
         <v>17274</v>
       </c>
     </row>
@@ -15405,7 +15411,7 @@
       <c r="C215" t="s">
         <v>694</v>
       </c>
-      <c r="D215" s="52">
+      <c r="D215" s="42">
         <v>10328</v>
       </c>
     </row>
@@ -15416,7 +15422,7 @@
       <c r="C216" t="s">
         <v>696</v>
       </c>
-      <c r="D216" s="52">
+      <c r="D216" s="42">
         <v>43172</v>
       </c>
     </row>
@@ -15427,7 +15433,7 @@
       <c r="C217" t="s">
         <v>698</v>
       </c>
-      <c r="D217" s="52">
+      <c r="D217" s="42">
         <v>36144</v>
       </c>
     </row>
@@ -15438,7 +15444,7 @@
       <c r="C218" t="s">
         <v>700</v>
       </c>
-      <c r="D218" s="52">
+      <c r="D218" s="42">
         <v>4994</v>
       </c>
     </row>
@@ -15449,7 +15455,7 @@
       <c r="C219" t="s">
         <v>702</v>
       </c>
-      <c r="D219" s="52">
+      <c r="D219" s="42">
         <v>8110</v>
       </c>
     </row>
@@ -15460,7 +15466,7 @@
       <c r="C220" t="s">
         <v>704</v>
       </c>
-      <c r="D220" s="52">
+      <c r="D220" s="42">
         <v>5774</v>
       </c>
     </row>
@@ -15471,7 +15477,7 @@
       <c r="C221" t="s">
         <v>706</v>
       </c>
-      <c r="D221" s="52">
+      <c r="D221" s="42">
         <v>8080</v>
       </c>
     </row>
@@ -15482,7 +15488,7 @@
       <c r="C222" t="s">
         <v>708</v>
       </c>
-      <c r="D222" s="52">
+      <c r="D222" s="42">
         <v>10355</v>
       </c>
     </row>
@@ -15493,7 +15499,7 @@
       <c r="C223" t="s">
         <v>710</v>
       </c>
-      <c r="D223" s="52">
+      <c r="D223" s="42">
         <v>1624</v>
       </c>
     </row>
@@ -15504,7 +15510,7 @@
       <c r="C224" t="s">
         <v>712</v>
       </c>
-      <c r="D224" s="52">
+      <c r="D224" s="42">
         <v>3179</v>
       </c>
     </row>
@@ -15515,7 +15521,7 @@
       <c r="C225" t="s">
         <v>714</v>
       </c>
-      <c r="D225" s="52">
+      <c r="D225" s="42">
         <v>13946</v>
       </c>
     </row>
@@ -15526,7 +15532,7 @@
       <c r="C226" t="s">
         <v>716</v>
       </c>
-      <c r="D226" s="52">
+      <c r="D226" s="42">
         <v>30899</v>
       </c>
     </row>
@@ -15537,7 +15543,7 @@
       <c r="C227" t="s">
         <v>718</v>
       </c>
-      <c r="D227" s="52">
+      <c r="D227" s="42">
         <v>22672</v>
       </c>
     </row>
@@ -15548,7 +15554,7 @@
       <c r="C228" t="s">
         <v>720</v>
       </c>
-      <c r="D228" s="52">
+      <c r="D228" s="42">
         <v>34308</v>
       </c>
     </row>
@@ -15559,7 +15565,7 @@
       <c r="C229" t="s">
         <v>722</v>
       </c>
-      <c r="D229" s="52">
+      <c r="D229" s="42">
         <v>19639</v>
       </c>
     </row>
@@ -15570,7 +15576,7 @@
       <c r="C230" t="s">
         <v>724</v>
       </c>
-      <c r="D230" s="52">
+      <c r="D230" s="42">
         <v>10510</v>
       </c>
     </row>
@@ -15581,7 +15587,7 @@
       <c r="C231" t="s">
         <v>726</v>
       </c>
-      <c r="D231" s="52">
+      <c r="D231" s="42">
         <v>12012</v>
       </c>
     </row>
@@ -15592,7 +15598,7 @@
       <c r="C232" t="s">
         <v>728</v>
       </c>
-      <c r="D232" s="52">
+      <c r="D232" s="42">
         <v>35390</v>
       </c>
     </row>
@@ -15603,7 +15609,7 @@
       <c r="C233" t="s">
         <v>730</v>
       </c>
-      <c r="D233" s="52">
+      <c r="D233" s="42">
         <v>9839</v>
       </c>
     </row>
@@ -15614,7 +15620,7 @@
       <c r="C234" t="s">
         <v>732</v>
       </c>
-      <c r="D234" s="52">
+      <c r="D234" s="42">
         <v>34461</v>
       </c>
     </row>
@@ -15625,7 +15631,7 @@
       <c r="C235" t="s">
         <v>734</v>
       </c>
-      <c r="D235" s="52">
+      <c r="D235" s="42">
         <v>32490</v>
       </c>
     </row>
@@ -15636,7 +15642,7 @@
       <c r="C236" t="s">
         <v>736</v>
       </c>
-      <c r="D236" s="52">
+      <c r="D236" s="42">
         <v>35271</v>
       </c>
     </row>
@@ -15647,7 +15653,7 @@
       <c r="C237" t="s">
         <v>737</v>
       </c>
-      <c r="D237" s="52">
+      <c r="D237" s="42">
         <v>44820</v>
       </c>
     </row>
@@ -15658,7 +15664,7 @@
       <c r="C238" t="s">
         <v>739</v>
       </c>
-      <c r="D238" s="52">
+      <c r="D238" s="42">
         <v>24834</v>
       </c>
     </row>
@@ -15669,7 +15675,7 @@
       <c r="C239" t="s">
         <v>741</v>
       </c>
-      <c r="D239" s="52">
+      <c r="D239" s="42">
         <v>42935</v>
       </c>
     </row>
@@ -15680,7 +15686,7 @@
       <c r="C240" t="s">
         <v>743</v>
       </c>
-      <c r="D240" s="52">
+      <c r="D240" s="42">
         <v>7409</v>
       </c>
     </row>
@@ -15691,7 +15697,7 @@
       <c r="C241" t="s">
         <v>745</v>
       </c>
-      <c r="D241" s="52">
+      <c r="D241" s="42">
         <v>63516</v>
       </c>
     </row>
@@ -15702,7 +15708,7 @@
       <c r="C242" t="s">
         <v>747</v>
       </c>
-      <c r="D242" s="52">
+      <c r="D242" s="42">
         <v>151763</v>
       </c>
     </row>
@@ -15713,7 +15719,7 @@
       <c r="C243" t="s">
         <v>749</v>
       </c>
-      <c r="D243" s="52">
+      <c r="D243" s="42">
         <v>13437</v>
       </c>
     </row>
@@ -15724,7 +15730,7 @@
       <c r="C244" t="s">
         <v>751</v>
       </c>
-      <c r="D244" s="52">
+      <c r="D244" s="42">
         <v>41588</v>
       </c>
     </row>
@@ -15735,7 +15741,7 @@
       <c r="C245" t="s">
         <v>753</v>
       </c>
-      <c r="D245" s="52">
+      <c r="D245" s="42">
         <v>28299</v>
       </c>
     </row>
@@ -15746,7 +15752,7 @@
       <c r="C246" t="s">
         <v>755</v>
       </c>
-      <c r="D246" s="52">
+      <c r="D246" s="42">
         <v>35923</v>
       </c>
     </row>
@@ -15757,7 +15763,7 @@
       <c r="C247" t="s">
         <v>757</v>
       </c>
-      <c r="D247" s="52">
+      <c r="D247" s="42">
         <v>13989</v>
       </c>
     </row>
@@ -15768,7 +15774,7 @@
       <c r="C248" t="s">
         <v>759</v>
       </c>
-      <c r="D248" s="52">
+      <c r="D248" s="42">
         <v>10059</v>
       </c>
     </row>
@@ -15779,7 +15785,7 @@
       <c r="C249" t="s">
         <v>761</v>
       </c>
-      <c r="D249" s="52">
+      <c r="D249" s="42">
         <v>18967</v>
       </c>
     </row>
@@ -15790,7 +15796,7 @@
       <c r="C250" t="s">
         <v>763</v>
       </c>
-      <c r="D250" s="52">
+      <c r="D250" s="42">
         <v>26996</v>
       </c>
     </row>
@@ -15801,7 +15807,7 @@
       <c r="C251" t="s">
         <v>765</v>
       </c>
-      <c r="D251" s="52">
+      <c r="D251" s="42">
         <v>47738</v>
       </c>
     </row>
@@ -15812,7 +15818,7 @@
       <c r="C252" t="s">
         <v>767</v>
       </c>
-      <c r="D252" s="52">
+      <c r="D252" s="42">
         <v>33801</v>
       </c>
     </row>
@@ -15823,7 +15829,7 @@
       <c r="C253" t="s">
         <v>769</v>
       </c>
-      <c r="D253" s="52">
+      <c r="D253" s="42">
         <v>20987</v>
       </c>
     </row>
@@ -15834,7 +15840,7 @@
       <c r="C254" t="s">
         <v>771</v>
       </c>
-      <c r="D254" s="52">
+      <c r="D254" s="42">
         <v>17027</v>
       </c>
     </row>
@@ -15845,7 +15851,7 @@
       <c r="C255" t="s">
         <v>773</v>
       </c>
-      <c r="D255" s="52">
+      <c r="D255" s="42">
         <v>55533</v>
       </c>
     </row>
@@ -15856,7 +15862,7 @@
       <c r="C256" t="s">
         <v>775</v>
       </c>
-      <c r="D256" s="52">
+      <c r="D256" s="42">
         <v>7797</v>
       </c>
     </row>
@@ -15867,7 +15873,7 @@
       <c r="C257" t="s">
         <v>777</v>
       </c>
-      <c r="D257" s="52">
+      <c r="D257" s="42">
         <v>13469</v>
       </c>
     </row>
@@ -15878,7 +15884,7 @@
       <c r="C258" t="s">
         <v>779</v>
       </c>
-      <c r="D258" s="52">
+      <c r="D258" s="42">
         <v>7913</v>
       </c>
     </row>
@@ -15889,7 +15895,7 @@
       <c r="C259" t="s">
         <v>781</v>
       </c>
-      <c r="D259" s="52">
+      <c r="D259" s="42">
         <v>9793</v>
       </c>
     </row>
@@ -15900,7 +15906,7 @@
       <c r="C260" t="s">
         <v>783</v>
       </c>
-      <c r="D260" s="52">
+      <c r="D260" s="42">
         <v>4432</v>
       </c>
     </row>
@@ -15911,7 +15917,7 @@
       <c r="C261" t="s">
         <v>785</v>
       </c>
-      <c r="D261" s="52">
+      <c r="D261" s="42">
         <v>10139</v>
       </c>
     </row>
@@ -15922,7 +15928,7 @@
       <c r="C262" t="s">
         <v>787</v>
       </c>
-      <c r="D262" s="52">
+      <c r="D262" s="42">
         <v>11575</v>
       </c>
     </row>
@@ -15933,7 +15939,7 @@
       <c r="C263" t="s">
         <v>789</v>
       </c>
-      <c r="D263" s="52">
+      <c r="D263" s="42">
         <v>7059</v>
       </c>
     </row>
@@ -15944,7 +15950,7 @@
       <c r="C264" t="s">
         <v>791</v>
       </c>
-      <c r="D264" s="52">
+      <c r="D264" s="42">
         <v>6202</v>
       </c>
     </row>
@@ -15955,7 +15961,7 @@
       <c r="C265" t="s">
         <v>793</v>
       </c>
-      <c r="D265" s="52">
+      <c r="D265" s="42">
         <v>44437</v>
       </c>
     </row>
@@ -15966,7 +15972,7 @@
       <c r="C266" t="s">
         <v>795</v>
       </c>
-      <c r="D266" s="52">
+      <c r="D266" s="42">
         <v>29952</v>
       </c>
     </row>
@@ -15977,7 +15983,7 @@
       <c r="C267" t="s">
         <v>797</v>
       </c>
-      <c r="D267" s="52">
+      <c r="D267" s="42">
         <v>59159</v>
       </c>
     </row>
@@ -15988,7 +15994,7 @@
       <c r="C268" t="s">
         <v>799</v>
       </c>
-      <c r="D268" s="52">
+      <c r="D268" s="42">
         <v>20873</v>
       </c>
     </row>
@@ -15999,7 +16005,7 @@
       <c r="C269" t="s">
         <v>801</v>
       </c>
-      <c r="D269" s="52">
+      <c r="D269" s="42">
         <v>6152</v>
       </c>
     </row>
@@ -16010,7 +16016,7 @@
       <c r="C270" t="s">
         <v>803</v>
       </c>
-      <c r="D270" s="52">
+      <c r="D270" s="42">
         <v>11383</v>
       </c>
     </row>
@@ -16021,7 +16027,7 @@
       <c r="C271" t="s">
         <v>805</v>
       </c>
-      <c r="D271" s="52">
+      <c r="D271" s="42">
         <v>4732</v>
       </c>
     </row>
@@ -16032,359 +16038,416 @@
       <c r="C272" t="s">
         <v>807</v>
       </c>
-      <c r="D272" s="52">
+      <c r="D272" s="42">
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>808</v>
       </c>
       <c r="C273" t="s">
         <v>809</v>
       </c>
-      <c r="D273" s="52">
+      <c r="D273" s="42">
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>810</v>
       </c>
       <c r="C274" t="s">
         <v>811</v>
       </c>
-      <c r="D274" s="52">
+      <c r="D274" s="42">
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>812</v>
       </c>
       <c r="C275" t="s">
         <v>813</v>
       </c>
-      <c r="D275" s="52">
+      <c r="D275" s="42">
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>814</v>
       </c>
       <c r="C276" t="s">
         <v>815</v>
       </c>
-      <c r="D276" s="52">
+      <c r="D276" s="42">
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>816</v>
       </c>
       <c r="C277" t="s">
         <v>817</v>
       </c>
-      <c r="D277" s="52">
+      <c r="D277" s="42">
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>818</v>
       </c>
-      <c r="C278" s="53" t="s">
+      <c r="C278" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="D278" s="52">
+      <c r="D278" s="42">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>820</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="C279" s="43" t="s">
         <v>821</v>
       </c>
-      <c r="D279" s="52">
+      <c r="D279" s="42">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>822</v>
       </c>
-      <c r="C280" s="53" t="s">
+      <c r="C280" s="43" t="s">
         <v>823</v>
       </c>
-      <c r="D280" s="52">
+      <c r="D280" s="42">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>824</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="D281" s="52">
+      <c r="D281" s="42">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>826</v>
       </c>
-      <c r="C282" s="53" t="s">
+      <c r="C282" s="43" t="s">
         <v>827</v>
       </c>
-      <c r="D282" s="52">
+      <c r="D282" s="42">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>828</v>
       </c>
-      <c r="C283" s="53" t="s">
+      <c r="C283" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="D283" s="52">
+      <c r="D283" s="42">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>830</v>
       </c>
-      <c r="C284" s="53" t="s">
+      <c r="C284" s="43" t="s">
         <v>831</v>
       </c>
-      <c r="D284" s="52">
+      <c r="D284" s="42">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>832</v>
       </c>
-      <c r="C285" s="59" t="s">
+      <c r="C285" s="49" t="s">
         <v>833</v>
       </c>
-      <c r="D285" s="52">
+      <c r="D285" s="42">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>834</v>
       </c>
-      <c r="C286" s="59" t="s">
+      <c r="C286" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="D286" s="52">
+      <c r="D286" s="42">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>836</v>
       </c>
-      <c r="C287" s="59" t="s">
+      <c r="C287" s="49" t="s">
         <v>837</v>
       </c>
-      <c r="D287" s="52">
+      <c r="D287" s="42">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>838</v>
       </c>
-      <c r="C288" s="59" t="s">
+      <c r="C288" s="49" t="s">
         <v>839</v>
       </c>
-      <c r="D288" s="52">
+      <c r="D288" s="42">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>840</v>
       </c>
-      <c r="C289" s="53" t="s">
+      <c r="C289" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="D289" s="52">
+      <c r="D289" s="42">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>842</v>
       </c>
-      <c r="C290" s="53" t="s">
+      <c r="C290" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="D290" s="52">
+      <c r="D290" s="42">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>844</v>
       </c>
-      <c r="C291" s="53" t="s">
+      <c r="C291" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="D291" s="52">
+      <c r="D291" s="42">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>846</v>
       </c>
-      <c r="C292" s="53" t="s">
+      <c r="C292" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="D292" s="52">
+      <c r="D292" s="42">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>848</v>
       </c>
-      <c r="C293" s="53" t="s">
+      <c r="C293" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="D293" s="52">
+      <c r="D293" s="42">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="53" t="s">
+      <c r="C294" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="52">
+      <c r="D294" s="42">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>852</v>
       </c>
-      <c r="C295" s="53" t="s">
+      <c r="C295" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="D295" s="52">
+      <c r="D295" s="42">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>854</v>
       </c>
-      <c r="C296" s="53" t="s">
+      <c r="C296" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="D296" s="52">
+      <c r="D296" s="42">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>856</v>
       </c>
       <c r="C297" t="s">
         <v>857</v>
       </c>
-      <c r="D297" s="52">
+      <c r="D297" s="42">
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>858</v>
       </c>
       <c r="C298" t="s">
         <v>859</v>
       </c>
-      <c r="D298" s="52">
+      <c r="D298" s="42">
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>860</v>
       </c>
       <c r="C299" t="s">
         <v>861</v>
       </c>
-      <c r="D299" s="52">
+      <c r="D299" s="42">
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>862</v>
       </c>
       <c r="C300" t="s">
         <v>863</v>
       </c>
-      <c r="D300" s="52">
+      <c r="D300" s="42">
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>864</v>
       </c>
       <c r="C301" t="s">
         <v>865</v>
       </c>
-      <c r="D301" s="52">
+      <c r="D301" s="42">
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>866</v>
       </c>
       <c r="C302" t="s">
         <v>867</v>
       </c>
-      <c r="D302" s="52">
+      <c r="D302" s="42">
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>868</v>
       </c>
       <c r="C303" t="s">
         <v>869</v>
       </c>
-      <c r="D303" s="52">
+      <c r="D303" s="42">
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>870</v>
       </c>
       <c r="C304" t="s">
         <v>871</v>
       </c>
-      <c r="D304" s="52">
+      <c r="D304" s="42">
         <v>20488</v>
       </c>
     </row>
@@ -16395,7 +16458,7 @@
       <c r="C305" t="s">
         <v>873</v>
       </c>
-      <c r="D305" s="52">
+      <c r="D305" s="42">
         <v>5369</v>
       </c>
     </row>
@@ -16406,7 +16469,7 @@
       <c r="C306" t="s">
         <v>875</v>
       </c>
-      <c r="D306" s="52">
+      <c r="D306" s="42">
         <v>17928</v>
       </c>
     </row>
@@ -16417,7 +16480,7 @@
       <c r="C307" t="s">
         <v>877</v>
       </c>
-      <c r="D307" s="52">
+      <c r="D307" s="42">
         <v>124484</v>
       </c>
     </row>
@@ -16428,7 +16491,7 @@
       <c r="C308" t="s">
         <v>879</v>
       </c>
-      <c r="D308" s="52">
+      <c r="D308" s="42">
         <v>219053</v>
       </c>
     </row>
@@ -16439,7 +16502,7 @@
       <c r="C309" t="s">
         <v>881</v>
       </c>
-      <c r="D309" s="52">
+      <c r="D309" s="42">
         <v>171121</v>
       </c>
     </row>
@@ -16450,7 +16513,7 @@
       <c r="C310" t="s">
         <v>883</v>
       </c>
-      <c r="D310" s="52">
+      <c r="D310" s="42">
         <v>179070</v>
       </c>
     </row>
@@ -16461,7 +16524,7 @@
       <c r="C311" t="s">
         <v>885</v>
       </c>
-      <c r="D311" s="52">
+      <c r="D311" s="42">
         <v>242634</v>
       </c>
     </row>
@@ -16472,7 +16535,7 @@
       <c r="C312" t="s">
         <v>887</v>
       </c>
-      <c r="D312" s="52">
+      <c r="D312" s="42">
         <v>176440</v>
       </c>
     </row>
@@ -16483,7 +16546,7 @@
       <c r="C313" t="s">
         <v>889</v>
       </c>
-      <c r="D313" s="52">
+      <c r="D313" s="42">
         <v>148392</v>
       </c>
     </row>
@@ -16494,7 +16557,7 @@
       <c r="C314" t="s">
         <v>891</v>
       </c>
-      <c r="D314" s="52">
+      <c r="D314" s="42">
         <v>146367</v>
       </c>
     </row>
@@ -16505,7 +16568,7 @@
       <c r="C315" t="s">
         <v>893</v>
       </c>
-      <c r="D315" s="52">
+      <c r="D315" s="42">
         <v>322061</v>
       </c>
     </row>
@@ -16516,7 +16579,7 @@
       <c r="C316" t="s">
         <v>895</v>
       </c>
-      <c r="D316" s="52">
+      <c r="D316" s="42">
         <v>83011</v>
       </c>
     </row>
@@ -16527,7 +16590,7 @@
       <c r="C317" t="s">
         <v>897</v>
       </c>
-      <c r="D317" s="52">
+      <c r="D317" s="42">
         <v>38123</v>
       </c>
     </row>
@@ -16538,7 +16601,7 @@
       <c r="C318" t="s">
         <v>899</v>
       </c>
-      <c r="D318" s="52">
+      <c r="D318" s="42">
         <v>279078</v>
       </c>
     </row>
@@ -16549,7 +16612,7 @@
       <c r="C319" t="s">
         <v>901</v>
       </c>
-      <c r="D319" s="52">
+      <c r="D319" s="42">
         <v>227964</v>
       </c>
     </row>
@@ -16560,7 +16623,7 @@
       <c r="C320" t="s">
         <v>903</v>
       </c>
-      <c r="D320" s="52">
+      <c r="D320" s="42">
         <v>230215</v>
       </c>
     </row>
@@ -16571,7 +16634,7 @@
       <c r="C321" t="s">
         <v>905</v>
       </c>
-      <c r="D321" s="52">
+      <c r="D321" s="42">
         <v>140227</v>
       </c>
     </row>
@@ -16582,7 +16645,7 @@
       <c r="C322" t="s">
         <v>907</v>
       </c>
-      <c r="D322" s="52">
+      <c r="D322" s="42">
         <v>101522</v>
       </c>
     </row>
@@ -16593,7 +16656,7 @@
       <c r="C323" t="s">
         <v>909</v>
       </c>
-      <c r="D323" s="52">
+      <c r="D323" s="42">
         <v>92474</v>
       </c>
     </row>
@@ -16604,7 +16667,7 @@
       <c r="C324" t="s">
         <v>911</v>
       </c>
-      <c r="D324" s="52">
+      <c r="D324" s="42">
         <v>137915</v>
       </c>
     </row>
@@ -16615,7 +16678,7 @@
       <c r="C325" t="s">
         <v>913</v>
       </c>
-      <c r="D325" s="52">
+      <c r="D325" s="42">
         <v>229646</v>
       </c>
     </row>
@@ -16626,7 +16689,7 @@
       <c r="C326" t="s">
         <v>915</v>
       </c>
-      <c r="D326" s="52">
+      <c r="D326" s="42">
         <v>57722</v>
       </c>
     </row>
@@ -16637,7 +16700,7 @@
       <c r="C327" t="s">
         <v>917</v>
       </c>
-      <c r="D327" s="52">
+      <c r="D327" s="42">
         <v>35581</v>
       </c>
     </row>
@@ -16648,7 +16711,7 @@
       <c r="C328" t="s">
         <v>919</v>
       </c>
-      <c r="D328" s="52">
+      <c r="D328" s="42">
         <v>43933</v>
       </c>
     </row>
@@ -16659,7 +16722,7 @@
       <c r="C329" t="s">
         <v>921</v>
       </c>
-      <c r="D329" s="52">
+      <c r="D329" s="42">
         <v>68922</v>
       </c>
     </row>
@@ -16670,7 +16733,7 @@
       <c r="C330" t="s">
         <v>923</v>
       </c>
-      <c r="D330" s="52">
+      <c r="D330" s="42">
         <v>211318</v>
       </c>
     </row>
@@ -16681,7 +16744,7 @@
       <c r="C331" t="s">
         <v>925</v>
       </c>
-      <c r="D331" s="52">
+      <c r="D331" s="42">
         <v>82025</v>
       </c>
     </row>
@@ -16692,7 +16755,7 @@
       <c r="C332" t="s">
         <v>927</v>
       </c>
-      <c r="D332" s="52">
+      <c r="D332" s="42">
         <v>47194</v>
       </c>
     </row>
@@ -16703,7 +16766,7 @@
       <c r="C333" t="s">
         <v>929</v>
       </c>
-      <c r="D333" s="52">
+      <c r="D333" s="42">
         <v>332550</v>
       </c>
     </row>
@@ -16714,7 +16777,7 @@
       <c r="C334" t="s">
         <v>931</v>
       </c>
-      <c r="D334" s="52">
+      <c r="D334" s="42">
         <v>65769</v>
       </c>
     </row>
@@ -16725,7 +16788,7 @@
       <c r="C335" t="s">
         <v>933</v>
       </c>
-      <c r="D335" s="52">
+      <c r="D335" s="42">
         <v>43699</v>
       </c>
     </row>
@@ -16736,7 +16799,7 @@
       <c r="C336" t="s">
         <v>935</v>
       </c>
-      <c r="D336" s="52">
+      <c r="D336" s="42">
         <v>137453</v>
       </c>
     </row>
@@ -16747,7 +16810,7 @@
       <c r="C337" t="s">
         <v>937</v>
       </c>
-      <c r="D337" s="52">
+      <c r="D337" s="42">
         <v>80430</v>
       </c>
     </row>
@@ -16758,7 +16821,7 @@
       <c r="C338" t="s">
         <v>939</v>
       </c>
-      <c r="D338" s="52">
+      <c r="D338" s="42">
         <v>120074</v>
       </c>
     </row>
@@ -16769,7 +16832,7 @@
       <c r="C339" t="s">
         <v>941</v>
       </c>
-      <c r="D339" s="52">
+      <c r="D339" s="42">
         <v>27110</v>
       </c>
     </row>
@@ -16780,7 +16843,7 @@
       <c r="C340" t="s">
         <v>943</v>
       </c>
-      <c r="D340" s="52">
+      <c r="D340" s="42">
         <v>29340</v>
       </c>
     </row>
@@ -16791,7 +16854,7 @@
       <c r="C341" t="s">
         <v>945</v>
       </c>
-      <c r="D341" s="52">
+      <c r="D341" s="42">
         <v>38375</v>
       </c>
     </row>
@@ -16802,7 +16865,7 @@
       <c r="C342" t="s">
         <v>947</v>
       </c>
-      <c r="D342" s="52">
+      <c r="D342" s="42">
         <v>14438</v>
       </c>
     </row>
@@ -16813,7 +16876,7 @@
       <c r="C343" t="s">
         <v>949</v>
       </c>
-      <c r="D343" s="52">
+      <c r="D343" s="42">
         <v>212383</v>
       </c>
     </row>
@@ -16824,7 +16887,7 @@
       <c r="C344" t="s">
         <v>951</v>
       </c>
-      <c r="D344" s="52">
+      <c r="D344" s="42">
         <v>126697</v>
       </c>
     </row>
@@ -16835,7 +16898,7 @@
       <c r="C345" t="s">
         <v>953</v>
       </c>
-      <c r="D345" s="52">
+      <c r="D345" s="42">
         <v>16643</v>
       </c>
     </row>
@@ -16846,7 +16909,7 @@
       <c r="C346" t="s">
         <v>955</v>
       </c>
-      <c r="D346" s="52">
+      <c r="D346" s="42">
         <v>83920</v>
       </c>
     </row>
@@ -16857,7 +16920,7 @@
       <c r="C347" t="s">
         <v>957</v>
       </c>
-      <c r="D347" s="52">
+      <c r="D347" s="42">
         <v>97373</v>
       </c>
     </row>
@@ -16868,7 +16931,7 @@
       <c r="C348" t="s">
         <v>959</v>
       </c>
-      <c r="D348" s="52">
+      <c r="D348" s="42">
         <v>334092</v>
       </c>
     </row>
@@ -16879,7 +16942,7 @@
       <c r="C349" t="s">
         <v>961</v>
       </c>
-      <c r="D349" s="52">
+      <c r="D349" s="42">
         <v>261627</v>
       </c>
     </row>
@@ -16890,7 +16953,7 @@
       <c r="C350" t="s">
         <v>963</v>
       </c>
-      <c r="D350" s="52">
+      <c r="D350" s="42">
         <v>45066</v>
       </c>
     </row>
@@ -16901,7 +16964,7 @@
       <c r="C351" t="s">
         <v>965</v>
       </c>
-      <c r="D351" s="52">
+      <c r="D351" s="42">
         <v>148620</v>
       </c>
     </row>
@@ -16912,7 +16975,7 @@
       <c r="C352" t="s">
         <v>967</v>
       </c>
-      <c r="D352" s="52">
+      <c r="D352" s="42">
         <v>132937</v>
       </c>
     </row>
@@ -16923,7 +16986,7 @@
       <c r="C353" t="s">
         <v>969</v>
       </c>
-      <c r="D353" s="52">
+      <c r="D353" s="42">
         <v>9245</v>
       </c>
     </row>
@@ -16934,7 +16997,7 @@
       <c r="C354" t="s">
         <v>971</v>
       </c>
-      <c r="D354" s="52">
+      <c r="D354" s="42">
         <v>296293</v>
       </c>
     </row>
@@ -16945,7 +17008,7 @@
       <c r="C355" t="s">
         <v>973</v>
       </c>
-      <c r="D355" s="52">
+      <c r="D355" s="42">
         <v>520425</v>
       </c>
     </row>
@@ -16956,7 +17019,7 @@
       <c r="C356" t="s">
         <v>975</v>
       </c>
-      <c r="D356" s="52">
+      <c r="D356" s="42">
         <v>349439</v>
       </c>
     </row>
@@ -16967,7 +17030,7 @@
       <c r="C357" t="s">
         <v>977</v>
       </c>
-      <c r="D357" s="52">
+      <c r="D357" s="42">
         <v>218793</v>
       </c>
     </row>
@@ -16978,7 +17041,7 @@
       <c r="C358" t="s">
         <v>979</v>
       </c>
-      <c r="D358" s="52">
+      <c r="D358" s="42">
         <v>88034</v>
       </c>
     </row>
@@ -16989,7 +17052,7 @@
       <c r="C359" t="s">
         <v>981</v>
       </c>
-      <c r="D359" s="52">
+      <c r="D359" s="42">
         <v>586732</v>
       </c>
     </row>
@@ -17000,7 +17063,7 @@
       <c r="C360" t="s">
         <v>983</v>
       </c>
-      <c r="D360" s="52">
+      <c r="D360" s="42">
         <v>344723</v>
       </c>
     </row>
@@ -17011,7 +17074,7 @@
       <c r="C361" t="s">
         <v>985</v>
       </c>
-      <c r="D361" s="52">
+      <c r="D361" s="42">
         <v>163544</v>
       </c>
     </row>
@@ -17022,7 +17085,7 @@
       <c r="C362" t="s">
         <v>987</v>
       </c>
-      <c r="D362" s="52">
+      <c r="D362" s="42">
         <v>1416584</v>
       </c>
     </row>
@@ -17033,7 +17096,7 @@
       <c r="C363" t="s">
         <v>989</v>
       </c>
-      <c r="D363" s="52">
+      <c r="D363" s="42">
         <v>530391</v>
       </c>
     </row>
@@ -17044,7 +17107,7 @@
       <c r="C364" t="s">
         <v>991</v>
       </c>
-      <c r="D364" s="52">
+      <c r="D364" s="42">
         <v>1123901</v>
       </c>
     </row>
@@ -17055,7 +17118,7 @@
       <c r="C365" t="s">
         <v>993</v>
       </c>
-      <c r="D365" s="52">
+      <c r="D365" s="42">
         <v>61256</v>
       </c>
     </row>
@@ -17066,7 +17129,7 @@
       <c r="C366" t="s">
         <v>995</v>
       </c>
-      <c r="D366" s="52">
+      <c r="D366" s="42">
         <v>77621</v>
       </c>
     </row>
@@ -17077,7 +17140,7 @@
       <c r="C367" t="s">
         <v>997</v>
       </c>
-      <c r="D367" s="52">
+      <c r="D367" s="42">
         <v>29242</v>
       </c>
     </row>
@@ -17088,7 +17151,7 @@
       <c r="C368" t="s">
         <v>999</v>
       </c>
-      <c r="D368" s="52">
+      <c r="D368" s="42">
         <v>161188</v>
       </c>
     </row>
@@ -17099,7 +17162,7 @@
       <c r="C369" t="s">
         <v>1001</v>
       </c>
-      <c r="D369" s="52">
+      <c r="D369" s="42">
         <v>331383</v>
       </c>
     </row>
@@ -17110,7 +17173,7 @@
       <c r="C370" t="s">
         <v>1003</v>
       </c>
-      <c r="D370" s="52">
+      <c r="D370" s="42">
         <v>155017</v>
       </c>
     </row>
@@ -17121,7 +17184,7 @@
       <c r="C371" t="s">
         <v>1005</v>
       </c>
-      <c r="D371" s="52">
+      <c r="D371" s="42">
         <v>163308</v>
       </c>
     </row>
@@ -17132,7 +17195,7 @@
       <c r="C372" t="s">
         <v>1007</v>
       </c>
-      <c r="D372" s="52">
+      <c r="D372" s="42">
         <v>63364</v>
       </c>
     </row>
@@ -17143,7 +17206,7 @@
       <c r="C373" t="s">
         <v>1009</v>
       </c>
-      <c r="D373" s="52">
+      <c r="D373" s="42">
         <v>193482</v>
       </c>
     </row>
@@ -17154,7 +17217,7 @@
       <c r="C374" t="s">
         <v>1011</v>
       </c>
-      <c r="D374" s="52">
+      <c r="D374" s="42">
         <v>311584</v>
       </c>
     </row>
@@ -17165,7 +17228,7 @@
       <c r="C375" t="s">
         <v>1013</v>
       </c>
-      <c r="D375" s="52">
+      <c r="D375" s="42">
         <v>232966</v>
       </c>
     </row>
@@ -17176,7 +17239,7 @@
       <c r="C376" t="s">
         <v>1015</v>
       </c>
-      <c r="D376" s="52">
+      <c r="D376" s="42">
         <v>49844</v>
       </c>
     </row>
@@ -17187,7 +17250,7 @@
       <c r="C377" t="s">
         <v>1017</v>
       </c>
-      <c r="D377" s="52">
+      <c r="D377" s="42">
         <v>202086</v>
       </c>
     </row>
@@ -17198,7 +17261,7 @@
       <c r="C378" t="s">
         <v>1019</v>
       </c>
-      <c r="D378" s="52">
+      <c r="D378" s="42">
         <v>125875</v>
       </c>
     </row>
@@ -17209,7 +17272,7 @@
       <c r="C379" t="s">
         <v>1021</v>
       </c>
-      <c r="D379" s="52">
+      <c r="D379" s="42">
         <v>33044</v>
       </c>
     </row>
@@ -17220,7 +17283,7 @@
       <c r="C380" t="s">
         <v>1023</v>
       </c>
-      <c r="D380" s="52">
+      <c r="D380" s="42">
         <v>11848</v>
       </c>
     </row>
@@ -17231,7 +17294,7 @@
       <c r="C381" t="s">
         <v>1025</v>
       </c>
-      <c r="D381" s="52">
+      <c r="D381" s="42">
         <v>36577</v>
       </c>
     </row>
@@ -17242,7 +17305,7 @@
       <c r="C382" t="s">
         <v>1027</v>
       </c>
-      <c r="D382" s="52">
+      <c r="D382" s="42">
         <v>88795</v>
       </c>
     </row>
@@ -17253,7 +17316,7 @@
       <c r="C383" t="s">
         <v>1029</v>
       </c>
-      <c r="D383" s="52">
+      <c r="D383" s="42">
         <v>561730</v>
       </c>
     </row>
@@ -17264,183 +17327,186 @@
       <c r="C384" t="s">
         <v>1031</v>
       </c>
-      <c r="D384" s="52">
+      <c r="D384" s="42">
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1032</v>
       </c>
       <c r="C385" t="s">
         <v>1033</v>
       </c>
-      <c r="D385" s="52">
+      <c r="D385" s="42">
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>1034</v>
       </c>
       <c r="C386" t="s">
         <v>1035</v>
       </c>
-      <c r="D386" s="52">
+      <c r="D386" s="42">
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>1036</v>
       </c>
       <c r="C387" t="s">
         <v>1037</v>
       </c>
-      <c r="D387" s="52">
+      <c r="D387" s="42">
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1038</v>
       </c>
       <c r="C388" t="s">
         <v>1039</v>
       </c>
-      <c r="D388" s="52">
+      <c r="D388" s="42">
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>1040</v>
       </c>
       <c r="C389" t="s">
         <v>1041</v>
       </c>
-      <c r="D389" s="52">
+      <c r="D389" s="42">
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1042</v>
       </c>
       <c r="C390" t="s">
         <v>1043</v>
       </c>
-      <c r="D390" s="52">
+      <c r="D390" s="42">
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1044</v>
       </c>
       <c r="C391" t="s">
         <v>1045</v>
       </c>
-      <c r="D391" s="52">
+      <c r="D391" s="42">
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>1046</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="17" t="s">
         <v>1047</v>
       </c>
-      <c r="D392" s="52">
+      <c r="D392" s="42">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1048</v>
       </c>
       <c r="C393" t="s">
         <v>1049</v>
       </c>
-      <c r="D393" s="52">
+      <c r="D393" s="42">
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1050</v>
       </c>
       <c r="C394" t="s">
         <v>1051</v>
       </c>
-      <c r="D394" s="52">
+      <c r="D394" s="42">
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1052</v>
       </c>
       <c r="C395" t="s">
         <v>1053</v>
       </c>
-      <c r="D395" s="52">
+      <c r="D395" s="42">
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1054</v>
       </c>
       <c r="C396" t="s">
         <v>1055</v>
       </c>
-      <c r="D396" s="52">
+      <c r="D396" s="42">
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1056</v>
       </c>
       <c r="C397" t="s">
         <v>1057</v>
       </c>
-      <c r="D397" s="52">
+      <c r="D397" s="42">
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1058</v>
       </c>
       <c r="C398" t="s">
         <v>1059</v>
       </c>
-      <c r="D398" s="52">
+      <c r="D398" s="42">
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1060</v>
       </c>
       <c r="C399" t="s">
         <v>1061</v>
       </c>
-      <c r="D399" s="52">
+      <c r="D399" s="42">
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1062</v>
       </c>
       <c r="C400" t="s">
         <v>1063</v>
       </c>
-      <c r="D400" s="52">
+      <c r="D400" s="42">
         <v>53964</v>
       </c>
     </row>
@@ -17451,7 +17517,7 @@
       <c r="C401" t="s">
         <v>1065</v>
       </c>
-      <c r="D401" s="52">
+      <c r="D401" s="42">
         <v>75155</v>
       </c>
     </row>
@@ -17462,7 +17528,7 @@
       <c r="C402" t="s">
         <v>1067</v>
       </c>
-      <c r="D402" s="52">
+      <c r="D402" s="42">
         <v>35396</v>
       </c>
     </row>
@@ -17473,7 +17539,7 @@
       <c r="C403" t="s">
         <v>1069</v>
       </c>
-      <c r="D403" s="52">
+      <c r="D403" s="42">
         <v>813054</v>
       </c>
     </row>
@@ -17484,7 +17550,7 @@
       <c r="C404" t="s">
         <v>1071</v>
       </c>
-      <c r="D404" s="52">
+      <c r="D404" s="42">
         <v>184319</v>
       </c>
     </row>
@@ -17495,7 +17561,7 @@
       <c r="C405" t="s">
         <v>1073</v>
       </c>
-      <c r="D405" s="52">
+      <c r="D405" s="42">
         <v>46401</v>
       </c>
     </row>
@@ -17506,7 +17572,7 @@
       <c r="C406" t="s">
         <v>1075</v>
       </c>
-      <c r="D406" s="52">
+      <c r="D406" s="42">
         <v>93433</v>
       </c>
     </row>
@@ -17517,7 +17583,7 @@
       <c r="C407" t="s">
         <v>1077</v>
       </c>
-      <c r="D407" s="52">
+      <c r="D407" s="42">
         <v>48681</v>
       </c>
     </row>
@@ -17528,7 +17594,7 @@
       <c r="C408" t="s">
         <v>1079</v>
       </c>
-      <c r="D408" s="52">
+      <c r="D408" s="42">
         <v>45458</v>
       </c>
     </row>
@@ -17539,7 +17605,7 @@
       <c r="C409" t="s">
         <v>1081</v>
       </c>
-      <c r="D409" s="52">
+      <c r="D409" s="42">
         <v>22884</v>
       </c>
     </row>
@@ -17550,7 +17616,7 @@
       <c r="C410" t="s">
         <v>1083</v>
       </c>
-      <c r="D410" s="52">
+      <c r="D410" s="42">
         <v>45096</v>
       </c>
     </row>
@@ -17561,7 +17627,7 @@
       <c r="C411" t="s">
         <v>1085</v>
       </c>
-      <c r="D411" s="52">
+      <c r="D411" s="42">
         <v>41997</v>
       </c>
     </row>
@@ -17572,7 +17638,7 @@
       <c r="C412" t="s">
         <v>1087</v>
       </c>
-      <c r="D412" s="52">
+      <c r="D412" s="42">
         <v>44265</v>
       </c>
     </row>
@@ -17583,7 +17649,7 @@
       <c r="C413" t="s">
         <v>1089</v>
       </c>
-      <c r="D413" s="52">
+      <c r="D413" s="42">
         <v>14730</v>
       </c>
     </row>
@@ -17594,7 +17660,7 @@
       <c r="C414" t="s">
         <v>1091</v>
       </c>
-      <c r="D414" s="52">
+      <c r="D414" s="42">
         <v>18301</v>
       </c>
     </row>
@@ -17605,7 +17671,7 @@
       <c r="C415" t="s">
         <v>1093</v>
       </c>
-      <c r="D415" s="52">
+      <c r="D415" s="42">
         <v>35926</v>
       </c>
     </row>
@@ -17616,7 +17682,7 @@
       <c r="C416" t="s">
         <v>1095</v>
       </c>
-      <c r="D416" s="52">
+      <c r="D416" s="42">
         <v>81758</v>
       </c>
     </row>
@@ -17627,7 +17693,7 @@
       <c r="C417" t="s">
         <v>1097</v>
       </c>
-      <c r="D417" s="52">
+      <c r="D417" s="42">
         <v>258628</v>
       </c>
     </row>
@@ -17638,7 +17704,7 @@
       <c r="C418" t="s">
         <v>1099</v>
       </c>
-      <c r="D418" s="52">
+      <c r="D418" s="42">
         <v>336211</v>
       </c>
     </row>
@@ -17649,7 +17715,7 @@
       <c r="C419" t="s">
         <v>1101</v>
       </c>
-      <c r="D419" s="52">
+      <c r="D419" s="42">
         <v>303694</v>
       </c>
     </row>
@@ -17660,7 +17726,7 @@
       <c r="C420" t="s">
         <v>1103</v>
       </c>
-      <c r="D420" s="52">
+      <c r="D420" s="42">
         <v>98573</v>
       </c>
     </row>
@@ -17671,7 +17737,7 @@
       <c r="C421" t="s">
         <v>1105</v>
       </c>
-      <c r="D421" s="52">
+      <c r="D421" s="42">
         <v>120747</v>
       </c>
     </row>
@@ -17682,7 +17748,7 @@
       <c r="C422" t="s">
         <v>1107</v>
       </c>
-      <c r="D422" s="52">
+      <c r="D422" s="42">
         <v>22166</v>
       </c>
     </row>
@@ -17693,7 +17759,7 @@
       <c r="C423" t="s">
         <v>1109</v>
       </c>
-      <c r="D423" s="52">
+      <c r="D423" s="42">
         <v>37604</v>
       </c>
     </row>
@@ -17704,7 +17770,7 @@
       <c r="C424" t="s">
         <v>1111</v>
       </c>
-      <c r="D424" s="52">
+      <c r="D424" s="42">
         <v>22329</v>
       </c>
     </row>
@@ -17715,7 +17781,7 @@
       <c r="C425" t="s">
         <v>1113</v>
       </c>
-      <c r="D425" s="52">
+      <c r="D425" s="42">
         <v>80111</v>
       </c>
     </row>
@@ -17726,7 +17792,7 @@
       <c r="C426" t="s">
         <v>1115</v>
       </c>
-      <c r="D426" s="52">
+      <c r="D426" s="42">
         <v>20088</v>
       </c>
     </row>
@@ -17737,7 +17803,7 @@
       <c r="C427" t="s">
         <v>1117</v>
       </c>
-      <c r="D427" s="52">
+      <c r="D427" s="42">
         <v>28962</v>
       </c>
     </row>
@@ -17748,7 +17814,7 @@
       <c r="C428" t="s">
         <v>1119</v>
       </c>
-      <c r="D428" s="52">
+      <c r="D428" s="42">
         <v>62899</v>
       </c>
     </row>
@@ -17759,7 +17825,7 @@
       <c r="C429" t="s">
         <v>1121</v>
       </c>
-      <c r="D429" s="52">
+      <c r="D429" s="42">
         <v>93020</v>
       </c>
     </row>
@@ -17770,7 +17836,7 @@
       <c r="C430" t="s">
         <v>1123</v>
       </c>
-      <c r="D430" s="52">
+      <c r="D430" s="42">
         <v>57520</v>
       </c>
     </row>
@@ -17781,7 +17847,7 @@
       <c r="C431" t="s">
         <v>1125</v>
       </c>
-      <c r="D431" s="52">
+      <c r="D431" s="42">
         <v>75682</v>
       </c>
     </row>
@@ -17792,7 +17858,7 @@
       <c r="C432" t="s">
         <v>1127</v>
       </c>
-      <c r="D432" s="52">
+      <c r="D432" s="42">
         <v>21314</v>
       </c>
     </row>
@@ -17803,7 +17869,7 @@
       <c r="C433" t="s">
         <v>1129</v>
       </c>
-      <c r="D433" s="52">
+      <c r="D433" s="42">
         <v>613306</v>
       </c>
     </row>
@@ -17814,7 +17880,7 @@
       <c r="C434" t="s">
         <v>1131</v>
       </c>
-      <c r="D434" s="52">
+      <c r="D434" s="42">
         <v>390322</v>
       </c>
     </row>
@@ -17825,7 +17891,7 @@
       <c r="C435" t="s">
         <v>1133</v>
       </c>
-      <c r="D435" s="52">
+      <c r="D435" s="42">
         <v>62768</v>
       </c>
     </row>
@@ -17836,7 +17902,7 @@
       <c r="C436" t="s">
         <v>1135</v>
       </c>
-      <c r="D436" s="52">
+      <c r="D436" s="42">
         <v>13843</v>
       </c>
     </row>
@@ -17847,7 +17913,7 @@
       <c r="C437" t="s">
         <v>1137</v>
       </c>
-      <c r="D437" s="52">
+      <c r="D437" s="42">
         <v>17451</v>
       </c>
     </row>
@@ -17858,7 +17924,7 @@
       <c r="C438" t="s">
         <v>1139</v>
       </c>
-      <c r="D438" s="52">
+      <c r="D438" s="42">
         <v>974593</v>
       </c>
     </row>
@@ -17869,7 +17935,7 @@
       <c r="C439" t="s">
         <v>1141</v>
       </c>
-      <c r="D439" s="52">
+      <c r="D439" s="42">
         <v>286138</v>
       </c>
     </row>
@@ -17880,7 +17946,7 @@
       <c r="C440" t="s">
         <v>1143</v>
       </c>
-      <c r="D440" s="52">
+      <c r="D440" s="42">
         <v>879668</v>
       </c>
     </row>
@@ -17891,7 +17957,7 @@
       <c r="C441" t="s">
         <v>1145</v>
       </c>
-      <c r="D441" s="52">
+      <c r="D441" s="42">
         <v>16399</v>
       </c>
     </row>
@@ -17902,7 +17968,7 @@
       <c r="C442" t="s">
         <v>1147</v>
       </c>
-      <c r="D442" s="52">
+      <c r="D442" s="42">
         <v>62898</v>
       </c>
     </row>
@@ -17913,16 +17979,16 @@
       <c r="C443" t="s">
         <v>1149</v>
       </c>
-      <c r="D443" s="52">
+      <c r="D443" s="42">
         <v>248131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{D07551F5-3A12-401D-9AAF-B063600C4879}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{1566D1D5-CC3A-4B07-8466-288D32A7634E}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{70EE353D-87E1-4BB9-9078-E5DC94A4B4BD}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{407E4ACA-6280-4EEB-BA8E-C138C4D90B66}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{FBFE3B11-B322-482C-8750-F5034C35F078}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{581EEB14-BF66-428D-B48E-869621662B27}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{2569240A-339E-4AD8-8DDC-28264CC552F6}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{B43CA4D1-209F-4A59-ABB4-E5FEC4D436B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -17953,10 +18019,10 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="51" t="s">
         <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -17980,25 +18046,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="51" t="s">
         <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="50" t="s">
         <v>1150</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="51" t="s">
         <v>1151</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="50" t="s">
         <v>1152</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="51" t="s">
         <v>1153</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -18022,13 +18088,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="50" t="s">
         <v>1154</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="56" t="s">
         <v>1155</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="51" t="s">
         <v>1156</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -18085,11 +18151,11 @@
         <f>'OECD TTL'!C49*10^6*About!$A$37</f>
         <v>441483794392.80725</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="52">
         <f>'OECD TTL'!D49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!D7/SUM('U.S. Data for ISIC Splits'!D7:E7))</f>
         <v>36938849988.163109</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="53">
         <f>'OECD TTL'!D49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!E7/SUM('U.S. Data for ISIC Splits'!D7:E7))</f>
         <v>247534932624.0546</v>
       </c>
@@ -18121,11 +18187,11 @@
         <f>'OECD TTL'!K49*10^6*About!$A$37</f>
         <v>474768371261.97699</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="54">
         <f>'OECD TTL'!L49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!G7/SUM('U.S. Data for ISIC Splits'!G7:H7))</f>
         <v>499640432005.05627</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="55">
         <f>'OECD TTL'!L49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!H7/SUM('U.S. Data for ISIC Splits'!G7:H7))</f>
         <v>261091360389.58212</v>
       </c>
@@ -18133,19 +18199,19 @@
         <f>'OECD TTL'!M49*10^6*About!$A$37</f>
         <v>223748975398.38916</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="54">
         <f>'OECD TTL'!N49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!J7/SUM('U.S. Data for ISIC Splits'!J7:K7))</f>
         <v>25153894841.061447</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="55">
         <f>'OECD TTL'!N49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!K7/SUM('U.S. Data for ISIC Splits'!J7:K7))</f>
         <v>90595222275.432312</v>
       </c>
-      <c r="Q2" s="64">
+      <c r="Q2" s="54">
         <f>'OECD TTL'!O49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!M7/SUM('U.S. Data for ISIC Splits'!M7:N7))</f>
         <v>122028674092.83113</v>
       </c>
-      <c r="R2" s="65">
+      <c r="R2" s="55">
         <f>'OECD TTL'!O49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!N7/SUM('U.S. Data for ISIC Splits'!M7:N7))</f>
         <v>96160747163.028168</v>
       </c>
@@ -18177,17 +18243,17 @@
         <f>'OECD TTL'!V49*10^6*About!$A$37</f>
         <v>238992632946.15997</v>
       </c>
-      <c r="Z2" s="64">
+      <c r="Z2" s="54">
         <f>'OECD TTL'!W49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!P7/SUM('U.S. Data for ISIC Splits'!P7:R7))</f>
-        <v>370549022559.8244</v>
-      </c>
-      <c r="AA2" s="67">
+        <v>315411643315.72357</v>
+      </c>
+      <c r="AA2" s="57">
         <f>'OECD TTL'!W49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!Q7/SUM('U.S. Data for ISIC Splits'!P7:R7))</f>
-        <v>77165093097.198166</v>
-      </c>
-      <c r="AB2" s="65">
+        <v>65682992906.74456</v>
+      </c>
+      <c r="AB2" s="55">
         <f>'OECD TTL'!W49*10^6*About!$A$37*('U.S. Data for ISIC Splits'!R7/SUM('U.S. Data for ISIC Splits'!P7:R7))</f>
-        <v>13010310183.318045</v>
+        <v>79629789617.872421</v>
       </c>
       <c r="AC2">
         <f>'OECD TTL'!X49*10^6*About!$A$37</f>

--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC173E75-0DAA-42C8-8DD4-878102069C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11DB80A-479D-4E52-95CF-9379BA0880F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{3B8D3C1E-930E-41C0-82A9-5C8716137786}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3B8D3C1E-930E-41C0-82A9-5C8716137786}"/>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{575CCBE5-AA40-4F45-9BE5-70680A0C5290}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{4A288D19-6AF2-4112-AE61-1F7BC9A4B7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="857">
   <si>
     <t>Source:</t>
   </si>
@@ -2574,9 +2575,6 @@
     <t xml:space="preserve">  Other services, except government</t>
   </si>
   <si>
-    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88</t>
-  </si>
-  <si>
     <t>Government</t>
   </si>
   <si>
@@ -2605,6 +2603,15 @@
   </si>
   <si>
     <t>2012 USD per 2021 USD</t>
+  </si>
+  <si>
+    <t>ISIC 351; ISIC 352T353; ISIC 36T39</t>
+  </si>
+  <si>
+    <t>ISIC 241; ISIC 25</t>
+  </si>
+  <si>
+    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88; ISIC 97T98</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2623,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2706,6 +2713,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2960,7 +2974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3114,10 +3128,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3402,10 +3426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3467,7 +3494,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3562,15 +3589,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
-        <v>0.87</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="B37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -3589,6 +3616,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
     <sheetView topLeftCell="A2" workbookViewId="1"/>
+    <sheetView topLeftCell="A2" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10012,22 +10040,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0339536F-9934-4689-98A8-C778F8365AC3}">
   <dimension ref="A1:S455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C413" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E409" sqref="E409:E416"/>
+    <sheetView topLeftCell="A424" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="C414" zoomScale="80" zoomScaleNormal="80" workbookViewId="2">
+      <selection activeCell="D27" sqref="D27:D443"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="48.1796875" customWidth="1"/>
     <col min="10" max="10" width="19.81640625" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" customWidth="1"/>
     <col min="13" max="13" width="20.26953125" customWidth="1"/>
     <col min="14" max="15" width="18.453125" customWidth="1"/>
@@ -10276,7 +10308,10 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>240932000000</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29">
+        <f>SUM(G7:H7)</f>
+        <v>706533000000</v>
+      </c>
       <c r="J7" s="33">
         <f>D77*10^6</f>
         <v>23111000000</v>
@@ -10285,7 +10320,10 @@
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>88102000000</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="69">
+        <f>SUM(J7:K7)</f>
+        <v>111213000000</v>
+      </c>
       <c r="M7" s="33">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>116253000000</v>
@@ -10294,7 +10332,10 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>99282000000</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="69">
+        <f>SUM(M7:N7)</f>
+        <v>215535000000</v>
+      </c>
       <c r="P7" s="33">
         <f>SUM(D48:D57)*10^6</f>
         <v>394231000000</v>
@@ -10304,10 +10345,13 @@
         <v>92955000000</v>
       </c>
       <c r="R7" s="33">
-        <f>SUM(D59,D392)*10^6</f>
-        <v>112027000000</v>
-      </c>
-      <c r="S7" s="29"/>
+        <f>SUM(D59)*10^6</f>
+        <v>12745000000</v>
+      </c>
+      <c r="S7" s="69">
+        <f>SUM(P7:R7)</f>
+        <v>499931000000</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
@@ -10320,10 +10364,10 @@
         <v>151</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="21">
+      <c r="E8" s="70">
         <v>455730000000</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="71">
         <v>108964000000</v>
       </c>
       <c r="G8" s="21"/>
@@ -10353,8 +10397,8 @@
         <v>Value Added</v>
       </c>
       <c r="D9" s="22">
-        <f>$F9*($D$7/$F$8)</f>
-        <v>15479673690.393156</v>
+        <f>$F9*($D$7/$F$7)</f>
+        <v>17057807348.078033</v>
       </c>
       <c r="E9" s="21">
         <f>K33*10^6</f>
@@ -10365,52 +10409,52 @@
         <v>61242000000</v>
       </c>
       <c r="G9" s="36">
-        <f>$I9*(G$7/$I$8)</f>
-        <v>241565921689.77579</v>
+        <f>$I9*(G$7/$I$7)</f>
+        <v>289689144587.72626</v>
       </c>
       <c r="H9" s="36">
-        <f>$I9*(H$7/$I$8)</f>
-        <v>125001794765.39154</v>
+        <f>$I9*(H$7/$I$7)</f>
+        <v>149903855412.27374</v>
       </c>
       <c r="I9" s="34">
         <f>K58*10^6</f>
         <v>439593000000</v>
       </c>
       <c r="J9" s="36">
-        <f>$L9*(J$7/$L$8)</f>
-        <v>11092073258.245739</v>
+        <f>$L9*(J$7/$L$7)</f>
+        <v>14593347675.181858</v>
       </c>
       <c r="K9" s="36">
-        <f>$L9*(K$7/$L$8)</f>
-        <v>42284359750.680023</v>
+        <f>$L9*(K$7/$L$7)</f>
+        <v>55631652324.818138</v>
       </c>
       <c r="L9" s="35">
         <f>K41*10^6</f>
         <v>70225000000</v>
       </c>
       <c r="M9" s="36">
-        <f>$O9*(M$7/$O$8)</f>
-        <v>34134025390.610119</v>
+        <f>$O9*(M$7/$O$7)</f>
+        <v>41577835423.481102</v>
       </c>
       <c r="N9" s="36">
-        <f>$O9*(N$7/$O$8)</f>
-        <v>29151026716.132523</v>
+        <f>$O9*(N$7/$O$7)</f>
+        <v>35508164576.51889</v>
       </c>
       <c r="O9" s="35">
         <f>K42*10^6</f>
         <v>77086000000</v>
       </c>
       <c r="P9" s="36">
-        <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
-        <v>231678467719.94449</v>
+        <f>$S9*(P$7/$S$7)</f>
+        <v>298423587887.12842</v>
       </c>
       <c r="Q9" s="36">
+        <f t="shared" ref="Q9:R9" si="0">$S9*(Q$7/$S$7)</f>
+        <v>70364747095.099121</v>
+      </c>
+      <c r="R9" s="36">
         <f t="shared" si="0"/>
-        <v>54627038378.279327</v>
-      </c>
-      <c r="R9" s="36">
-        <f>$S9*(R$7/$S$8)</f>
-        <v>65835116221.865402</v>
+        <v>9647665017.7724514</v>
       </c>
       <c r="S9" s="35">
         <f>K36*10^6</f>
@@ -10426,68 +10470,68 @@
         <v>Compensation of employees</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" ref="D10:D12" si="2">$F10*($D$7/$F$8)</f>
-        <v>4563624775.155097</v>
+        <f>$F10*($D$7/$F$7)</f>
+        <v>5162297139.0431118</v>
       </c>
       <c r="E10" s="21">
         <f>L33*10^6</f>
-        <v>38814000000</v>
+        <v>24826000000</v>
       </c>
       <c r="F10" s="34">
         <f>L34*10^6</f>
-        <v>18055000000</v>
+        <v>18534000000</v>
       </c>
       <c r="G10" s="36">
-        <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
-        <v>55217046093.163567</v>
+        <f>$I10*(G$7/$I$7)</f>
+        <v>78457188349.305695</v>
       </c>
       <c r="H10" s="36">
-        <f t="shared" si="3"/>
-        <v>28572862492.38744</v>
+        <f>$I10*(H$7/$I$7)</f>
+        <v>40598811650.694305</v>
       </c>
       <c r="I10" s="34">
         <f>L58*10^6</f>
-        <v>100482000000</v>
+        <v>119056000000</v>
       </c>
       <c r="J10" s="36">
-        <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
-        <v>4277299306.9888878</v>
+        <f>$L10*(J$7/$L$7)</f>
+        <v>6897162112.3429813</v>
       </c>
       <c r="K10" s="36">
-        <f t="shared" si="4"/>
-        <v>16305595757.186401</v>
+        <f t="shared" ref="K10:L12" si="2">$L10*(K$7/$L$8)</f>
+        <v>19984590959.41716</v>
       </c>
       <c r="L10" s="35">
         <f>L41*10^6</f>
-        <v>27080000000</v>
+        <v>33190000000</v>
       </c>
       <c r="M10" s="36">
-        <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
-        <v>14008562219.564405</v>
+        <f>$O10*(M$7/$O$7)</f>
+        <v>18278692170.645138</v>
       </c>
       <c r="N10" s="36">
-        <f t="shared" si="5"/>
-        <v>11963545665.770288</v>
+        <f>$O10*(N$7/$O$7)</f>
+        <v>15610307829.35486</v>
       </c>
       <c r="O10" s="35">
         <f>L42*10^6</f>
-        <v>31636000000</v>
+        <v>33889000000</v>
       </c>
       <c r="P10" s="36">
-        <f t="shared" si="0"/>
-        <v>47523851039.974663</v>
+        <f>$S10*(P$7/$S$7)</f>
+        <v>73568926339.8349</v>
       </c>
       <c r="Q10" s="36">
-        <f t="shared" si="0"/>
-        <v>11205561139.080498</v>
+        <f>$S10*(Q$7/$S$7)</f>
+        <v>17346681382.03072</v>
       </c>
       <c r="R10" s="36">
-        <f t="shared" si="0"/>
-        <v>13504657067.696962</v>
+        <f>$S10*(R$7/$S$7)</f>
+        <v>2378392278.1343822</v>
       </c>
       <c r="S10" s="35">
         <f>L36*10^6</f>
-        <v>77628000000</v>
+        <v>93294000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -10499,68 +10543,68 @@
         <v>Taxes on production and imports, less subsidies</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" si="2"/>
-        <v>1255723505.0108292</v>
+        <f>$F11*($D$7/$F$7)</f>
+        <v>1580943053.9121995</v>
       </c>
       <c r="E11" s="21">
         <f>M33*10^6</f>
-        <v>32690000000</v>
+        <v>37895000000</v>
       </c>
       <c r="F11" s="34">
         <f>M34*10^6</f>
-        <v>4968000000</v>
+        <v>5676000000</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" si="3"/>
-        <v>8952808611.9884243</v>
+        <f>$I11*(G$7/$I$7)</f>
+        <v>12514295850.299988</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="3"/>
-        <v>4632760849.9629402</v>
+        <f>$I11*(H$7/$I$7)</f>
+        <v>6475704149.7000141</v>
       </c>
       <c r="I11" s="34">
         <f>M58*10^6</f>
-        <v>16292000000</v>
+        <v>18990000000</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" si="4"/>
-        <v>228396410.55782613</v>
+        <f>$L11*(J$7/$L$7)</f>
+        <v>232537643.98046991</v>
       </c>
       <c r="K11" s="36">
-        <f t="shared" si="4"/>
-        <v>870675460.29880118</v>
+        <f t="shared" si="2"/>
+        <v>673779972.38890624</v>
       </c>
       <c r="L11" s="35">
         <f>M41*10^6</f>
-        <v>1446000000</v>
+        <v>1119000000</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" si="5"/>
-        <v>1099483499.5314963</v>
+        <f>$O11*(M$7/$O$7)</f>
+        <v>1186612847.1013987</v>
       </c>
       <c r="N11" s="36">
-        <f t="shared" si="5"/>
-        <v>938977237.58084536</v>
+        <f>$O11*(N$7/$O$7)</f>
+        <v>1013387152.8986012</v>
       </c>
       <c r="O11" s="35">
         <f>M42*10^6</f>
-        <v>2483000000</v>
+        <v>2200000000</v>
       </c>
       <c r="P11" s="36">
-        <f t="shared" si="0"/>
-        <v>36126526172.514359</v>
+        <f>$S11*(P$7/$S$7)</f>
+        <v>55477534523.764282</v>
       </c>
       <c r="Q11" s="36">
-        <f t="shared" si="0"/>
-        <v>8518206940.5147533</v>
+        <f>$S11*(Q$7/$S$7)</f>
+        <v>13080945490.477686</v>
       </c>
       <c r="R11" s="36">
-        <f t="shared" si="0"/>
-        <v>10265926189.285637</v>
+        <f>$S11*(R$7/$S$7)</f>
+        <v>1793519985.7580345</v>
       </c>
       <c r="S11" s="35">
         <f>M36*10^6</f>
-        <v>59011000000</v>
+        <v>70352000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -10572,74 +10616,75 @@
         <v>Gross operating surplus</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" si="2"/>
-        <v>6817254157.3363676</v>
+        <f>$F12*($D$7/$F$7)</f>
+        <v>10314567155.122723</v>
       </c>
       <c r="E12" s="21">
         <f>N33*10^6</f>
-        <v>86727000000</v>
+        <v>176495000000</v>
       </c>
       <c r="F12" s="34">
         <f>N34*10^6</f>
-        <v>26971000000</v>
+        <v>37032000000</v>
       </c>
       <c r="G12" s="36">
-        <f t="shared" si="3"/>
-        <v>118809902943.99516</v>
+        <f>$I12*(G$7/$I$7)</f>
+        <v>198717001394.13165</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" si="3"/>
-        <v>61479909914.503288</v>
+        <f>$I12*(H$7/$I$7)</f>
+        <v>102828998605.86838</v>
       </c>
       <c r="I12" s="34">
         <f>N58*10^6</f>
-        <v>216206000000</v>
+        <v>301546000000</v>
       </c>
       <c r="J12" s="36">
-        <f t="shared" si="4"/>
-        <v>4128036092.6201839</v>
+        <f>$L12*(J$7/$L$7)</f>
+        <v>7463647918.858407</v>
       </c>
       <c r="K12" s="36">
-        <f t="shared" si="4"/>
-        <v>15736585860.933035</v>
+        <f t="shared" si="2"/>
+        <v>21625988818.873959</v>
       </c>
       <c r="L12" s="35">
         <f>N41*10^6</f>
-        <v>26135000000</v>
+        <v>35916000000</v>
       </c>
       <c r="M12" s="36">
-        <f t="shared" si="5"/>
-        <v>11489447588.539564</v>
+        <f>$O12*(M$7/$O$7)</f>
+        <v>22113069775.210522</v>
       </c>
       <c r="N12" s="36">
-        <f t="shared" si="5"/>
-        <v>9812179775.8800621</v>
+        <f>$O12*(N$7/$O$7)</f>
+        <v>18884930224.789478</v>
       </c>
       <c r="O12" s="35">
         <f>N42*10^6</f>
-        <v>25947000000</v>
+        <v>40998000000</v>
       </c>
       <c r="P12" s="36">
-        <f t="shared" si="0"/>
-        <v>99539412481.869949</v>
+        <f>$S12*(P$7/$S$7)</f>
+        <v>169377127023.52924</v>
       </c>
       <c r="Q12" s="36">
-        <f t="shared" si="0"/>
-        <v>23470214385.099648</v>
+        <f>$S12*(Q$7/$S$7)</f>
+        <v>39937120222.590714</v>
       </c>
       <c r="R12" s="36">
-        <f t="shared" si="0"/>
-        <v>28285704985.418304</v>
+        <f>$S12*(R$7/$S$7)</f>
+        <v>5475752753.8800354</v>
       </c>
       <c r="S12" s="35">
         <f>N36*10^6</f>
-        <v>162593000000</v>
+        <v>214790000000</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>743</v>
       </c>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -10650,6 +10695,7 @@
       <c r="B21" t="s">
         <v>745</v>
       </c>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -10731,13 +10777,13 @@
         <v>23315081</v>
       </c>
       <c r="L27" s="42">
-        <v>9709535</v>
+        <v>12549140</v>
       </c>
       <c r="M27" s="42">
-        <v>1217959</v>
+        <v>1181454</v>
       </c>
       <c r="N27" s="42">
-        <v>7310806</v>
+        <v>9584486</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
@@ -10763,13 +10809,13 @@
         <v>20502200</v>
       </c>
       <c r="L28" s="42">
-        <v>7863213</v>
+        <v>10338235</v>
       </c>
       <c r="M28" s="42">
-        <v>1242490</v>
+        <v>1228623</v>
       </c>
       <c r="N28" s="42">
-        <v>6793156</v>
+        <v>8935342</v>
       </c>
       <c r="P28" s="20"/>
     </row>
@@ -10795,17 +10841,17 @@
       <c r="J29" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="73">
         <v>206568</v>
       </c>
       <c r="L29" s="42">
-        <v>50616</v>
+        <v>61364</v>
       </c>
       <c r="M29" s="42">
-        <v>2314</v>
+        <v>-13408</v>
       </c>
       <c r="N29" s="42">
-        <v>129354</v>
+        <v>158612</v>
       </c>
       <c r="P29" s="20"/>
     </row>
@@ -10828,17 +10874,17 @@
       <c r="I30" t="s">
         <v>752</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="73">
         <v>164706</v>
       </c>
       <c r="L30" s="42">
-        <v>27205</v>
+        <v>31511</v>
       </c>
       <c r="M30" s="42">
-        <v>789</v>
+        <v>-14489</v>
       </c>
       <c r="N30" s="42">
-        <v>119390</v>
+        <v>147685</v>
       </c>
       <c r="P30" s="20"/>
     </row>
@@ -10861,17 +10907,17 @@
       <c r="I31" t="s">
         <v>753</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="73">
         <v>41862</v>
       </c>
       <c r="L31" s="42">
-        <v>23410</v>
+        <v>29853</v>
       </c>
       <c r="M31" s="42">
-        <v>1525</v>
+        <v>1081</v>
       </c>
       <c r="N31" s="42">
-        <v>9964</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
@@ -10893,17 +10939,17 @@
       <c r="I32" t="s">
         <v>754</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="73">
         <v>333935</v>
       </c>
       <c r="L32" s="42">
-        <v>91867</v>
+        <v>67307</v>
       </c>
       <c r="M32" s="42">
-        <v>40072</v>
+        <v>43668</v>
       </c>
       <c r="N32" s="42">
-        <v>129835</v>
+        <v>222959</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -10928,17 +10974,17 @@
       <c r="J33" t="s">
         <v>168</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="73">
         <v>239216</v>
       </c>
       <c r="L33" s="42">
-        <v>38814</v>
+        <v>24826</v>
       </c>
       <c r="M33" s="42">
-        <v>32690</v>
+        <v>37895</v>
       </c>
       <c r="N33" s="42">
-        <v>86727</v>
+        <v>176495</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -10963,17 +11009,17 @@
       <c r="J34" t="s">
         <v>757</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="73">
         <v>61242</v>
       </c>
       <c r="L34" s="42">
-        <v>18055</v>
+        <v>18534</v>
       </c>
       <c r="M34" s="42">
-        <v>4968</v>
+        <v>5676</v>
       </c>
       <c r="N34" s="42">
-        <v>26971</v>
+        <v>37032</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -10995,17 +11041,20 @@
       <c r="I35" t="s">
         <v>758</v>
       </c>
-      <c r="K35" s="42">
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="73">
         <v>33477</v>
       </c>
       <c r="L35" s="42">
-        <v>34998</v>
+        <v>23948</v>
       </c>
       <c r="M35" s="42">
-        <v>2415</v>
+        <v>98</v>
       </c>
       <c r="N35" s="42">
-        <v>16137</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -11028,19 +11077,19 @@
         <v>759</v>
       </c>
       <c r="J36" t="s">
-        <v>730</v>
-      </c>
-      <c r="K36" s="42">
+        <v>854</v>
+      </c>
+      <c r="K36" s="73">
         <v>378436</v>
       </c>
       <c r="L36" s="42">
-        <v>77628</v>
+        <v>93294</v>
       </c>
       <c r="M36" s="42">
-        <v>59011</v>
+        <v>70352</v>
       </c>
       <c r="N36" s="42">
-        <v>162593</v>
+        <v>214790</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -11065,17 +11114,17 @@
       <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="73">
         <v>945303</v>
       </c>
       <c r="L37" s="42">
-        <v>458477</v>
+        <v>635566</v>
       </c>
       <c r="M37" s="42">
-        <v>8976</v>
+        <v>-21700</v>
       </c>
       <c r="N37" s="42">
-        <v>227490</v>
+        <v>331437</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -11101,13 +11150,13 @@
         <v>2496804</v>
       </c>
       <c r="L38" s="42">
-        <v>1006425</v>
+        <v>1183656</v>
       </c>
       <c r="M38" s="42">
-        <v>85526</v>
+        <v>66392</v>
       </c>
       <c r="N38" s="42">
-        <v>1037641</v>
+        <v>1246756</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -11133,13 +11182,13 @@
         <v>1394985</v>
       </c>
       <c r="L39" s="42">
-        <v>662696</v>
+        <v>778644</v>
       </c>
       <c r="M39" s="42">
-        <v>30260</v>
+        <v>14922</v>
       </c>
       <c r="N39" s="42">
-        <v>490800</v>
+        <v>601419</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -11167,17 +11216,17 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="73">
         <v>61811</v>
       </c>
       <c r="L40" s="42">
-        <v>20428</v>
+        <v>28148</v>
       </c>
       <c r="M40" s="42">
-        <v>704</v>
+        <v>68</v>
       </c>
       <c r="N40" s="42">
-        <v>11353</v>
+        <v>33594</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -11205,17 +11254,17 @@
       <c r="J41" t="s">
         <v>765</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="73">
         <v>70225</v>
       </c>
       <c r="L41" s="42">
-        <v>27080</v>
+        <v>33190</v>
       </c>
       <c r="M41" s="42">
-        <v>1446</v>
+        <v>1119</v>
       </c>
       <c r="N41" s="42">
-        <v>26135</v>
+        <v>35916</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
@@ -11238,19 +11287,19 @@
         <v>766</v>
       </c>
       <c r="J42" t="s">
-        <v>728</v>
-      </c>
-      <c r="K42" s="42">
+        <v>855</v>
+      </c>
+      <c r="K42" s="73">
         <v>77086</v>
       </c>
       <c r="L42" s="42">
-        <v>31636</v>
+        <v>33889</v>
       </c>
       <c r="M42" s="42">
-        <v>2483</v>
+        <v>2200</v>
       </c>
       <c r="N42" s="42">
-        <v>25947</v>
+        <v>40998</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
@@ -11275,17 +11324,17 @@
       <c r="J43" t="s">
         <v>768</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="74">
         <v>162141</v>
       </c>
       <c r="L43" s="42">
-        <v>97092</v>
+        <v>107966</v>
       </c>
       <c r="M43" s="42">
-        <v>3374</v>
+        <v>-2241</v>
       </c>
       <c r="N43" s="42">
-        <v>46896</v>
+        <v>56416</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
@@ -11310,17 +11359,17 @@
       <c r="J44" t="s">
         <v>770</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="74">
         <v>174610</v>
       </c>
       <c r="L44" s="42">
-        <v>94664</v>
+        <v>101965</v>
       </c>
       <c r="M44" s="42">
-        <v>3548</v>
+        <v>953</v>
       </c>
       <c r="N44" s="42">
-        <v>54260</v>
+        <v>71692</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
@@ -11349,13 +11398,13 @@
         <v>334033</v>
       </c>
       <c r="L45" s="42">
-        <v>137529</v>
+        <v>183744</v>
       </c>
       <c r="M45" s="42">
-        <v>8570</v>
+        <v>8444</v>
       </c>
       <c r="N45" s="42">
-        <v>121224</v>
+        <v>141845</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
@@ -11384,13 +11433,13 @@
         <v>67654</v>
       </c>
       <c r="L46" s="42">
-        <v>34671</v>
+        <v>40560</v>
       </c>
       <c r="M46" s="42">
-        <v>879</v>
+        <v>378</v>
       </c>
       <c r="N46" s="42">
-        <v>28080</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
@@ -11419,13 +11468,13 @@
         <v>158687</v>
       </c>
       <c r="L47" s="42">
-        <v>69905</v>
+        <v>80207</v>
       </c>
       <c r="M47" s="42">
-        <v>3414</v>
+        <v>3063</v>
       </c>
       <c r="N47" s="42">
-        <v>72921</v>
+        <v>75417</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
@@ -11457,13 +11506,13 @@
         <v>156822</v>
       </c>
       <c r="L48" s="42">
-        <v>77790</v>
+        <v>84679</v>
       </c>
       <c r="M48" s="42">
-        <v>2485</v>
+        <v>2333</v>
       </c>
       <c r="N48" s="42">
-        <v>68800</v>
+        <v>69809</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
@@ -11495,13 +11544,13 @@
         <v>31513</v>
       </c>
       <c r="L49" s="42">
-        <v>20277</v>
+        <v>23500</v>
       </c>
       <c r="M49" s="42">
-        <v>387</v>
+        <v>-824</v>
       </c>
       <c r="N49" s="42">
-        <v>8477</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
@@ -11533,13 +11582,13 @@
         <v>100403</v>
       </c>
       <c r="L50" s="42">
-        <v>51622</v>
+        <v>60795</v>
       </c>
       <c r="M50" s="42">
-        <v>2969</v>
+        <v>-571</v>
       </c>
       <c r="N50" s="42">
-        <v>26708</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
@@ -11568,13 +11617,13 @@
         <v>1101819</v>
       </c>
       <c r="L51" s="42">
-        <v>343730</v>
+        <v>405012</v>
       </c>
       <c r="M51" s="42">
-        <v>55266</v>
+        <v>51469</v>
       </c>
       <c r="N51" s="42">
-        <v>546841</v>
+        <v>645337</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
@@ -11606,13 +11655,13 @@
         <v>322576</v>
       </c>
       <c r="L52" s="42">
-        <v>103480</v>
+        <v>134314</v>
       </c>
       <c r="M52" s="42">
-        <v>30122</v>
+        <v>26683</v>
       </c>
       <c r="N52" s="42">
-        <v>128122</v>
+        <v>161579</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
@@ -11644,13 +11693,13 @@
         <v>17689</v>
       </c>
       <c r="L53" s="42">
-        <v>12017</v>
+        <v>12358</v>
       </c>
       <c r="M53" s="42">
-        <v>571</v>
+        <v>234</v>
       </c>
       <c r="N53" s="42">
-        <v>5348</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
@@ -11682,13 +11731,13 @@
         <v>8310</v>
       </c>
       <c r="L54" s="42">
-        <v>8174</v>
+        <v>7262</v>
       </c>
       <c r="M54" s="42">
-        <v>290</v>
+        <v>-577</v>
       </c>
       <c r="N54" s="42">
-        <v>1230</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
@@ -11720,13 +11769,13 @@
         <v>62260</v>
       </c>
       <c r="L55" s="42">
-        <v>30172</v>
+        <v>32368</v>
       </c>
       <c r="M55" s="42">
-        <v>1736</v>
+        <v>1830</v>
       </c>
       <c r="N55" s="42">
-        <v>27760</v>
+        <v>28062</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
@@ -11758,13 +11807,13 @@
         <v>36946</v>
       </c>
       <c r="L56" s="42">
-        <v>26028</v>
+        <v>24722</v>
       </c>
       <c r="M56" s="42">
-        <v>762</v>
+        <v>-1115</v>
       </c>
       <c r="N56" s="42">
-        <v>13421</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
@@ -11796,13 +11845,13 @@
         <v>129339</v>
       </c>
       <c r="L57" s="42">
-        <v>19815</v>
+        <v>20164</v>
       </c>
       <c r="M57" s="42">
-        <v>3677</v>
+        <v>4344</v>
       </c>
       <c r="N57" s="42">
-        <v>121879</v>
+        <v>104831</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
@@ -11834,13 +11883,13 @@
         <v>439593</v>
       </c>
       <c r="L58" s="42">
-        <v>100482</v>
+        <v>119056</v>
       </c>
       <c r="M58" s="42">
-        <v>16292</v>
+        <v>18990</v>
       </c>
       <c r="N58" s="42">
-        <v>216206</v>
+        <v>301546</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
@@ -11872,13 +11921,13 @@
         <v>85107</v>
       </c>
       <c r="L59" s="42">
-        <v>43560</v>
+        <v>54768</v>
       </c>
       <c r="M59" s="42">
-        <v>1817</v>
+        <v>1081</v>
       </c>
       <c r="N59" s="42">
-        <v>32875</v>
+        <v>29258</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
@@ -11907,13 +11956,13 @@
         <v>1444497</v>
       </c>
       <c r="L60" s="42">
-        <v>509809</v>
+        <v>605994</v>
       </c>
       <c r="M60" s="42">
-        <v>210383</v>
+        <v>291032</v>
       </c>
       <c r="N60" s="42">
-        <v>422674</v>
+        <v>547472</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
@@ -11935,17 +11984,20 @@
       <c r="I61" t="s">
         <v>789</v>
       </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
       <c r="K61" s="42">
         <v>1391128</v>
       </c>
       <c r="L61" s="42">
-        <v>573627</v>
+        <v>745483</v>
       </c>
       <c r="M61" s="42">
-        <v>216863</v>
+        <v>271713</v>
       </c>
       <c r="N61" s="42">
-        <v>229589</v>
+        <v>373931</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
@@ -11967,21 +12019,12 @@
       <c r="I62" t="s">
         <v>790</v>
       </c>
-      <c r="J62" t="s">
-        <v>27</v>
-      </c>
       <c r="K62" s="42">
         <v>280758</v>
       </c>
-      <c r="L62" s="42">
-        <v>320031</v>
-      </c>
-      <c r="M62" s="42">
-        <v>34977</v>
-      </c>
-      <c r="N62" s="42">
-        <v>210828</v>
-      </c>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63">
@@ -12002,21 +12045,12 @@
       <c r="I63" t="s">
         <v>791</v>
       </c>
-      <c r="J63" t="s">
-        <v>27</v>
-      </c>
       <c r="K63" s="42">
         <v>184632</v>
       </c>
-      <c r="L63" s="42">
-        <v>48445</v>
-      </c>
-      <c r="M63" s="42">
-        <v>22055</v>
-      </c>
-      <c r="N63" s="42">
-        <v>47193</v>
-      </c>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64">
@@ -12037,21 +12071,12 @@
       <c r="I64" t="s">
         <v>792</v>
       </c>
-      <c r="J64" t="s">
-        <v>27</v>
-      </c>
       <c r="K64" s="42">
         <v>174777</v>
       </c>
-      <c r="L64" s="42">
-        <v>24226</v>
-      </c>
-      <c r="M64" s="42">
-        <v>208</v>
-      </c>
-      <c r="N64" s="42">
-        <v>19867</v>
-      </c>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65">
@@ -12072,21 +12097,12 @@
       <c r="I65" t="s">
         <v>793</v>
       </c>
-      <c r="J65" t="s">
-        <v>27</v>
-      </c>
       <c r="K65" s="42">
         <v>750960</v>
       </c>
-      <c r="L65" s="42">
-        <v>7322</v>
-      </c>
-      <c r="M65" s="42">
-        <v>867</v>
-      </c>
-      <c r="N65" s="42">
-        <v>7603</v>
-      </c>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66">
@@ -12111,13 +12127,13 @@
         <v>688237</v>
       </c>
       <c r="L66" s="42">
-        <v>92014</v>
+        <v>457113</v>
       </c>
       <c r="M66" s="42">
-        <v>4144</v>
+        <v>3238</v>
       </c>
       <c r="N66" s="42">
-        <v>52871</v>
+        <v>227885</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
@@ -12146,13 +12162,13 @@
         <v>84025</v>
       </c>
       <c r="L67" s="42">
-        <v>19815</v>
+        <v>58505</v>
       </c>
       <c r="M67" s="42">
-        <v>1708</v>
+        <v>-788</v>
       </c>
       <c r="N67" s="42">
-        <v>20673</v>
+        <v>26309</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
@@ -12181,13 +12197,13 @@
         <v>42153</v>
       </c>
       <c r="L68" s="42">
-        <v>7146</v>
+        <v>20227</v>
       </c>
       <c r="M68" s="42">
-        <v>2951</v>
+        <v>-2702</v>
       </c>
       <c r="N68" s="42">
-        <v>26712</v>
+        <v>24628</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
@@ -12216,13 +12232,13 @@
         <v>12846</v>
       </c>
       <c r="L69" s="42">
-        <v>77801</v>
+        <v>7297</v>
       </c>
       <c r="M69" s="42">
-        <v>2263</v>
+        <v>606</v>
       </c>
       <c r="N69" s="42">
-        <v>28010</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
@@ -12251,13 +12267,13 @@
         <v>192517</v>
       </c>
       <c r="L70" s="42">
-        <v>43261</v>
+        <v>118572</v>
       </c>
       <c r="M70" s="42">
-        <v>781</v>
+        <v>1252</v>
       </c>
       <c r="N70" s="42">
-        <v>7898</v>
+        <v>72694</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
@@ -12286,13 +12302,13 @@
         <v>42858</v>
       </c>
       <c r="L71" s="42">
-        <v>318675</v>
+        <v>24464</v>
       </c>
       <c r="M71" s="42">
-        <v>55293</v>
+        <v>-1234</v>
       </c>
       <c r="N71" s="42">
-        <v>532970</v>
+        <v>19629</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
@@ -12321,13 +12337,13 @@
         <v>45129</v>
       </c>
       <c r="L72" s="42">
-        <v>114787</v>
+        <v>8254</v>
       </c>
       <c r="M72" s="42">
-        <v>5467</v>
+        <v>4183</v>
       </c>
       <c r="N72" s="42">
-        <v>103343</v>
+        <v>32692</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
@@ -12356,13 +12372,13 @@
         <v>170002</v>
       </c>
       <c r="L73" s="42">
-        <v>34244</v>
+        <v>126402</v>
       </c>
       <c r="M73" s="42">
-        <v>6467</v>
+        <v>1135</v>
       </c>
       <c r="N73" s="42">
-        <v>46882</v>
+        <v>42465</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
@@ -12391,13 +12407,13 @@
         <v>98706</v>
       </c>
       <c r="L74" s="42">
-        <v>112649</v>
+        <v>93393</v>
       </c>
       <c r="M74" s="42">
-        <v>39472</v>
+        <v>788</v>
       </c>
       <c r="N74" s="42">
-        <v>273993</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
@@ -12423,13 +12439,13 @@
         <v>1313256</v>
       </c>
       <c r="L75" s="42">
-        <v>56995</v>
+        <v>507857</v>
       </c>
       <c r="M75" s="42">
-        <v>3888</v>
+        <v>56799</v>
       </c>
       <c r="N75" s="42">
-        <v>108752</v>
+        <v>748600</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
@@ -12461,13 +12477,13 @@
         <v>395124</v>
       </c>
       <c r="L76" s="42">
-        <v>852412</v>
+        <v>221340</v>
       </c>
       <c r="M76" s="42">
-        <v>319509</v>
+        <v>5630</v>
       </c>
       <c r="N76" s="42">
-        <v>2577118</v>
+        <v>168154</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
@@ -12499,13 +12515,13 @@
         <v>88008</v>
       </c>
       <c r="L77" s="42">
-        <v>715705</v>
+        <v>42938</v>
       </c>
       <c r="M77" s="42">
-        <v>63497</v>
+        <v>2213</v>
       </c>
       <c r="N77" s="42">
-        <v>583890</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
@@ -12537,13 +12553,13 @@
         <v>483601</v>
       </c>
       <c r="L78" s="42">
-        <v>236473</v>
+        <v>117427</v>
       </c>
       <c r="M78" s="42">
-        <v>17390</v>
+        <v>42469</v>
       </c>
       <c r="N78" s="42">
-        <v>306900</v>
+        <v>323705</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
@@ -12575,13 +12591,13 @@
         <v>346524</v>
       </c>
       <c r="L79" s="42">
-        <v>227418</v>
+        <v>126152</v>
       </c>
       <c r="M79" s="42">
-        <v>5065</v>
+        <v>6487</v>
       </c>
       <c r="N79" s="42">
-        <v>-1604</v>
+        <v>213884</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
@@ -12606,20 +12622,17 @@
       <c r="I80" t="s">
         <v>809</v>
       </c>
-      <c r="J80" t="s">
-        <v>33</v>
-      </c>
       <c r="K80" s="42">
         <v>4885647</v>
       </c>
       <c r="L80" s="42">
-        <v>250693</v>
+        <v>1179563</v>
       </c>
       <c r="M80" s="42">
-        <v>40312</v>
+        <v>392028</v>
       </c>
       <c r="N80" s="42">
-        <v>263076</v>
+        <v>3314056</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
@@ -12644,17 +12657,20 @@
       <c r="I81" t="s">
         <v>810</v>
       </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
       <c r="K81" s="42">
         <v>1958988</v>
       </c>
       <c r="L81" s="42">
-        <v>1121</v>
+        <v>991937</v>
       </c>
       <c r="M81" s="42">
-        <v>731</v>
+        <v>65266</v>
       </c>
       <c r="N81" s="42">
-        <v>15519</v>
+        <v>901786</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
@@ -12683,13 +12699,13 @@
         <v>890417</v>
       </c>
       <c r="L82" s="42">
-        <v>136707</v>
+        <v>347745</v>
       </c>
       <c r="M82" s="42">
-        <v>256012</v>
+        <v>21451</v>
       </c>
       <c r="N82" s="42">
-        <v>1993228</v>
+        <v>521221</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
@@ -12718,13 +12734,13 @@
         <v>399849</v>
       </c>
       <c r="L83" s="42">
-        <v>102208</v>
+        <v>316460</v>
       </c>
       <c r="M83" s="42">
-        <v>237200</v>
+        <v>6255</v>
       </c>
       <c r="N83" s="42">
-        <v>1840595</v>
+        <v>77135</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
@@ -12753,13 +12769,13 @@
         <v>637302</v>
       </c>
       <c r="L84" s="42">
-        <v>34499</v>
+        <v>323673</v>
       </c>
       <c r="M84" s="42">
-        <v>18812</v>
+        <v>36960</v>
       </c>
       <c r="N84" s="42">
-        <v>152633</v>
+        <v>276669</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
@@ -12788,13 +12804,13 @@
         <v>31420</v>
       </c>
       <c r="L85" s="42">
-        <v>1609923</v>
+        <v>4060</v>
       </c>
       <c r="M85" s="42">
-        <v>55918</v>
+        <v>600</v>
       </c>
       <c r="N85" s="42">
-        <v>571091</v>
+        <v>26760</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
@@ -12826,13 +12842,13 @@
         <v>2926658</v>
       </c>
       <c r="L86" s="42">
-        <v>909431</v>
+        <v>187626</v>
       </c>
       <c r="M86" s="42">
-        <v>35128</v>
+        <v>326762</v>
       </c>
       <c r="N86" s="42">
-        <v>404035</v>
+        <v>2412270</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
@@ -12861,13 +12877,13 @@
         <v>2670879</v>
       </c>
       <c r="L87" s="42">
-        <v>122863</v>
+        <v>147851</v>
       </c>
       <c r="M87" s="42">
-        <v>15945</v>
+        <v>303383</v>
       </c>
       <c r="N87" s="42">
-        <v>99788</v>
+        <v>2219644</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
@@ -12895,15 +12911,9 @@
       <c r="K88" s="42">
         <v>2114490</v>
       </c>
-      <c r="L88" s="42">
-        <v>234630</v>
-      </c>
-      <c r="M88" s="42">
-        <v>5942</v>
-      </c>
-      <c r="N88" s="42">
-        <v>44213</v>
-      </c>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89">
@@ -12930,15 +12940,9 @@
       <c r="K89" s="42">
         <v>556388</v>
       </c>
-      <c r="L89" s="42">
-        <v>551939</v>
-      </c>
-      <c r="M89" s="42">
-        <v>13242</v>
-      </c>
-      <c r="N89" s="42">
-        <v>260034</v>
-      </c>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90">
@@ -12966,13 +12970,13 @@
         <v>255780</v>
       </c>
       <c r="L90" s="42">
-        <v>302345</v>
+        <v>39775</v>
       </c>
       <c r="M90" s="42">
-        <v>8494</v>
+        <v>23379</v>
       </c>
       <c r="N90" s="42">
-        <v>37122</v>
+        <v>192626</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
@@ -13001,13 +13005,13 @@
         <v>3037512</v>
       </c>
       <c r="L91" s="42">
-        <v>398148</v>
+        <v>2242330</v>
       </c>
       <c r="M91" s="42">
-        <v>12295</v>
+        <v>39040</v>
       </c>
       <c r="N91" s="42">
-        <v>129933</v>
+        <v>756142</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
@@ -13036,13 +13040,13 @@
         <v>1843498</v>
       </c>
       <c r="L92" s="42">
-        <v>371539</v>
+        <v>1307639</v>
       </c>
       <c r="M92" s="42">
-        <v>8972</v>
+        <v>22551</v>
       </c>
       <c r="N92" s="42">
-        <v>111954</v>
+        <v>513308</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
@@ -13074,13 +13078,13 @@
         <v>303191</v>
       </c>
       <c r="L93" s="42">
-        <v>26608</v>
+        <v>157836</v>
       </c>
       <c r="M93" s="42">
-        <v>3323</v>
+        <v>18115</v>
       </c>
       <c r="N93" s="42">
-        <v>17979</v>
+        <v>127240</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
@@ -13112,13 +13116,13 @@
         <v>424583</v>
       </c>
       <c r="L94" s="42">
-        <v>1265582</v>
+        <v>374959</v>
       </c>
       <c r="M94" s="42">
-        <v>35545</v>
+        <v>4582</v>
       </c>
       <c r="N94" s="42">
-        <v>269876</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
@@ -13150,13 +13154,13 @@
         <v>1115723</v>
       </c>
       <c r="L95" s="42">
-        <v>180447</v>
+        <v>774844</v>
       </c>
       <c r="M95" s="42">
-        <v>8387</v>
+        <v>-146</v>
       </c>
       <c r="N95" s="42">
-        <v>44604</v>
+        <v>341025</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
@@ -13188,13 +13192,13 @@
         <v>448324</v>
       </c>
       <c r="L96" s="42">
-        <v>1085134</v>
+        <v>392407</v>
       </c>
       <c r="M96" s="42">
-        <v>27158</v>
+        <v>10322</v>
       </c>
       <c r="N96" s="42">
-        <v>225272</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
@@ -13219,20 +13223,17 @@
       <c r="I97" t="s">
         <v>826</v>
       </c>
-      <c r="J97" t="s">
-        <v>35</v>
-      </c>
       <c r="K97" s="42">
         <v>745689</v>
       </c>
       <c r="L97" s="42">
-        <v>494895</v>
+        <v>542284</v>
       </c>
       <c r="M97" s="42">
-        <v>8566</v>
+        <v>6167</v>
       </c>
       <c r="N97" s="42">
-        <v>140714</v>
+        <v>197239</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
@@ -13261,13 +13262,13 @@
         <v>680145</v>
       </c>
       <c r="L98" s="42">
-        <v>489855</v>
+        <v>504904</v>
       </c>
       <c r="M98" s="42">
-        <v>16768</v>
+        <v>2445</v>
       </c>
       <c r="N98" s="42">
-        <v>74709</v>
+        <v>172795</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
@@ -13296,13 +13297,13 @@
         <v>65545</v>
       </c>
       <c r="L99" s="42">
-        <v>100385</v>
+        <v>37380</v>
       </c>
       <c r="M99" s="42">
-        <v>1824</v>
+        <v>3721</v>
       </c>
       <c r="N99" s="42">
-        <v>9849</v>
+        <v>24443</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
@@ -13328,13 +13329,13 @@
         <v>2005555</v>
       </c>
       <c r="L100" s="42">
-        <v>441746</v>
+        <v>1670227</v>
       </c>
       <c r="M100" s="42">
-        <v>96713</v>
+        <v>-7893</v>
       </c>
       <c r="N100" s="42">
-        <v>208314</v>
+        <v>343221</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
@@ -13363,13 +13364,13 @@
         <v>269726</v>
       </c>
       <c r="L101" s="42">
-        <v>100888</v>
+        <v>225927</v>
       </c>
       <c r="M101" s="42">
-        <v>19506</v>
+        <v>6071</v>
       </c>
       <c r="N101" s="42">
-        <v>73075</v>
+        <v>37728</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
@@ -13398,13 +13399,13 @@
         <v>1735828</v>
       </c>
       <c r="L102" s="42">
-        <v>52218</v>
+        <v>1444300</v>
       </c>
       <c r="M102" s="42">
-        <v>8029</v>
+        <v>-13964</v>
       </c>
       <c r="N102" s="42">
-        <v>52602</v>
+        <v>305492</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
@@ -13430,13 +13431,13 @@
         <v>849505</v>
       </c>
       <c r="L103" s="42">
-        <v>48669</v>
+        <v>674729</v>
       </c>
       <c r="M103" s="42">
-        <v>11476</v>
+        <v>-22310</v>
       </c>
       <c r="N103" s="42">
-        <v>20473</v>
+        <v>197086</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
@@ -13462,13 +13463,13 @@
         <v>560762</v>
       </c>
       <c r="L104" s="42">
-        <v>340858</v>
+        <v>620943</v>
       </c>
       <c r="M104" s="42">
-        <v>77207</v>
+        <v>15824</v>
       </c>
       <c r="N104" s="42">
-        <v>135239</v>
+        <v>92095</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
@@ -13493,15 +13494,9 @@
       <c r="K105" s="42">
         <v>168100</v>
       </c>
-      <c r="L105" s="42">
-        <v>77673</v>
-      </c>
-      <c r="M105" s="42">
-        <v>26513</v>
-      </c>
-      <c r="N105" s="42">
-        <v>53331</v>
-      </c>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106">
@@ -13526,13 +13521,13 @@
         <v>157461</v>
       </c>
       <c r="L106" s="42">
-        <v>263185</v>
+        <v>148628</v>
       </c>
       <c r="M106" s="42">
-        <v>50694</v>
+        <v>-7478</v>
       </c>
       <c r="N106" s="42">
-        <v>81908</v>
+        <v>16311</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
@@ -13558,13 +13553,13 @@
         <v>905472</v>
       </c>
       <c r="L107" s="42">
-        <v>286397</v>
+        <v>538307</v>
       </c>
       <c r="M107" s="42">
-        <v>21390</v>
+        <v>28273</v>
       </c>
       <c r="N107" s="42">
-        <v>83782</v>
+        <v>338892</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
@@ -13593,13 +13588,13 @@
         <v>219014</v>
       </c>
       <c r="L108" s="42">
-        <v>1846322</v>
+        <v>119061</v>
       </c>
       <c r="M108" s="42">
-        <v>-24531</v>
+        <v>9928</v>
       </c>
       <c r="N108" s="42">
-        <v>517651</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
@@ -13625,13 +13620,13 @@
         <v>130571</v>
       </c>
       <c r="L109" s="42">
-        <v>469030</v>
+        <v>61598</v>
       </c>
       <c r="M109" s="42">
-        <v>-6001</v>
+        <v>-5597</v>
       </c>
       <c r="N109" s="42">
-        <v>268250</v>
+        <v>74571</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
@@ -13657,13 +13652,13 @@
         <v>88443</v>
       </c>
       <c r="L110" s="42">
-        <v>409923</v>
-      </c>
-      <c r="M110" s="42" t="s">
-        <v>379</v>
+        <v>57464</v>
+      </c>
+      <c r="M110" s="42">
+        <v>15526</v>
       </c>
       <c r="N110" s="42">
-        <v>263735</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
@@ -13692,13 +13687,13 @@
         <v>686458</v>
       </c>
       <c r="L111" s="42">
-        <v>59107</v>
+        <v>419246</v>
       </c>
       <c r="M111" s="42">
-        <v>-6001</v>
+        <v>18345</v>
       </c>
       <c r="N111" s="42">
-        <v>4515</v>
+        <v>248867</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
@@ -13724,13 +13719,13 @@
         <v>162428</v>
       </c>
       <c r="L112" s="42">
-        <v>1377292</v>
+        <v>78099</v>
       </c>
       <c r="M112" s="42">
-        <v>-18530</v>
+        <v>22408</v>
       </c>
       <c r="N112" s="42">
-        <v>249400</v>
+        <v>61921</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
@@ -13756,13 +13751,13 @@
         <v>524030</v>
       </c>
       <c r="L113" s="42">
-        <v>1275273</v>
-      </c>
-      <c r="M113" s="42" t="s">
-        <v>379</v>
+        <v>341147</v>
+      </c>
+      <c r="M113" s="42">
+        <v>-4063</v>
       </c>
       <c r="N113" s="42">
-        <v>192044</v>
+        <v>186947</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
@@ -13785,19 +13780,19 @@
         <v>843</v>
       </c>
       <c r="J114" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="K114" s="42">
         <v>469851</v>
       </c>
       <c r="L114" s="42">
-        <v>102019</v>
+        <v>350173</v>
       </c>
       <c r="M114" s="42">
-        <v>-18530</v>
+        <v>9089</v>
       </c>
       <c r="N114" s="42">
-        <v>57356</v>
+        <v>110589</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
@@ -13817,13 +13812,22 @@
         <v>388</v>
       </c>
       <c r="I115" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J115" t="s">
         <v>36</v>
       </c>
       <c r="K115" s="42">
         <v>2812880</v>
+      </c>
+      <c r="L115">
+        <v>2210905</v>
+      </c>
+      <c r="M115">
+        <v>-47169</v>
+      </c>
+      <c r="N115">
+        <v>649144</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
@@ -13843,10 +13847,19 @@
         <v>390</v>
       </c>
       <c r="I116" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K116" s="42">
         <v>887513</v>
+      </c>
+      <c r="L116">
+        <v>572417</v>
+      </c>
+      <c r="M116">
+        <v>-9083</v>
+      </c>
+      <c r="N116">
+        <v>324179</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
@@ -13866,10 +13879,19 @@
         <v>392</v>
       </c>
       <c r="I117" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K117" s="42">
         <v>819341</v>
+      </c>
+      <c r="L117">
+        <v>506804</v>
+      </c>
+      <c r="M117" t="s">
+        <v>379</v>
+      </c>
+      <c r="N117">
+        <v>312537</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.35">
@@ -13889,7 +13911,7 @@
         <v>394</v>
       </c>
       <c r="I118" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K118" s="42">
         <v>469774</v>
@@ -13912,7 +13934,7 @@
         <v>396</v>
       </c>
       <c r="I119" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K119" s="42">
         <v>349566</v>
@@ -13935,10 +13957,19 @@
         <v>398</v>
       </c>
       <c r="I120" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K120" s="42">
         <v>68172</v>
+      </c>
+      <c r="L120">
+        <v>65613</v>
+      </c>
+      <c r="M120">
+        <v>-9083</v>
+      </c>
+      <c r="N120">
+        <v>11642</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.35">
@@ -13958,10 +13989,19 @@
         <v>400</v>
       </c>
       <c r="I121" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K121" s="42">
         <v>1925367</v>
+      </c>
+      <c r="L121">
+        <v>1638488</v>
+      </c>
+      <c r="M121">
+        <v>-38086</v>
+      </c>
+      <c r="N121">
+        <v>324965</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
@@ -13981,10 +14021,19 @@
         <v>402</v>
       </c>
       <c r="I122" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K122" s="42">
         <v>1766596</v>
+      </c>
+      <c r="L122">
+        <v>1519644</v>
+      </c>
+      <c r="M122" t="s">
+        <v>379</v>
+      </c>
+      <c r="N122">
+        <v>246952</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
@@ -14004,10 +14053,19 @@
         <v>404</v>
       </c>
       <c r="I123" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K123" s="42">
         <v>158772</v>
+      </c>
+      <c r="L123">
+        <v>118844</v>
+      </c>
+      <c r="M123">
+        <v>-38086</v>
+      </c>
+      <c r="N123">
+        <v>78014</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
@@ -18588,8 +18646,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B26:F443" xr:uid="{0339536F-9934-4689-98A8-C778F8365AC3}"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{DC2175F3-9C12-4C2D-9F19-6D805ADE3735}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18600,17 +18661,18 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ2"/>
+    </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" style="70" customWidth="1"/>
-    <col min="20" max="26" width="10.1796875" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
     <col min="27" max="27" width="12.81640625" customWidth="1"/>
     <col min="28" max="43" width="10.1796875" customWidth="1"/>
   </cols>
@@ -18670,7 +18732,7 @@
       <c r="R1" s="52" t="s">
         <v>729</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -18752,171 +18814,171 @@
       </c>
       <c r="B2">
         <f>SUM('U.S. Data for ISIC Splits'!D27:D39)*10^6*About!$A$37</f>
-        <v>463750890000</v>
+        <v>451490809000</v>
       </c>
       <c r="C2" s="54">
         <f>'U.S. Data for ISIC Splits'!D41*10^6*About!$A$37</f>
-        <v>23961540000</v>
+        <v>23328074000</v>
       </c>
       <c r="D2" s="55">
         <f>'U.S. Data for ISIC Splits'!D40*10^6*About!$A$37</f>
-        <v>443900100000</v>
+        <v>432164810000</v>
       </c>
       <c r="E2">
         <f>SUM('U.S. Data for ISIC Splits'!D42:D45)*10^6*About!$A$37</f>
-        <v>62066670000</v>
+        <v>60425827000</v>
       </c>
       <c r="F2">
         <f>SUM('U.S. Data for ISIC Splits'!D46:D47)*10^6*About!$A$37</f>
-        <v>54981390000</v>
+        <v>53527859000</v>
       </c>
       <c r="G2">
         <f>SUM('U.S. Data for ISIC Splits'!D227:D255)*10^6*About!$A$37</f>
-        <v>816234870000</v>
+        <v>794656247000</v>
       </c>
       <c r="H2">
         <f>SUM('U.S. Data for ISIC Splits'!D256:D263)*10^6*About!$A$37</f>
-        <v>56888430000</v>
+        <v>55384483000</v>
       </c>
       <c r="I2">
         <f>SUM('U.S. Data for ISIC Splits'!D72:D75)*10^6*About!$A$37</f>
-        <v>84838920000</v>
+        <v>82596052000</v>
       </c>
       <c r="J2">
         <f>SUM('U.S. Data for ISIC Splits'!D264:D273)*10^6*About!$A$37</f>
-        <v>202295880000</v>
+        <v>196947828000</v>
       </c>
       <c r="K2">
         <f>SUM('U.S. Data for ISIC Splits'!D274:D277)*10^6*About!$A$37</f>
-        <v>674696310000</v>
+        <v>656859511000</v>
       </c>
       <c r="L2" s="56">
         <f>SUM('U.S. Data for ISIC Splits'!D278:D284,'U.S. Data for ISIC Splits'!D289:D296)*10^6*About!$A$37</f>
-        <v>405072870000</v>
+        <v>394364047000</v>
       </c>
       <c r="M2" s="57">
         <f>SUM('U.S. Data for ISIC Splits'!D285:D288)*10^6*About!$A$37</f>
-        <v>209610840000</v>
+        <v>204069404000</v>
       </c>
       <c r="N2">
         <f>SUM('U.S. Data for ISIC Splits'!D297:D306)*10^6*About!$A$37</f>
-        <v>181341930000</v>
+        <v>176547833000</v>
       </c>
       <c r="O2" s="56">
         <f>'U.S. Data for ISIC Splits'!D77*10^6*About!$A$37</f>
-        <v>20106570000</v>
+        <v>19575017000</v>
       </c>
       <c r="P2" s="57">
         <f>SUM('U.S. Data for ISIC Splits'!D76,'U.S. Data for ISIC Splits'!D78:D87)*10^6*About!$A$37</f>
-        <v>76648740000</v>
+        <v>74622394000</v>
       </c>
       <c r="Q2" s="56">
         <f>SUM('U.S. Data for ISIC Splits'!D88,'U.S. Data for ISIC Splits'!D96)*10^6*About!$A$37</f>
-        <v>82300260000</v>
+        <v>80124506000</v>
       </c>
       <c r="R2" s="57">
         <f>SUM('U.S. Data for ISIC Splits'!D90:D95,'U.S. Data for ISIC Splits'!D97)*10^6*About!$A$37</f>
-        <v>86375340000</v>
-      </c>
-      <c r="S2" s="70">
+        <v>84091854000</v>
+      </c>
+      <c r="S2">
         <f>SUM('U.S. Data for ISIC Splits'!D89,'U.S. Data for ISIC Splits'!D98:D117)*10^6*About!$A$37</f>
-        <v>299148630000</v>
+        <v>291240103000</v>
       </c>
       <c r="T2">
         <f>SUM('U.S. Data for ISIC Splits'!D146:D165)*10^6*About!$A$37</f>
-        <v>385992900000</v>
+        <v>375788490000</v>
       </c>
       <c r="U2">
         <f>SUM('U.S. Data for ISIC Splits'!D166:D182)*10^6*About!$A$37</f>
-        <v>109201530000</v>
+        <v>106314593000</v>
       </c>
       <c r="V2">
         <f>SUM('U.S. Data for ISIC Splits'!D118:D145)*10^6*About!$A$37</f>
-        <v>303220230000</v>
+        <v>295204063000</v>
       </c>
       <c r="W2">
         <f>SUM('U.S. Data for ISIC Splits'!D183:D196)*10^6*About!$A$37</f>
-        <v>573373500000</v>
+        <v>558215350000</v>
       </c>
       <c r="X2">
         <f>SUM('U.S. Data for ISIC Splits'!D197:D207)*10^6*About!$A$37</f>
-        <v>240560220000</v>
+        <v>234200582000</v>
       </c>
       <c r="Y2">
-        <f>SUM('U.S. Data for ISIC Splits'!D208:D226)*10^6*About!$A$37</f>
-        <v>199310910000</v>
+        <f>SUM('U.S. Data for ISIC Splits'!D208:D226,'U.S. Data for ISIC Splits'!D422:D424)*10^6*About!$A$37</f>
+        <v>257393983000</v>
       </c>
       <c r="Z2" s="56">
         <f>SUM('U.S. Data for ISIC Splits'!D48:D57)*10^6*About!$A$37</f>
-        <v>342980970000</v>
+        <v>333913657000</v>
       </c>
       <c r="AA2" s="58">
         <f>'U.S. Data for ISIC Splits'!D58*10^6*About!$A$37</f>
-        <v>80870850000</v>
+        <v>78732885000</v>
       </c>
       <c r="AB2" s="57">
         <f>SUM('U.S. Data for ISIC Splits'!D59,'U.S. Data for ISIC Splits'!D392)*10^6*About!$A$37</f>
-        <v>97463490000</v>
+        <v>94886869000</v>
       </c>
       <c r="AC2">
         <f>SUM('U.S. Data for ISIC Splits'!D60:D71)*10^6*About!$A$37</f>
-        <v>1242667980000</v>
+        <v>1209815838000</v>
       </c>
       <c r="AD2">
         <f>SUM('U.S. Data for ISIC Splits'!D307:D329,'U.S. Data for ISIC Splits'!D421)*10^6*About!$A$37</f>
-        <v>3535284150000</v>
+        <v>3441822615000</v>
       </c>
       <c r="AE2">
         <f>SUM('U.S. Data for ISIC Splits'!D330:D338)*10^6*About!$A$37</f>
-        <v>1055664960000</v>
+        <v>1027756576000</v>
       </c>
       <c r="AF2">
         <f>SUM('U.S. Data for ISIC Splits'!D417:D420)*10^6*About!$A$37</f>
-        <v>882668070000</v>
+        <v>859333167000</v>
       </c>
       <c r="AG2">
         <f>SUM('U.S. Data for ISIC Splits'!D339:D347)*10^6*About!$A$37</f>
-        <v>791131020000</v>
+        <v>770216062000</v>
       </c>
       <c r="AH2">
         <f>SUM('U.S. Data for ISIC Splits'!D348:D350)*10^6*About!$A$37</f>
-        <v>661430550000</v>
+        <v>643944455000</v>
       </c>
       <c r="AI2">
         <f>SUM('U.S. Data for ISIC Splits'!D351:D353,'U.S. Data for ISIC Splits'!D370:D372)*10^6*About!$A$37</f>
-        <v>1067478690000</v>
+        <v>1039257989000</v>
       </c>
       <c r="AJ2">
         <f>SUM('U.S. Data for ISIC Splits'!D354:D361)*10^6*About!$A$37</f>
-        <v>2290908360000</v>
+        <v>2230344116000</v>
       </c>
       <c r="AK2">
         <f>SUM('U.S. Data for ISIC Splits'!D362:D368)*10^6*About!$A$37</f>
-        <v>3036125130000</v>
+        <v>2955859753000</v>
       </c>
       <c r="AL2">
         <f>SUM('U.S. Data for ISIC Splits'!D373:D391,'U.S. Data for ISIC Splits'!D369)*10^6*About!$A$37</f>
-        <v>3305280510000</v>
+        <v>3217899531000</v>
       </c>
       <c r="AM2">
         <f>SUM('U.S. Data for ISIC Splits'!D433:D443)*10^6*About!$A$37</f>
-        <v>3178361430000</v>
+        <v>3094335783000</v>
       </c>
       <c r="AN2">
         <f>SUM('U.S. Data for ISIC Splits'!D393:D395)*10^6*About!$A$37</f>
-        <v>276578220000</v>
+        <v>269266382000</v>
       </c>
       <c r="AO2">
         <f>SUM('U.S. Data for ISIC Splits'!D396:D408,'U.S. Data for ISIC Splits'!D425:D431)*10^6*About!$A$37</f>
-        <v>2381350950000</v>
+        <v>2318395695000</v>
       </c>
       <c r="AP2">
         <f>SUM('U.S. Data for ISIC Splits'!D409:D416)*10^6*About!$A$37</f>
-        <v>237546540000</v>
+        <v>231266574000</v>
       </c>
       <c r="AQ2">
         <f>'U.S. Data for ISIC Splits'!D432*10^6*About!$A$37</f>
-        <v>16408200000</v>
+        <v>15974420000</v>
       </c>
     </row>
   </sheetData>
